--- a/XLDATA/Mars-QA TestCase-User Story1.xlsx
+++ b/XLDATA/Mars-QA TestCase-User Story1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IC Course\MarsQA\XLDATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3330BDD-6644-4B24-B25C-B85499D7A73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0440BF01-66DC-47DE-80A1-46573ECA446E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,9 +352,6 @@
     <t>3.Click the edit button symbol in the list</t>
   </si>
   <si>
-    <t>3.Click the delete icon in the list</t>
-  </si>
-  <si>
     <t>3.Click the edit icon in the list</t>
   </si>
   <si>
@@ -530,6 +527,9 @@
   </si>
   <si>
     <t xml:space="preserve">      TC_036</t>
+  </si>
+  <si>
+    <t>3.Click the delete icon in the list.</t>
   </si>
 </sst>
 </file>
@@ -714,87 +714,111 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -803,30 +827,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,8 +1048,8 @@
   </sheetPr>
   <dimension ref="A1:D224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D229" sqref="D229"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1081,10 +1081,10 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1095,32 +1095,32 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1133,10 +1133,10 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1147,32 +1147,32 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1185,10 +1185,10 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1199,32 +1199,32 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1237,10 +1237,10 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1251,32 +1251,32 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
@@ -1289,10 +1289,10 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1303,24 +1303,24 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1333,10 +1333,10 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -1347,24 +1347,24 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="14" t="s">
         <v>29</v>
       </c>
@@ -1376,11 +1376,11 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="31" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -1391,24 +1391,24 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="49"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="49"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="14" t="s">
         <v>29</v>
       </c>
@@ -1421,10 +1421,10 @@
       <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="43" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -1435,44 +1435,44 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="49"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="46" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -1483,24 +1483,24 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
-      <c r="B49" s="32"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="47"/>
       <c r="C49" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="14" t="s">
         <v>47</v>
       </c>
@@ -1512,11 +1512,11 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="35" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="40" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -1527,176 +1527,176 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="41"/>
       <c r="C56" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="29"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="30"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="34"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="56" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
-      <c r="B61" s="43"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
-      <c r="B62" s="43"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
-      <c r="B63" s="43"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="57"/>
       <c r="C63" s="14" t="s">
         <v>78</v>
       </c>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
-      <c r="B64" s="43"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="44"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="14" t="s">
         <v>84</v>
       </c>
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
-      <c r="B66" s="37"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="B67" s="42" t="s">
+      <c r="A67" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="56" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
-      <c r="B68" s="43"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="43"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
-      <c r="B70" s="43"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
-      <c r="B71" s="43"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
-      <c r="B72" s="44"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="58"/>
       <c r="C72" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
+      <c r="A73" s="19"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="B74" s="18" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="15" t="s">
@@ -1707,40 +1707,40 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
-      <c r="B75" s="29"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="41"/>
       <c r="C75" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
-      <c r="B76" s="29"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
-      <c r="B77" s="29"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="41"/>
       <c r="C77" s="14" t="s">
         <v>87</v>
       </c>
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
-      <c r="B78" s="29"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="41"/>
       <c r="C78" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="39"/>
-      <c r="B79" s="30"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="14" t="s">
         <v>80</v>
       </c>
@@ -1753,10 +1753,10 @@
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="40" t="s">
         <v>75</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -1767,40 +1767,40 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
-      <c r="B82" s="29"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="41"/>
       <c r="C82" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="54"/>
-      <c r="B83" s="29"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="41"/>
       <c r="C83" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="54"/>
-      <c r="B84" s="29"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="41"/>
       <c r="C84" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="54"/>
-      <c r="B85" s="29"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="41"/>
       <c r="C85" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
-      <c r="B86" s="30"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="14" t="s">
         <v>80</v>
       </c>
@@ -1813,10 +1813,10 @@
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B88" s="18" t="s">
+      <c r="A88" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B88" s="40" t="s">
         <v>53</v>
       </c>
       <c r="C88" s="15" t="s">
@@ -1827,40 +1827,40 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
-      <c r="B89" s="29"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="41"/>
       <c r="C89" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="54"/>
-      <c r="B90" s="29"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="41"/>
       <c r="C90" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="54"/>
-      <c r="B91" s="29"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="41"/>
       <c r="C91" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="54"/>
-      <c r="B92" s="29"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="41"/>
       <c r="C92" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
-      <c r="B93" s="30"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="14" t="s">
         <v>80</v>
       </c>
@@ -1873,10 +1873,10 @@
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="21" t="s">
+      <c r="A95" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="40" t="s">
         <v>55</v>
       </c>
       <c r="C95" s="15" t="s">
@@ -1887,40 +1887,40 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="54"/>
-      <c r="B96" s="29"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="41"/>
       <c r="C96" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="54"/>
-      <c r="B97" s="29"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="41"/>
       <c r="C97" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="54"/>
-      <c r="B98" s="29"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="41"/>
       <c r="C98" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="54"/>
-      <c r="B99" s="29"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="41"/>
       <c r="C99" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="55"/>
-      <c r="B100" s="30"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="42"/>
       <c r="C100" s="14" t="s">
         <v>80</v>
       </c>
@@ -1933,10 +1933,10 @@
       <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="B102" s="31" t="s">
+      <c r="A102" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B102" s="46" t="s">
         <v>56</v>
       </c>
       <c r="C102" s="15" t="s">
@@ -1947,40 +1947,40 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="57"/>
-      <c r="B103" s="32"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="47"/>
       <c r="C103" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="57"/>
-      <c r="B104" s="32"/>
+      <c r="A104" s="29"/>
+      <c r="B104" s="47"/>
       <c r="C104" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="57"/>
-      <c r="B105" s="32"/>
+      <c r="A105" s="29"/>
+      <c r="B105" s="47"/>
       <c r="C105" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="57"/>
-      <c r="B106" s="32"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="47"/>
       <c r="C106" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="58"/>
-      <c r="B107" s="33"/>
+      <c r="A107" s="30"/>
+      <c r="B107" s="48"/>
       <c r="C107" s="14" t="s">
         <v>80</v>
       </c>
@@ -1993,10 +1993,10 @@
       <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B109" s="18" t="s">
+      <c r="A109" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B109" s="40" t="s">
         <v>57</v>
       </c>
       <c r="C109" s="15" t="s">
@@ -2007,47 +2007,47 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="54"/>
-      <c r="B110" s="29"/>
+      <c r="A110" s="38"/>
+      <c r="B110" s="41"/>
       <c r="C110" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="54"/>
-      <c r="B111" s="29"/>
+      <c r="A111" s="38"/>
+      <c r="B111" s="41"/>
       <c r="C111" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D111" s="3"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="54"/>
-      <c r="B112" s="29"/>
+      <c r="A112" s="38"/>
+      <c r="B112" s="41"/>
       <c r="C112" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D112" s="3"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="54"/>
-      <c r="B113" s="29"/>
+      <c r="A113" s="38"/>
+      <c r="B113" s="41"/>
       <c r="C113" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D113" s="3"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="55"/>
-      <c r="B114" s="30"/>
+      <c r="A114" s="39"/>
+      <c r="B114" s="42"/>
       <c r="C114" s="14" t="s">
         <v>80</v>
       </c>
       <c r="D114" s="3"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="40" t="s">
+      <c r="A115" s="23" t="s">
         <v>95</v>
       </c>
       <c r="B115" s="12"/>
@@ -2055,10 +2055,10 @@
       <c r="D115" s="3"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="B116" s="56" t="s">
+      <c r="A116" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B116" s="28" t="s">
         <v>96</v>
       </c>
       <c r="C116" s="14" t="s">
@@ -2069,8 +2069,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="58"/>
-      <c r="B117" s="58"/>
+      <c r="A117" s="30"/>
+      <c r="B117" s="30"/>
       <c r="C117" s="13" t="s">
         <v>76</v>
       </c>
@@ -2083,46 +2083,46 @@
       <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B119" s="35" t="s">
-        <v>113</v>
+      <c r="A119" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B119" s="43" t="s">
+        <v>112</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="38"/>
-      <c r="B120" s="36"/>
+      <c r="A120" s="32"/>
+      <c r="B120" s="44"/>
       <c r="C120" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D120" s="3"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="38"/>
-      <c r="B121" s="36"/>
+      <c r="A121" s="32"/>
+      <c r="B121" s="44"/>
       <c r="C121" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="32"/>
+      <c r="B122" s="44"/>
+      <c r="C122" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D121" s="3"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="38"/>
-      <c r="B122" s="36"/>
-      <c r="C122" s="14" t="s">
-        <v>112</v>
-      </c>
       <c r="D122" s="3"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="39"/>
-      <c r="B123" s="59"/>
+      <c r="A123" s="33"/>
+      <c r="B123" s="45"/>
       <c r="C123" s="14" t="s">
         <v>100</v>
       </c>
@@ -2135,46 +2135,46 @@
       <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="B125" s="31" t="s">
-        <v>114</v>
+      <c r="A125" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B125" s="46" t="s">
+        <v>113</v>
       </c>
       <c r="C125" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="57"/>
-      <c r="B126" s="32"/>
+      <c r="A126" s="29"/>
+      <c r="B126" s="47"/>
       <c r="C126" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D126" s="3"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="57"/>
-      <c r="B127" s="32"/>
+      <c r="A127" s="29"/>
+      <c r="B127" s="47"/>
       <c r="C127" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="57"/>
-      <c r="B128" s="32"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="47"/>
       <c r="C128" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="58"/>
-      <c r="B129" s="33"/>
+      <c r="A129" s="30"/>
+      <c r="B129" s="48"/>
       <c r="C129" s="14" t="s">
         <v>100</v>
       </c>
@@ -2187,48 +2187,48 @@
       <c r="D130" s="3"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="B131" s="56" t="s">
-        <v>118</v>
+      <c r="A131" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B131" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="C131" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="57"/>
-      <c r="B132" s="57"/>
+      <c r="A132" s="29"/>
+      <c r="B132" s="29"/>
       <c r="C132" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D132" s="3"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="57"/>
-      <c r="B133" s="57"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="29"/>
       <c r="C133" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D133" s="3"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="57"/>
-      <c r="B134" s="57"/>
+      <c r="A134" s="29"/>
+      <c r="B134" s="29"/>
       <c r="C134" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D134" s="3"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="30"/>
+      <c r="B135" s="30"/>
+      <c r="C135" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="D134" s="3"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="58"/>
-      <c r="B135" s="58"/>
-      <c r="C135" s="14" t="s">
-        <v>120</v>
       </c>
       <c r="D135" s="3"/>
     </row>
@@ -2239,48 +2239,48 @@
       <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="B137" s="56" t="s">
-        <v>122</v>
+      <c r="A137" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B137" s="28" t="s">
+        <v>121</v>
       </c>
       <c r="C137" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="57"/>
-      <c r="B138" s="57"/>
+      <c r="A138" s="29"/>
+      <c r="B138" s="29"/>
       <c r="C138" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="57"/>
-      <c r="B139" s="57"/>
+      <c r="A139" s="29"/>
+      <c r="B139" s="29"/>
       <c r="C139" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D139" s="3"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="57"/>
-      <c r="B140" s="57"/>
+      <c r="A140" s="29"/>
+      <c r="B140" s="29"/>
       <c r="C140" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D140" s="3"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="58"/>
-      <c r="B141" s="58"/>
+      <c r="A141" s="30"/>
+      <c r="B141" s="30"/>
       <c r="C141" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D141" s="3"/>
     </row>
@@ -2291,10 +2291,10 @@
       <c r="D142" s="3"/>
     </row>
     <row r="143" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="B143" s="18" t="s">
+      <c r="A143" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C143" s="15" t="s">
@@ -2305,18 +2305,18 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="38"/>
-      <c r="B144" s="29"/>
+      <c r="A144" s="32"/>
+      <c r="B144" s="41"/>
       <c r="C144" s="16" t="s">
         <v>76</v>
       </c>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="39"/>
-      <c r="B145" s="30"/>
+      <c r="A145" s="33"/>
+      <c r="B145" s="42"/>
       <c r="C145" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D145" s="4"/>
     </row>
@@ -2327,32 +2327,32 @@
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="B147" s="35" t="s">
-        <v>128</v>
+      <c r="A147" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B147" s="43" t="s">
+        <v>127</v>
       </c>
       <c r="C147" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="38"/>
-      <c r="B148" s="36"/>
+      <c r="A148" s="32"/>
+      <c r="B148" s="44"/>
       <c r="C148" s="16" t="s">
         <v>76</v>
       </c>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="39"/>
-      <c r="B149" s="59"/>
+      <c r="A149" s="33"/>
+      <c r="B149" s="45"/>
       <c r="C149" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D149" s="4"/>
     </row>
@@ -2363,32 +2363,32 @@
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B151" s="35" t="s">
-        <v>131</v>
+      <c r="A151" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B151" s="43" t="s">
+        <v>130</v>
       </c>
       <c r="C151" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="38"/>
-      <c r="B152" s="36"/>
+      <c r="A152" s="32"/>
+      <c r="B152" s="44"/>
       <c r="C152" s="16" t="s">
         <v>76</v>
       </c>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="39"/>
-      <c r="B153" s="59"/>
+      <c r="A153" s="33"/>
+      <c r="B153" s="45"/>
       <c r="C153" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D153" s="4"/>
     </row>
@@ -2399,11 +2399,11 @@
       <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B155" s="24" t="s">
-        <v>135</v>
+      <c r="A155" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B155" s="31" t="s">
+        <v>134</v>
       </c>
       <c r="C155" s="14" t="s">
         <v>6</v>
@@ -2413,40 +2413,40 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="54"/>
-      <c r="B156" s="38"/>
+      <c r="A156" s="38"/>
+      <c r="B156" s="32"/>
       <c r="C156" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D156" s="10"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="54"/>
-      <c r="B157" s="38"/>
+      <c r="A157" s="38"/>
+      <c r="B157" s="32"/>
       <c r="C157" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D157" s="10"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="54"/>
-      <c r="B158" s="38"/>
+      <c r="A158" s="38"/>
+      <c r="B158" s="32"/>
       <c r="C158" s="14" t="s">
         <v>101</v>
       </c>
       <c r="D158" s="10"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="54"/>
-      <c r="B159" s="38"/>
+      <c r="A159" s="38"/>
+      <c r="B159" s="32"/>
       <c r="C159" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D159" s="10"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="54"/>
-      <c r="B160" s="38"/>
+      <c r="A160" s="38"/>
+      <c r="B160" s="32"/>
       <c r="C160" s="14" t="s">
         <v>103</v>
       </c>
@@ -2459,56 +2459,56 @@
       <c r="D161" s="10"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="B162" s="57" t="s">
-        <v>137</v>
+      <c r="A162" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" s="29" t="s">
+        <v>136</v>
       </c>
       <c r="C162" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D162" s="48" t="s">
-        <v>139</v>
+      <c r="D162" s="27" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="57"/>
-      <c r="B163" s="57"/>
+      <c r="A163" s="29"/>
+      <c r="B163" s="29"/>
       <c r="C163" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D163" s="10"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="57"/>
-      <c r="B164" s="57"/>
+      <c r="A164" s="29"/>
+      <c r="B164" s="29"/>
       <c r="C164" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D164" s="10"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="57"/>
-      <c r="B165" s="57"/>
+      <c r="A165" s="29"/>
+      <c r="B165" s="29"/>
       <c r="C165" s="14" t="s">
         <v>101</v>
       </c>
       <c r="D165" s="10"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="57"/>
-      <c r="B166" s="57"/>
+      <c r="A166" s="29"/>
+      <c r="B166" s="29"/>
       <c r="C166" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D166" s="10"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="57"/>
-      <c r="B167" s="57"/>
+      <c r="A167" s="29"/>
+      <c r="B167" s="29"/>
       <c r="C167" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D167" s="10"/>
     </row>
@@ -2519,10 +2519,10 @@
       <c r="D168" s="10"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="B169" s="18" t="s">
+      <c r="A169" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B169" s="40" t="s">
         <v>62</v>
       </c>
       <c r="C169" s="15" t="s">
@@ -2533,55 +2533,55 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="19"/>
-      <c r="B170" s="25"/>
+      <c r="A170" s="49"/>
+      <c r="B170" s="51"/>
       <c r="C170" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D170" s="3"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="19"/>
-      <c r="B171" s="25"/>
+      <c r="A171" s="49"/>
+      <c r="B171" s="51"/>
       <c r="C171" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D171" s="3"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="19"/>
-      <c r="B172" s="25"/>
+      <c r="A172" s="49"/>
+      <c r="B172" s="51"/>
       <c r="C172" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D172" s="3"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="19"/>
-      <c r="B173" s="25"/>
-      <c r="C173" s="45" t="s">
+      <c r="A173" s="49"/>
+      <c r="B173" s="51"/>
+      <c r="C173" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D173" s="3"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="19"/>
-      <c r="B174" s="25"/>
-      <c r="C174" s="45" t="s">
+      <c r="A174" s="49"/>
+      <c r="B174" s="51"/>
+      <c r="C174" s="24" t="s">
         <v>80</v>
       </c>
       <c r="D174" s="3"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="20"/>
-      <c r="B175" s="26"/>
+      <c r="A175" s="50"/>
+      <c r="B175" s="52"/>
       <c r="D175" s="3"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B176" s="18" t="s">
+      <c r="A176" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B176" s="40" t="s">
         <v>64</v>
       </c>
       <c r="C176" s="14" t="s">
@@ -2592,40 +2592,40 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="54"/>
-      <c r="B177" s="29"/>
+      <c r="A177" s="38"/>
+      <c r="B177" s="41"/>
       <c r="C177" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="54"/>
-      <c r="B178" s="29"/>
+      <c r="A178" s="38"/>
+      <c r="B178" s="41"/>
       <c r="C178" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="54"/>
-      <c r="B179" s="29"/>
+      <c r="A179" s="38"/>
+      <c r="B179" s="41"/>
       <c r="C179" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="54"/>
-      <c r="B180" s="29"/>
+      <c r="A180" s="38"/>
+      <c r="B180" s="41"/>
       <c r="C180" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="55"/>
-      <c r="B181" s="30"/>
+      <c r="A181" s="39"/>
+      <c r="B181" s="42"/>
       <c r="C181" s="14" t="s">
         <v>80</v>
       </c>
@@ -2638,10 +2638,10 @@
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B183" s="18" t="s">
+      <c r="A183" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B183" s="40" t="s">
         <v>65</v>
       </c>
       <c r="C183" s="15" t="s">
@@ -2652,40 +2652,40 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="54"/>
-      <c r="B184" s="29"/>
+      <c r="A184" s="38"/>
+      <c r="B184" s="41"/>
       <c r="C184" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="54"/>
-      <c r="B185" s="29"/>
+      <c r="A185" s="38"/>
+      <c r="B185" s="41"/>
       <c r="C185" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="54"/>
-      <c r="B186" s="29"/>
+      <c r="A186" s="38"/>
+      <c r="B186" s="41"/>
       <c r="C186" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="54"/>
-      <c r="B187" s="29"/>
+      <c r="A187" s="38"/>
+      <c r="B187" s="41"/>
       <c r="C187" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="55"/>
-      <c r="B188" s="30"/>
+      <c r="A188" s="39"/>
+      <c r="B188" s="42"/>
       <c r="C188" s="14" t="s">
         <v>80</v>
       </c>
@@ -2698,10 +2698,10 @@
       <c r="D189" s="5"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="B190" s="56" t="s">
+      <c r="A190" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B190" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C190" s="15" t="s">
@@ -2712,40 +2712,40 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="57"/>
-      <c r="B191" s="57"/>
+      <c r="A191" s="29"/>
+      <c r="B191" s="29"/>
       <c r="C191" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D191" s="5"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="57"/>
-      <c r="B192" s="57"/>
+      <c r="A192" s="29"/>
+      <c r="B192" s="29"/>
       <c r="C192" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="57"/>
-      <c r="B193" s="57"/>
+      <c r="A193" s="29"/>
+      <c r="B193" s="29"/>
       <c r="C193" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="57"/>
-      <c r="B194" s="57"/>
+      <c r="A194" s="29"/>
+      <c r="B194" s="29"/>
       <c r="C194" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="58"/>
-      <c r="B195" s="58"/>
+      <c r="A195" s="30"/>
+      <c r="B195" s="30"/>
       <c r="C195" s="14" t="s">
         <v>80</v>
       </c>
@@ -2758,10 +2758,10 @@
       <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B197" s="18" t="s">
+      <c r="A197" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B197" s="40" t="s">
         <v>68</v>
       </c>
       <c r="C197" s="15" t="s">
@@ -2772,40 +2772,40 @@
       </c>
     </row>
     <row r="198" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="54"/>
-      <c r="B198" s="29"/>
+      <c r="A198" s="38"/>
+      <c r="B198" s="41"/>
       <c r="C198" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D198" s="5"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="54"/>
-      <c r="B199" s="29"/>
+      <c r="A199" s="38"/>
+      <c r="B199" s="41"/>
       <c r="C199" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D199" s="5"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="54"/>
-      <c r="B200" s="29"/>
+      <c r="A200" s="38"/>
+      <c r="B200" s="41"/>
       <c r="C200" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D200" s="5"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="54"/>
-      <c r="B201" s="29"/>
+      <c r="A201" s="38"/>
+      <c r="B201" s="41"/>
       <c r="C201" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D201" s="5"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="55"/>
-      <c r="B202" s="30"/>
+      <c r="A202" s="39"/>
+      <c r="B202" s="42"/>
       <c r="C202" s="14" t="s">
         <v>80</v>
       </c>
@@ -2818,10 +2818,10 @@
       <c r="D203" s="5"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="B204" s="18" t="s">
+      <c r="A204" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B204" s="40" t="s">
         <v>69</v>
       </c>
       <c r="C204" s="15" t="s">
@@ -2832,32 +2832,32 @@
       </c>
     </row>
     <row r="205" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="38"/>
-      <c r="B205" s="29"/>
+      <c r="A205" s="32"/>
+      <c r="B205" s="41"/>
       <c r="C205" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D205" s="3"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="38"/>
-      <c r="B206" s="29"/>
+      <c r="A206" s="32"/>
+      <c r="B206" s="41"/>
       <c r="C206" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D206" s="3"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="38"/>
-      <c r="B207" s="29"/>
+      <c r="A207" s="32"/>
+      <c r="B207" s="41"/>
       <c r="C207" s="14" t="s">
         <v>99</v>
       </c>
       <c r="D207" s="3"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="39"/>
-      <c r="B208" s="30"/>
+      <c r="A208" s="33"/>
+      <c r="B208" s="42"/>
       <c r="C208" s="14" t="s">
         <v>100</v>
       </c>
@@ -2870,48 +2870,48 @@
       <c r="D209" s="3"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="B210" s="56" t="s">
-        <v>140</v>
+      <c r="A210" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B210" s="28" t="s">
+        <v>139</v>
       </c>
       <c r="C210" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D210" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="57"/>
-      <c r="B211" s="57"/>
+      <c r="A211" s="29"/>
+      <c r="B211" s="29"/>
       <c r="C211" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D211" s="3"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="57"/>
-      <c r="B212" s="57"/>
+      <c r="A212" s="29"/>
+      <c r="B212" s="29"/>
       <c r="C212" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D212" s="3"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="57"/>
-      <c r="B213" s="57"/>
+      <c r="A213" s="29"/>
+      <c r="B213" s="29"/>
       <c r="C213" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D213" s="3"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="58"/>
-      <c r="B214" s="58"/>
+      <c r="A214" s="30"/>
+      <c r="B214" s="30"/>
       <c r="C214" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D214" s="3"/>
     </row>
@@ -2922,48 +2922,48 @@
       <c r="D215" s="3"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="B216" s="56" t="s">
-        <v>143</v>
+      <c r="A216" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B216" s="28" t="s">
+        <v>142</v>
       </c>
       <c r="C216" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D216" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="57"/>
-      <c r="B217" s="57"/>
+      <c r="A217" s="29"/>
+      <c r="B217" s="29"/>
       <c r="C217" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D217" s="3"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="57"/>
-      <c r="B218" s="57"/>
+      <c r="A218" s="29"/>
+      <c r="B218" s="29"/>
       <c r="C218" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D218" s="3"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="57"/>
-      <c r="B219" s="57"/>
+      <c r="A219" s="29"/>
+      <c r="B219" s="29"/>
       <c r="C219" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D219" s="3"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="58"/>
-      <c r="B220" s="58"/>
+      <c r="A220" s="30"/>
+      <c r="B220" s="30"/>
       <c r="C220" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D220" s="3"/>
     </row>
@@ -2974,10 +2974,10 @@
       <c r="D221" s="11"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B222" s="23" t="s">
+      <c r="A222" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B222" s="34" t="s">
         <v>71</v>
       </c>
       <c r="C222" s="3" t="s">
@@ -2988,67 +2988,37 @@
       </c>
     </row>
     <row r="223" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="38"/>
-      <c r="B223" s="60"/>
+      <c r="A223" s="32"/>
+      <c r="B223" s="35"/>
       <c r="C223" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D223" s="3"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="39"/>
-      <c r="B224" s="61"/>
-      <c r="C224" s="46" t="s">
-        <v>110</v>
+      <c r="A224" s="33"/>
+      <c r="B224" s="36"/>
+      <c r="C224" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="D224" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A210:A214"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="B216:B220"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="B155:B160"/>
-    <mergeCell ref="A162:A167"/>
-    <mergeCell ref="B162:B167"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="A151:A153"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="A169:A175"/>
-    <mergeCell ref="B169:B175"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="B125:B129"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="B183:B188"/>
-    <mergeCell ref="A190:A195"/>
-    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A48:A51"/>
     <mergeCell ref="A197:A202"/>
     <mergeCell ref="B197:B202"/>
     <mergeCell ref="A204:A208"/>
@@ -3065,20 +3035,50 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="B125:B129"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="A151:A153"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="B155:B160"/>
+    <mergeCell ref="A162:A167"/>
+    <mergeCell ref="B162:B167"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="A169:A175"/>
+    <mergeCell ref="B169:B175"/>
+    <mergeCell ref="A210:A214"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="B216:B220"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="B222:B224"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/XLDATA/Mars-QA TestCase-User Story1.xlsx
+++ b/XLDATA/Mars-QA TestCase-User Story1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IC Course\MarsQA\XLDATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0440BF01-66DC-47DE-80A1-46573ECA446E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFD3334-D21D-4DA5-A70E-760165A7DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
     <t xml:space="preserve">      TC_036</t>
   </si>
   <si>
-    <t>3.Click the delete icon in the list.</t>
+    <t>3.Click the delete icon in the list</t>
   </si>
 </sst>
 </file>
@@ -734,14 +734,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -753,71 +765,29 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -827,6 +797,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="C232" sqref="C232"/>
+      <selection activeCell="C224" sqref="C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1081,10 +1081,10 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1095,32 +1095,32 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1133,10 +1133,10 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1147,32 +1147,32 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1185,10 +1185,10 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1199,32 +1199,32 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1237,10 +1237,10 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="41" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1251,32 +1251,32 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
@@ -1289,10 +1289,10 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="32" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1303,24 +1303,24 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1333,10 +1333,10 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="35" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -1347,24 +1347,24 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="14" t="s">
         <v>29</v>
       </c>
@@ -1377,10 +1377,10 @@
       <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -1391,24 +1391,24 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="55"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="14" t="s">
         <v>29</v>
       </c>
@@ -1421,10 +1421,10 @@
       <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="47" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -1435,30 +1435,30 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
-      <c r="B46" s="55"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
     </row>
@@ -1469,10 +1469,10 @@
       <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="59" t="s">
+      <c r="A48" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -1483,24 +1483,24 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="47"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="47"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="48"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="14" t="s">
         <v>47</v>
       </c>
@@ -1513,10 +1513,10 @@
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="32" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -1527,40 +1527,40 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="41"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="41"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="41"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="41"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="42"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="34"/>
       <c r="C58" s="3" t="s">
         <v>80</v>
       </c>
@@ -1573,10 +1573,10 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="56" t="s">
+      <c r="B60" s="29" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="14" t="s">
@@ -1587,40 +1587,40 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
-      <c r="B61" s="57"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="57"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
-      <c r="B63" s="57"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="14" t="s">
         <v>78</v>
       </c>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
-      <c r="B64" s="57"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
-      <c r="B65" s="58"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="14" t="s">
         <v>84</v>
       </c>
@@ -1633,10 +1633,10 @@
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="47" t="s">
+      <c r="A67" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B67" s="56" t="s">
+      <c r="B67" s="29" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -1647,40 +1647,40 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="47"/>
-      <c r="B68" s="57"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
-      <c r="B69" s="57"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="47"/>
-      <c r="B70" s="57"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="47"/>
-      <c r="B71" s="57"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
-      <c r="B72" s="58"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="3" t="s">
         <v>84</v>
       </c>
@@ -1693,10 +1693,10 @@
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="15" t="s">
@@ -1707,40 +1707,40 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
-      <c r="B75" s="41"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
-      <c r="B76" s="41"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
-      <c r="B77" s="41"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="14" t="s">
         <v>87</v>
       </c>
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
-      <c r="B78" s="41"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="33"/>
-      <c r="B79" s="42"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="34"/>
       <c r="C79" s="14" t="s">
         <v>80</v>
       </c>
@@ -1753,10 +1753,10 @@
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="40" t="s">
+      <c r="B81" s="32" t="s">
         <v>75</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -1767,40 +1767,40 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
-      <c r="B82" s="41"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
-      <c r="B83" s="41"/>
+      <c r="A83" s="52"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
-      <c r="B84" s="41"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
-      <c r="B85" s="41"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="53"/>
+      <c r="B86" s="34"/>
       <c r="C86" s="14" t="s">
         <v>80</v>
       </c>
@@ -1813,10 +1813,10 @@
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="37" t="s">
+      <c r="A88" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="B88" s="40" t="s">
+      <c r="B88" s="32" t="s">
         <v>53</v>
       </c>
       <c r="C88" s="15" t="s">
@@ -1827,40 +1827,40 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
-      <c r="B89" s="41"/>
+      <c r="A89" s="52"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="38"/>
-      <c r="B90" s="41"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="38"/>
-      <c r="B91" s="41"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="33"/>
       <c r="C91" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="38"/>
-      <c r="B92" s="41"/>
+      <c r="A92" s="52"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
-      <c r="B93" s="42"/>
+      <c r="A93" s="53"/>
+      <c r="B93" s="34"/>
       <c r="C93" s="14" t="s">
         <v>80</v>
       </c>
@@ -1873,10 +1873,10 @@
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="37" t="s">
+      <c r="A95" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B95" s="40" t="s">
+      <c r="B95" s="32" t="s">
         <v>55</v>
       </c>
       <c r="C95" s="15" t="s">
@@ -1887,40 +1887,40 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
-      <c r="B96" s="41"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="33"/>
       <c r="C96" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
-      <c r="B97" s="41"/>
+      <c r="A97" s="52"/>
+      <c r="B97" s="33"/>
       <c r="C97" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="38"/>
-      <c r="B98" s="41"/>
+      <c r="A98" s="52"/>
+      <c r="B98" s="33"/>
       <c r="C98" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="38"/>
-      <c r="B99" s="41"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="33"/>
       <c r="C99" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="39"/>
-      <c r="B100" s="42"/>
+      <c r="A100" s="53"/>
+      <c r="B100" s="34"/>
       <c r="C100" s="14" t="s">
         <v>80</v>
       </c>
@@ -1933,10 +1933,10 @@
       <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="B102" s="46" t="s">
+      <c r="B102" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C102" s="15" t="s">
@@ -1947,40 +1947,40 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="29"/>
-      <c r="B103" s="47"/>
+      <c r="A103" s="55"/>
+      <c r="B103" s="28"/>
       <c r="C103" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
-      <c r="B104" s="47"/>
+      <c r="A104" s="55"/>
+      <c r="B104" s="28"/>
       <c r="C104" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="29"/>
-      <c r="B105" s="47"/>
+      <c r="A105" s="55"/>
+      <c r="B105" s="28"/>
       <c r="C105" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="29"/>
-      <c r="B106" s="47"/>
+      <c r="A106" s="55"/>
+      <c r="B106" s="28"/>
       <c r="C106" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="B107" s="48"/>
+      <c r="A107" s="56"/>
+      <c r="B107" s="46"/>
       <c r="C107" s="14" t="s">
         <v>80</v>
       </c>
@@ -1993,10 +1993,10 @@
       <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="37" t="s">
+      <c r="A109" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="B109" s="40" t="s">
+      <c r="B109" s="32" t="s">
         <v>57</v>
       </c>
       <c r="C109" s="15" t="s">
@@ -2007,40 +2007,40 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="38"/>
-      <c r="B110" s="41"/>
+      <c r="A110" s="52"/>
+      <c r="B110" s="33"/>
       <c r="C110" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="38"/>
-      <c r="B111" s="41"/>
+      <c r="A111" s="52"/>
+      <c r="B111" s="33"/>
       <c r="C111" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D111" s="3"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="38"/>
-      <c r="B112" s="41"/>
+      <c r="A112" s="52"/>
+      <c r="B112" s="33"/>
       <c r="C112" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D112" s="3"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="38"/>
-      <c r="B113" s="41"/>
+      <c r="A113" s="52"/>
+      <c r="B113" s="33"/>
       <c r="C113" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D113" s="3"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="39"/>
-      <c r="B114" s="42"/>
+      <c r="A114" s="53"/>
+      <c r="B114" s="34"/>
       <c r="C114" s="14" t="s">
         <v>80</v>
       </c>
@@ -2055,10 +2055,10 @@
       <c r="D115" s="3"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="B116" s="28" t="s">
+      <c r="B116" s="54" t="s">
         <v>96</v>
       </c>
       <c r="C116" s="14" t="s">
@@ -2069,8 +2069,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="30"/>
-      <c r="B117" s="30"/>
+      <c r="A117" s="56"/>
+      <c r="B117" s="56"/>
       <c r="C117" s="13" t="s">
         <v>76</v>
       </c>
@@ -2083,10 +2083,10 @@
       <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="31" t="s">
+      <c r="A119" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="B119" s="43" t="s">
+      <c r="B119" s="47" t="s">
         <v>112</v>
       </c>
       <c r="C119" s="15" t="s">
@@ -2097,32 +2097,32 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="32"/>
-      <c r="B120" s="44"/>
+      <c r="A120" s="36"/>
+      <c r="B120" s="48"/>
       <c r="C120" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D120" s="3"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="32"/>
-      <c r="B121" s="44"/>
+      <c r="A121" s="36"/>
+      <c r="B121" s="48"/>
       <c r="C121" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D121" s="3"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="32"/>
-      <c r="B122" s="44"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="48"/>
       <c r="C122" s="14" t="s">
         <v>111</v>
       </c>
       <c r="D122" s="3"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="33"/>
-      <c r="B123" s="45"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="57"/>
       <c r="C123" s="14" t="s">
         <v>100</v>
       </c>
@@ -2135,10 +2135,10 @@
       <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="28" t="s">
+      <c r="A125" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="B125" s="46" t="s">
+      <c r="B125" s="45" t="s">
         <v>113</v>
       </c>
       <c r="C125" s="15" t="s">
@@ -2149,32 +2149,32 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
-      <c r="B126" s="47"/>
+      <c r="A126" s="55"/>
+      <c r="B126" s="28"/>
       <c r="C126" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D126" s="3"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
-      <c r="B127" s="47"/>
+      <c r="A127" s="55"/>
+      <c r="B127" s="28"/>
       <c r="C127" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
-      <c r="B128" s="47"/>
+      <c r="A128" s="55"/>
+      <c r="B128" s="28"/>
       <c r="C128" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="30"/>
-      <c r="B129" s="48"/>
+      <c r="A129" s="56"/>
+      <c r="B129" s="46"/>
       <c r="C129" s="14" t="s">
         <v>100</v>
       </c>
@@ -2187,10 +2187,10 @@
       <c r="D130" s="3"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="28" t="s">
+      <c r="A131" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="B131" s="28" t="s">
+      <c r="B131" s="54" t="s">
         <v>117</v>
       </c>
       <c r="C131" s="14" t="s">
@@ -2201,32 +2201,32 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="29"/>
-      <c r="B132" s="29"/>
+      <c r="A132" s="55"/>
+      <c r="B132" s="55"/>
       <c r="C132" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D132" s="3"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="29"/>
-      <c r="B133" s="29"/>
+      <c r="A133" s="55"/>
+      <c r="B133" s="55"/>
       <c r="C133" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D133" s="3"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="29"/>
-      <c r="B134" s="29"/>
+      <c r="A134" s="55"/>
+      <c r="B134" s="55"/>
       <c r="C134" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D134" s="3"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="30"/>
-      <c r="B135" s="30"/>
+      <c r="A135" s="56"/>
+      <c r="B135" s="56"/>
       <c r="C135" s="14" t="s">
         <v>119</v>
       </c>
@@ -2239,10 +2239,10 @@
       <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="28" t="s">
+      <c r="A137" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="B137" s="28" t="s">
+      <c r="B137" s="54" t="s">
         <v>121</v>
       </c>
       <c r="C137" s="14" t="s">
@@ -2253,32 +2253,32 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="29"/>
-      <c r="B138" s="29"/>
+      <c r="A138" s="55"/>
+      <c r="B138" s="55"/>
       <c r="C138" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="29"/>
-      <c r="B139" s="29"/>
+      <c r="A139" s="55"/>
+      <c r="B139" s="55"/>
       <c r="C139" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D139" s="3"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="29"/>
-      <c r="B140" s="29"/>
+      <c r="A140" s="55"/>
+      <c r="B140" s="55"/>
       <c r="C140" s="14" t="s">
         <v>122</v>
       </c>
       <c r="D140" s="3"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="30"/>
-      <c r="B141" s="30"/>
+      <c r="A141" s="56"/>
+      <c r="B141" s="56"/>
       <c r="C141" s="14" t="s">
         <v>119</v>
       </c>
@@ -2291,10 +2291,10 @@
       <c r="D142" s="3"/>
     </row>
     <row r="143" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="31" t="s">
+      <c r="A143" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="B143" s="40" t="s">
+      <c r="B143" s="32" t="s">
         <v>59</v>
       </c>
       <c r="C143" s="15" t="s">
@@ -2305,16 +2305,16 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="32"/>
-      <c r="B144" s="41"/>
+      <c r="A144" s="36"/>
+      <c r="B144" s="33"/>
       <c r="C144" s="16" t="s">
         <v>76</v>
       </c>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="33"/>
-      <c r="B145" s="42"/>
+      <c r="A145" s="37"/>
+      <c r="B145" s="34"/>
       <c r="C145" s="15" t="s">
         <v>126</v>
       </c>
@@ -2327,10 +2327,10 @@
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="31" t="s">
+      <c r="A147" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="B147" s="43" t="s">
+      <c r="B147" s="47" t="s">
         <v>127</v>
       </c>
       <c r="C147" s="15" t="s">
@@ -2341,16 +2341,16 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="32"/>
-      <c r="B148" s="44"/>
+      <c r="A148" s="36"/>
+      <c r="B148" s="48"/>
       <c r="C148" s="16" t="s">
         <v>76</v>
       </c>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="33"/>
-      <c r="B149" s="45"/>
+      <c r="A149" s="37"/>
+      <c r="B149" s="57"/>
       <c r="C149" s="15" t="s">
         <v>128</v>
       </c>
@@ -2363,10 +2363,10 @@
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="31" t="s">
+      <c r="A151" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="B151" s="43" t="s">
+      <c r="B151" s="47" t="s">
         <v>130</v>
       </c>
       <c r="C151" s="15" t="s">
@@ -2377,16 +2377,16 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="32"/>
-      <c r="B152" s="44"/>
+      <c r="A152" s="36"/>
+      <c r="B152" s="48"/>
       <c r="C152" s="16" t="s">
         <v>76</v>
       </c>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="33"/>
-      <c r="B153" s="45"/>
+      <c r="A153" s="37"/>
+      <c r="B153" s="57"/>
       <c r="C153" s="15" t="s">
         <v>131</v>
       </c>
@@ -2399,10 +2399,10 @@
       <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="37" t="s">
+      <c r="A155" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="B155" s="31" t="s">
+      <c r="B155" s="35" t="s">
         <v>134</v>
       </c>
       <c r="C155" s="14" t="s">
@@ -2413,40 +2413,40 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="38"/>
-      <c r="B156" s="32"/>
+      <c r="A156" s="52"/>
+      <c r="B156" s="36"/>
       <c r="C156" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D156" s="10"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="38"/>
-      <c r="B157" s="32"/>
+      <c r="A157" s="52"/>
+      <c r="B157" s="36"/>
       <c r="C157" s="14" t="s">
         <v>135</v>
       </c>
       <c r="D157" s="10"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="38"/>
-      <c r="B158" s="32"/>
+      <c r="A158" s="52"/>
+      <c r="B158" s="36"/>
       <c r="C158" s="14" t="s">
         <v>101</v>
       </c>
       <c r="D158" s="10"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="38"/>
-      <c r="B159" s="32"/>
+      <c r="A159" s="52"/>
+      <c r="B159" s="36"/>
       <c r="C159" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D159" s="10"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="38"/>
-      <c r="B160" s="32"/>
+      <c r="A160" s="52"/>
+      <c r="B160" s="36"/>
       <c r="C160" s="14" t="s">
         <v>103</v>
       </c>
@@ -2459,10 +2459,10 @@
       <c r="D161" s="10"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="29" t="s">
+      <c r="A162" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="B162" s="29" t="s">
+      <c r="B162" s="55" t="s">
         <v>136</v>
       </c>
       <c r="C162" s="14" t="s">
@@ -2473,40 +2473,40 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="29"/>
-      <c r="B163" s="29"/>
+      <c r="A163" s="55"/>
+      <c r="B163" s="55"/>
       <c r="C163" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D163" s="10"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="29"/>
-      <c r="B164" s="29"/>
+      <c r="A164" s="55"/>
+      <c r="B164" s="55"/>
       <c r="C164" s="14" t="s">
         <v>135</v>
       </c>
       <c r="D164" s="10"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="29"/>
-      <c r="B165" s="29"/>
+      <c r="A165" s="55"/>
+      <c r="B165" s="55"/>
       <c r="C165" s="14" t="s">
         <v>101</v>
       </c>
       <c r="D165" s="10"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="29"/>
-      <c r="B166" s="29"/>
+      <c r="A166" s="55"/>
+      <c r="B166" s="55"/>
       <c r="C166" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D166" s="10"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="29"/>
-      <c r="B167" s="29"/>
+      <c r="A167" s="55"/>
+      <c r="B167" s="55"/>
       <c r="C167" s="14" t="s">
         <v>137</v>
       </c>
@@ -2519,10 +2519,10 @@
       <c r="D168" s="10"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="37" t="s">
+      <c r="A169" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="B169" s="40" t="s">
+      <c r="B169" s="32" t="s">
         <v>62</v>
       </c>
       <c r="C169" s="15" t="s">
@@ -2533,55 +2533,55 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="49"/>
-      <c r="B170" s="51"/>
+      <c r="A170" s="39"/>
+      <c r="B170" s="58"/>
       <c r="C170" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D170" s="3"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="49"/>
-      <c r="B171" s="51"/>
+      <c r="A171" s="39"/>
+      <c r="B171" s="58"/>
       <c r="C171" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D171" s="3"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="49"/>
-      <c r="B172" s="51"/>
+      <c r="A172" s="39"/>
+      <c r="B172" s="58"/>
       <c r="C172" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D172" s="3"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="49"/>
-      <c r="B173" s="51"/>
+      <c r="A173" s="39"/>
+      <c r="B173" s="58"/>
       <c r="C173" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D173" s="3"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="49"/>
-      <c r="B174" s="51"/>
+      <c r="A174" s="39"/>
+      <c r="B174" s="58"/>
       <c r="C174" s="24" t="s">
         <v>80</v>
       </c>
       <c r="D174" s="3"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="50"/>
-      <c r="B175" s="52"/>
+      <c r="A175" s="40"/>
+      <c r="B175" s="59"/>
       <c r="D175" s="3"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="37" t="s">
+      <c r="A176" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="B176" s="40" t="s">
+      <c r="B176" s="32" t="s">
         <v>64</v>
       </c>
       <c r="C176" s="14" t="s">
@@ -2592,40 +2592,40 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="38"/>
-      <c r="B177" s="41"/>
+      <c r="A177" s="52"/>
+      <c r="B177" s="33"/>
       <c r="C177" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="38"/>
-      <c r="B178" s="41"/>
+      <c r="A178" s="52"/>
+      <c r="B178" s="33"/>
       <c r="C178" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="38"/>
-      <c r="B179" s="41"/>
+      <c r="A179" s="52"/>
+      <c r="B179" s="33"/>
       <c r="C179" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="38"/>
-      <c r="B180" s="41"/>
+      <c r="A180" s="52"/>
+      <c r="B180" s="33"/>
       <c r="C180" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="39"/>
-      <c r="B181" s="42"/>
+      <c r="A181" s="53"/>
+      <c r="B181" s="34"/>
       <c r="C181" s="14" t="s">
         <v>80</v>
       </c>
@@ -2638,10 +2638,10 @@
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="37" t="s">
+      <c r="A183" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="B183" s="40" t="s">
+      <c r="B183" s="32" t="s">
         <v>65</v>
       </c>
       <c r="C183" s="15" t="s">
@@ -2652,40 +2652,40 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="38"/>
-      <c r="B184" s="41"/>
+      <c r="A184" s="52"/>
+      <c r="B184" s="33"/>
       <c r="C184" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="38"/>
-      <c r="B185" s="41"/>
+      <c r="A185" s="52"/>
+      <c r="B185" s="33"/>
       <c r="C185" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="38"/>
-      <c r="B186" s="41"/>
+      <c r="A186" s="52"/>
+      <c r="B186" s="33"/>
       <c r="C186" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="38"/>
-      <c r="B187" s="41"/>
+      <c r="A187" s="52"/>
+      <c r="B187" s="33"/>
       <c r="C187" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="39"/>
-      <c r="B188" s="42"/>
+      <c r="A188" s="53"/>
+      <c r="B188" s="34"/>
       <c r="C188" s="14" t="s">
         <v>80</v>
       </c>
@@ -2698,10 +2698,10 @@
       <c r="D189" s="5"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="28" t="s">
+      <c r="A190" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="B190" s="28" t="s">
+      <c r="B190" s="54" t="s">
         <v>67</v>
       </c>
       <c r="C190" s="15" t="s">
@@ -2712,40 +2712,40 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="29"/>
-      <c r="B191" s="29"/>
+      <c r="A191" s="55"/>
+      <c r="B191" s="55"/>
       <c r="C191" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D191" s="5"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="29"/>
-      <c r="B192" s="29"/>
+      <c r="A192" s="55"/>
+      <c r="B192" s="55"/>
       <c r="C192" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="29"/>
-      <c r="B193" s="29"/>
+      <c r="A193" s="55"/>
+      <c r="B193" s="55"/>
       <c r="C193" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="29"/>
-      <c r="B194" s="29"/>
+      <c r="A194" s="55"/>
+      <c r="B194" s="55"/>
       <c r="C194" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="30"/>
-      <c r="B195" s="30"/>
+      <c r="A195" s="56"/>
+      <c r="B195" s="56"/>
       <c r="C195" s="14" t="s">
         <v>80</v>
       </c>
@@ -2758,10 +2758,10 @@
       <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="37" t="s">
+      <c r="A197" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B197" s="40" t="s">
+      <c r="B197" s="32" t="s">
         <v>68</v>
       </c>
       <c r="C197" s="15" t="s">
@@ -2772,40 +2772,40 @@
       </c>
     </row>
     <row r="198" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="38"/>
-      <c r="B198" s="41"/>
+      <c r="A198" s="52"/>
+      <c r="B198" s="33"/>
       <c r="C198" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D198" s="5"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="38"/>
-      <c r="B199" s="41"/>
+      <c r="A199" s="52"/>
+      <c r="B199" s="33"/>
       <c r="C199" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D199" s="5"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="38"/>
-      <c r="B200" s="41"/>
+      <c r="A200" s="52"/>
+      <c r="B200" s="33"/>
       <c r="C200" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D200" s="5"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="38"/>
-      <c r="B201" s="41"/>
+      <c r="A201" s="52"/>
+      <c r="B201" s="33"/>
       <c r="C201" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D201" s="5"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="39"/>
-      <c r="B202" s="42"/>
+      <c r="A202" s="53"/>
+      <c r="B202" s="34"/>
       <c r="C202" s="14" t="s">
         <v>80</v>
       </c>
@@ -2818,10 +2818,10 @@
       <c r="D203" s="5"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="31" t="s">
+      <c r="A204" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B204" s="40" t="s">
+      <c r="B204" s="32" t="s">
         <v>69</v>
       </c>
       <c r="C204" s="15" t="s">
@@ -2832,32 +2832,32 @@
       </c>
     </row>
     <row r="205" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="32"/>
-      <c r="B205" s="41"/>
+      <c r="A205" s="36"/>
+      <c r="B205" s="33"/>
       <c r="C205" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D205" s="3"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="32"/>
-      <c r="B206" s="41"/>
+      <c r="A206" s="36"/>
+      <c r="B206" s="33"/>
       <c r="C206" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D206" s="3"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="32"/>
-      <c r="B207" s="41"/>
+      <c r="A207" s="36"/>
+      <c r="B207" s="33"/>
       <c r="C207" s="14" t="s">
         <v>99</v>
       </c>
       <c r="D207" s="3"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="33"/>
-      <c r="B208" s="42"/>
+      <c r="A208" s="37"/>
+      <c r="B208" s="34"/>
       <c r="C208" s="14" t="s">
         <v>100</v>
       </c>
@@ -2870,10 +2870,10 @@
       <c r="D209" s="3"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="28" t="s">
+      <c r="A210" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="B210" s="28" t="s">
+      <c r="B210" s="54" t="s">
         <v>139</v>
       </c>
       <c r="C210" s="14" t="s">
@@ -2884,32 +2884,32 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="29"/>
-      <c r="B211" s="29"/>
+      <c r="A211" s="55"/>
+      <c r="B211" s="55"/>
       <c r="C211" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D211" s="3"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="29"/>
-      <c r="B212" s="29"/>
+      <c r="A212" s="55"/>
+      <c r="B212" s="55"/>
       <c r="C212" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D212" s="3"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="29"/>
-      <c r="B213" s="29"/>
+      <c r="A213" s="55"/>
+      <c r="B213" s="55"/>
       <c r="C213" s="14" t="s">
         <v>140</v>
       </c>
       <c r="D213" s="3"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="30"/>
-      <c r="B214" s="30"/>
+      <c r="A214" s="56"/>
+      <c r="B214" s="56"/>
       <c r="C214" s="14" t="s">
         <v>119</v>
       </c>
@@ -2922,10 +2922,10 @@
       <c r="D215" s="3"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="28" t="s">
+      <c r="A216" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="B216" s="28" t="s">
+      <c r="B216" s="54" t="s">
         <v>142</v>
       </c>
       <c r="C216" s="14" t="s">
@@ -2936,32 +2936,32 @@
       </c>
     </row>
     <row r="217" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="29"/>
-      <c r="B217" s="29"/>
+      <c r="A217" s="55"/>
+      <c r="B217" s="55"/>
       <c r="C217" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D217" s="3"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="29"/>
-      <c r="B218" s="29"/>
+      <c r="A218" s="55"/>
+      <c r="B218" s="55"/>
       <c r="C218" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D218" s="3"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="29"/>
-      <c r="B219" s="29"/>
+      <c r="A219" s="55"/>
+      <c r="B219" s="55"/>
       <c r="C219" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D219" s="3"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="30"/>
-      <c r="B220" s="30"/>
+      <c r="A220" s="56"/>
+      <c r="B220" s="56"/>
       <c r="C220" s="14" t="s">
         <v>119</v>
       </c>
@@ -2974,10 +2974,10 @@
       <c r="D221" s="11"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="31" t="s">
+      <c r="A222" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="B222" s="34" t="s">
+      <c r="B222" s="41" t="s">
         <v>71</v>
       </c>
       <c r="C222" s="3" t="s">
@@ -2988,16 +2988,16 @@
       </c>
     </row>
     <row r="223" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="32"/>
-      <c r="B223" s="35"/>
+      <c r="A223" s="36"/>
+      <c r="B223" s="60"/>
       <c r="C223" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D223" s="3"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="33"/>
-      <c r="B224" s="36"/>
+      <c r="A224" s="37"/>
+      <c r="B224" s="61"/>
       <c r="C224" s="25" t="s">
         <v>169</v>
       </c>
@@ -3005,20 +3005,50 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="B216:B220"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="A169:A175"/>
+    <mergeCell ref="B169:B175"/>
+    <mergeCell ref="A210:A214"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="B125:B129"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="A151:A153"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="B155:B160"/>
+    <mergeCell ref="A162:A167"/>
+    <mergeCell ref="B162:B167"/>
     <mergeCell ref="A197:A202"/>
     <mergeCell ref="B197:B202"/>
     <mergeCell ref="A204:A208"/>
@@ -3035,50 +3065,20 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="B183:B188"/>
-    <mergeCell ref="A190:A195"/>
-    <mergeCell ref="B190:B195"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="B125:B129"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="A151:A153"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="B155:B160"/>
-    <mergeCell ref="A162:A167"/>
-    <mergeCell ref="B162:B167"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="A169:A175"/>
-    <mergeCell ref="B169:B175"/>
-    <mergeCell ref="A210:A214"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="B216:B220"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A67:A72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/XLDATA/Mars-QA TestCase-User Story1.xlsx
+++ b/XLDATA/Mars-QA TestCase-User Story1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IC Course\MarsQA\XLDATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFD3334-D21D-4DA5-A70E-760165A7DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C59D01-86F2-4E8E-B1A1-42D448EA3FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
     <t xml:space="preserve">      TC_036</t>
   </si>
   <si>
-    <t>3.Click the delete icon in the list</t>
+    <t>3.Click the delete icon in the list.</t>
   </si>
 </sst>
 </file>
@@ -734,9 +734,91 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -745,88 +827,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1081,10 +1081,10 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1095,32 +1095,32 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1133,10 +1133,10 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1147,32 +1147,32 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1185,10 +1185,10 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1199,32 +1199,32 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1237,10 +1237,10 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1251,32 +1251,32 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
@@ -1289,10 +1289,10 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1303,24 +1303,24 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1333,10 +1333,10 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -1347,24 +1347,24 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="14" t="s">
         <v>29</v>
       </c>
@@ -1377,10 +1377,10 @@
       <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="31" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -1391,24 +1391,24 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="14" t="s">
         <v>29</v>
       </c>
@@ -1421,10 +1421,10 @@
       <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="50" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -1435,30 +1435,30 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
     </row>
@@ -1469,10 +1469,10 @@
       <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="47" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -1483,24 +1483,24 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="28"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
-      <c r="B50" s="28"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="46"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="14" t="s">
         <v>47</v>
       </c>
@@ -1513,10 +1513,10 @@
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="40" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -1527,40 +1527,40 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="41"/>
       <c r="C56" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
-      <c r="B57" s="33"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
-      <c r="B58" s="34"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="3" t="s">
         <v>80</v>
       </c>
@@ -1573,10 +1573,10 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="59" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="14" t="s">
@@ -1587,40 +1587,40 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="30"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
-      <c r="B62" s="30"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="60"/>
       <c r="C62" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="30"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="60"/>
       <c r="C63" s="14" t="s">
         <v>78</v>
       </c>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
-      <c r="B64" s="30"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="60"/>
       <c r="C64" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="31"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="61"/>
       <c r="C65" s="14" t="s">
         <v>84</v>
       </c>
@@ -1633,10 +1633,10 @@
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="59" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -1647,40 +1647,40 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="30"/>
+      <c r="A68" s="48"/>
+      <c r="B68" s="60"/>
       <c r="C68" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="30"/>
+      <c r="A69" s="48"/>
+      <c r="B69" s="60"/>
       <c r="C69" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="30"/>
+      <c r="A70" s="48"/>
+      <c r="B70" s="60"/>
       <c r="C70" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="30"/>
+      <c r="A71" s="48"/>
+      <c r="B71" s="60"/>
       <c r="C71" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="31"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="61"/>
       <c r="C72" s="3" t="s">
         <v>84</v>
       </c>
@@ -1693,10 +1693,10 @@
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="15" t="s">
@@ -1707,40 +1707,40 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
-      <c r="B75" s="33"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="41"/>
       <c r="C75" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
-      <c r="B76" s="33"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="36"/>
-      <c r="B77" s="33"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="41"/>
       <c r="C77" s="14" t="s">
         <v>87</v>
       </c>
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
-      <c r="B78" s="33"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="41"/>
       <c r="C78" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
-      <c r="B79" s="34"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="14" t="s">
         <v>80</v>
       </c>
@@ -1753,10 +1753,10 @@
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="44" t="s">
+      <c r="A81" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="40" t="s">
         <v>75</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -1767,40 +1767,40 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="52"/>
-      <c r="B82" s="33"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="41"/>
       <c r="C82" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="52"/>
-      <c r="B83" s="33"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="41"/>
       <c r="C83" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="52"/>
-      <c r="B84" s="33"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="41"/>
       <c r="C84" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="52"/>
-      <c r="B85" s="33"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="41"/>
       <c r="C85" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="53"/>
-      <c r="B86" s="34"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="14" t="s">
         <v>80</v>
       </c>
@@ -1813,10 +1813,10 @@
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="44" t="s">
+      <c r="A88" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="40" t="s">
         <v>53</v>
       </c>
       <c r="C88" s="15" t="s">
@@ -1827,40 +1827,40 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="52"/>
-      <c r="B89" s="33"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="41"/>
       <c r="C89" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="52"/>
-      <c r="B90" s="33"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="41"/>
       <c r="C90" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="52"/>
-      <c r="B91" s="33"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="41"/>
       <c r="C91" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="52"/>
-      <c r="B92" s="33"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="41"/>
       <c r="C92" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="53"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="14" t="s">
         <v>80</v>
       </c>
@@ -1873,10 +1873,10 @@
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="44" t="s">
+      <c r="A95" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B95" s="32" t="s">
+      <c r="B95" s="40" t="s">
         <v>55</v>
       </c>
       <c r="C95" s="15" t="s">
@@ -1887,40 +1887,40 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="52"/>
-      <c r="B96" s="33"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="41"/>
       <c r="C96" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="52"/>
-      <c r="B97" s="33"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="41"/>
       <c r="C97" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="52"/>
-      <c r="B98" s="33"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="41"/>
       <c r="C98" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="52"/>
-      <c r="B99" s="33"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="41"/>
       <c r="C99" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="53"/>
-      <c r="B100" s="34"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="42"/>
       <c r="C100" s="14" t="s">
         <v>80</v>
       </c>
@@ -1933,10 +1933,10 @@
       <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="54" t="s">
+      <c r="A102" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B102" s="45" t="s">
+      <c r="B102" s="47" t="s">
         <v>56</v>
       </c>
       <c r="C102" s="15" t="s">
@@ -1947,40 +1947,40 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="55"/>
-      <c r="B103" s="28"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="48"/>
       <c r="C103" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="55"/>
-      <c r="B104" s="28"/>
+      <c r="A104" s="29"/>
+      <c r="B104" s="48"/>
       <c r="C104" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="55"/>
-      <c r="B105" s="28"/>
+      <c r="A105" s="29"/>
+      <c r="B105" s="48"/>
       <c r="C105" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="55"/>
-      <c r="B106" s="28"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="48"/>
       <c r="C106" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="56"/>
-      <c r="B107" s="46"/>
+      <c r="A107" s="30"/>
+      <c r="B107" s="49"/>
       <c r="C107" s="14" t="s">
         <v>80</v>
       </c>
@@ -1993,10 +1993,10 @@
       <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="44" t="s">
+      <c r="A109" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B109" s="32" t="s">
+      <c r="B109" s="40" t="s">
         <v>57</v>
       </c>
       <c r="C109" s="15" t="s">
@@ -2007,40 +2007,40 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="52"/>
-      <c r="B110" s="33"/>
+      <c r="A110" s="38"/>
+      <c r="B110" s="41"/>
       <c r="C110" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="52"/>
-      <c r="B111" s="33"/>
+      <c r="A111" s="38"/>
+      <c r="B111" s="41"/>
       <c r="C111" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D111" s="3"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="52"/>
-      <c r="B112" s="33"/>
+      <c r="A112" s="38"/>
+      <c r="B112" s="41"/>
       <c r="C112" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D112" s="3"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="52"/>
-      <c r="B113" s="33"/>
+      <c r="A113" s="38"/>
+      <c r="B113" s="41"/>
       <c r="C113" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D113" s="3"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="53"/>
-      <c r="B114" s="34"/>
+      <c r="A114" s="39"/>
+      <c r="B114" s="42"/>
       <c r="C114" s="14" t="s">
         <v>80</v>
       </c>
@@ -2055,10 +2055,10 @@
       <c r="D115" s="3"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="54" t="s">
+      <c r="A116" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B116" s="54" t="s">
+      <c r="B116" s="28" t="s">
         <v>96</v>
       </c>
       <c r="C116" s="14" t="s">
@@ -2069,8 +2069,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="56"/>
-      <c r="B117" s="56"/>
+      <c r="A117" s="30"/>
+      <c r="B117" s="30"/>
       <c r="C117" s="13" t="s">
         <v>76</v>
       </c>
@@ -2083,10 +2083,10 @@
       <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="35" t="s">
+      <c r="A119" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B119" s="47" t="s">
+      <c r="B119" s="50" t="s">
         <v>112</v>
       </c>
       <c r="C119" s="15" t="s">
@@ -2097,32 +2097,32 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="36"/>
-      <c r="B120" s="48"/>
+      <c r="A120" s="32"/>
+      <c r="B120" s="51"/>
       <c r="C120" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D120" s="3"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="36"/>
-      <c r="B121" s="48"/>
+      <c r="A121" s="32"/>
+      <c r="B121" s="51"/>
       <c r="C121" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D121" s="3"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="36"/>
-      <c r="B122" s="48"/>
+      <c r="A122" s="32"/>
+      <c r="B122" s="51"/>
       <c r="C122" s="14" t="s">
         <v>111</v>
       </c>
       <c r="D122" s="3"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="37"/>
-      <c r="B123" s="57"/>
+      <c r="A123" s="33"/>
+      <c r="B123" s="52"/>
       <c r="C123" s="14" t="s">
         <v>100</v>
       </c>
@@ -2135,10 +2135,10 @@
       <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="54" t="s">
+      <c r="A125" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B125" s="45" t="s">
+      <c r="B125" s="47" t="s">
         <v>113</v>
       </c>
       <c r="C125" s="15" t="s">
@@ -2149,32 +2149,32 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="55"/>
-      <c r="B126" s="28"/>
+      <c r="A126" s="29"/>
+      <c r="B126" s="48"/>
       <c r="C126" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D126" s="3"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="55"/>
-      <c r="B127" s="28"/>
+      <c r="A127" s="29"/>
+      <c r="B127" s="48"/>
       <c r="C127" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="55"/>
-      <c r="B128" s="28"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="48"/>
       <c r="C128" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="56"/>
-      <c r="B129" s="46"/>
+      <c r="A129" s="30"/>
+      <c r="B129" s="49"/>
       <c r="C129" s="14" t="s">
         <v>100</v>
       </c>
@@ -2187,10 +2187,10 @@
       <c r="D130" s="3"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="54" t="s">
+      <c r="A131" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B131" s="54" t="s">
+      <c r="B131" s="28" t="s">
         <v>117</v>
       </c>
       <c r="C131" s="14" t="s">
@@ -2201,32 +2201,32 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="55"/>
-      <c r="B132" s="55"/>
+      <c r="A132" s="29"/>
+      <c r="B132" s="29"/>
       <c r="C132" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D132" s="3"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="55"/>
-      <c r="B133" s="55"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="29"/>
       <c r="C133" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D133" s="3"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="55"/>
-      <c r="B134" s="55"/>
+      <c r="A134" s="29"/>
+      <c r="B134" s="29"/>
       <c r="C134" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D134" s="3"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="56"/>
-      <c r="B135" s="56"/>
+      <c r="A135" s="30"/>
+      <c r="B135" s="30"/>
       <c r="C135" s="14" t="s">
         <v>119</v>
       </c>
@@ -2239,10 +2239,10 @@
       <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="54" t="s">
+      <c r="A137" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="B137" s="54" t="s">
+      <c r="B137" s="28" t="s">
         <v>121</v>
       </c>
       <c r="C137" s="14" t="s">
@@ -2253,32 +2253,32 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="55"/>
-      <c r="B138" s="55"/>
+      <c r="A138" s="29"/>
+      <c r="B138" s="29"/>
       <c r="C138" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="55"/>
-      <c r="B139" s="55"/>
+      <c r="A139" s="29"/>
+      <c r="B139" s="29"/>
       <c r="C139" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D139" s="3"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="55"/>
-      <c r="B140" s="55"/>
+      <c r="A140" s="29"/>
+      <c r="B140" s="29"/>
       <c r="C140" s="14" t="s">
         <v>122</v>
       </c>
       <c r="D140" s="3"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="56"/>
-      <c r="B141" s="56"/>
+      <c r="A141" s="30"/>
+      <c r="B141" s="30"/>
       <c r="C141" s="14" t="s">
         <v>119</v>
       </c>
@@ -2291,10 +2291,10 @@
       <c r="D142" s="3"/>
     </row>
     <row r="143" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="35" t="s">
+      <c r="A143" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B143" s="32" t="s">
+      <c r="B143" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C143" s="15" t="s">
@@ -2305,16 +2305,16 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="36"/>
-      <c r="B144" s="33"/>
+      <c r="A144" s="32"/>
+      <c r="B144" s="41"/>
       <c r="C144" s="16" t="s">
         <v>76</v>
       </c>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="37"/>
-      <c r="B145" s="34"/>
+      <c r="A145" s="33"/>
+      <c r="B145" s="42"/>
       <c r="C145" s="15" t="s">
         <v>126</v>
       </c>
@@ -2327,10 +2327,10 @@
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="35" t="s">
+      <c r="A147" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B147" s="47" t="s">
+      <c r="B147" s="50" t="s">
         <v>127</v>
       </c>
       <c r="C147" s="15" t="s">
@@ -2341,16 +2341,16 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="36"/>
-      <c r="B148" s="48"/>
+      <c r="A148" s="32"/>
+      <c r="B148" s="51"/>
       <c r="C148" s="16" t="s">
         <v>76</v>
       </c>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="37"/>
-      <c r="B149" s="57"/>
+      <c r="A149" s="33"/>
+      <c r="B149" s="52"/>
       <c r="C149" s="15" t="s">
         <v>128</v>
       </c>
@@ -2363,10 +2363,10 @@
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="35" t="s">
+      <c r="A151" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B151" s="47" t="s">
+      <c r="B151" s="50" t="s">
         <v>130</v>
       </c>
       <c r="C151" s="15" t="s">
@@ -2377,16 +2377,16 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="36"/>
-      <c r="B152" s="48"/>
+      <c r="A152" s="32"/>
+      <c r="B152" s="51"/>
       <c r="C152" s="16" t="s">
         <v>76</v>
       </c>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="37"/>
-      <c r="B153" s="57"/>
+      <c r="A153" s="33"/>
+      <c r="B153" s="52"/>
       <c r="C153" s="15" t="s">
         <v>131</v>
       </c>
@@ -2399,10 +2399,10 @@
       <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="44" t="s">
+      <c r="A155" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="B155" s="35" t="s">
+      <c r="B155" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C155" s="14" t="s">
@@ -2413,40 +2413,40 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="52"/>
-      <c r="B156" s="36"/>
+      <c r="A156" s="38"/>
+      <c r="B156" s="32"/>
       <c r="C156" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D156" s="10"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="52"/>
-      <c r="B157" s="36"/>
+      <c r="A157" s="38"/>
+      <c r="B157" s="32"/>
       <c r="C157" s="14" t="s">
         <v>135</v>
       </c>
       <c r="D157" s="10"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="52"/>
-      <c r="B158" s="36"/>
+      <c r="A158" s="38"/>
+      <c r="B158" s="32"/>
       <c r="C158" s="14" t="s">
         <v>101</v>
       </c>
       <c r="D158" s="10"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="52"/>
-      <c r="B159" s="36"/>
+      <c r="A159" s="38"/>
+      <c r="B159" s="32"/>
       <c r="C159" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D159" s="10"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="52"/>
-      <c r="B160" s="36"/>
+      <c r="A160" s="38"/>
+      <c r="B160" s="32"/>
       <c r="C160" s="14" t="s">
         <v>103</v>
       </c>
@@ -2459,10 +2459,10 @@
       <c r="D161" s="10"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="55" t="s">
+      <c r="A162" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B162" s="55" t="s">
+      <c r="B162" s="29" t="s">
         <v>136</v>
       </c>
       <c r="C162" s="14" t="s">
@@ -2473,40 +2473,40 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="55"/>
-      <c r="B163" s="55"/>
+      <c r="A163" s="29"/>
+      <c r="B163" s="29"/>
       <c r="C163" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D163" s="10"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="55"/>
-      <c r="B164" s="55"/>
+      <c r="A164" s="29"/>
+      <c r="B164" s="29"/>
       <c r="C164" s="14" t="s">
         <v>135</v>
       </c>
       <c r="D164" s="10"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="55"/>
-      <c r="B165" s="55"/>
+      <c r="A165" s="29"/>
+      <c r="B165" s="29"/>
       <c r="C165" s="14" t="s">
         <v>101</v>
       </c>
       <c r="D165" s="10"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="55"/>
-      <c r="B166" s="55"/>
+      <c r="A166" s="29"/>
+      <c r="B166" s="29"/>
       <c r="C166" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D166" s="10"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="55"/>
-      <c r="B167" s="55"/>
+      <c r="A167" s="29"/>
+      <c r="B167" s="29"/>
       <c r="C167" s="14" t="s">
         <v>137</v>
       </c>
@@ -2519,10 +2519,10 @@
       <c r="D168" s="10"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="44" t="s">
+      <c r="A169" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B169" s="32" t="s">
+      <c r="B169" s="40" t="s">
         <v>62</v>
       </c>
       <c r="C169" s="15" t="s">
@@ -2533,55 +2533,55 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="39"/>
-      <c r="B170" s="58"/>
+      <c r="A170" s="43"/>
+      <c r="B170" s="45"/>
       <c r="C170" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D170" s="3"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="39"/>
-      <c r="B171" s="58"/>
+      <c r="A171" s="43"/>
+      <c r="B171" s="45"/>
       <c r="C171" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D171" s="3"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="39"/>
-      <c r="B172" s="58"/>
+      <c r="A172" s="43"/>
+      <c r="B172" s="45"/>
       <c r="C172" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D172" s="3"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="39"/>
-      <c r="B173" s="58"/>
+      <c r="A173" s="43"/>
+      <c r="B173" s="45"/>
       <c r="C173" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D173" s="3"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="39"/>
-      <c r="B174" s="58"/>
+      <c r="A174" s="43"/>
+      <c r="B174" s="45"/>
       <c r="C174" s="24" t="s">
         <v>80</v>
       </c>
       <c r="D174" s="3"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="40"/>
-      <c r="B175" s="59"/>
+      <c r="A175" s="44"/>
+      <c r="B175" s="46"/>
       <c r="D175" s="3"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="44" t="s">
+      <c r="A176" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="B176" s="32" t="s">
+      <c r="B176" s="40" t="s">
         <v>64</v>
       </c>
       <c r="C176" s="14" t="s">
@@ -2592,40 +2592,40 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="52"/>
-      <c r="B177" s="33"/>
+      <c r="A177" s="38"/>
+      <c r="B177" s="41"/>
       <c r="C177" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="52"/>
-      <c r="B178" s="33"/>
+      <c r="A178" s="38"/>
+      <c r="B178" s="41"/>
       <c r="C178" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="52"/>
-      <c r="B179" s="33"/>
+      <c r="A179" s="38"/>
+      <c r="B179" s="41"/>
       <c r="C179" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="52"/>
-      <c r="B180" s="33"/>
+      <c r="A180" s="38"/>
+      <c r="B180" s="41"/>
       <c r="C180" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="53"/>
-      <c r="B181" s="34"/>
+      <c r="A181" s="39"/>
+      <c r="B181" s="42"/>
       <c r="C181" s="14" t="s">
         <v>80</v>
       </c>
@@ -2638,10 +2638,10 @@
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="44" t="s">
+      <c r="A183" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="B183" s="32" t="s">
+      <c r="B183" s="40" t="s">
         <v>65</v>
       </c>
       <c r="C183" s="15" t="s">
@@ -2652,40 +2652,40 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="52"/>
-      <c r="B184" s="33"/>
+      <c r="A184" s="38"/>
+      <c r="B184" s="41"/>
       <c r="C184" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="52"/>
-      <c r="B185" s="33"/>
+      <c r="A185" s="38"/>
+      <c r="B185" s="41"/>
       <c r="C185" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="52"/>
-      <c r="B186" s="33"/>
+      <c r="A186" s="38"/>
+      <c r="B186" s="41"/>
       <c r="C186" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="52"/>
-      <c r="B187" s="33"/>
+      <c r="A187" s="38"/>
+      <c r="B187" s="41"/>
       <c r="C187" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="53"/>
-      <c r="B188" s="34"/>
+      <c r="A188" s="39"/>
+      <c r="B188" s="42"/>
       <c r="C188" s="14" t="s">
         <v>80</v>
       </c>
@@ -2698,10 +2698,10 @@
       <c r="D189" s="5"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="54" t="s">
+      <c r="A190" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B190" s="54" t="s">
+      <c r="B190" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C190" s="15" t="s">
@@ -2712,40 +2712,40 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="55"/>
-      <c r="B191" s="55"/>
+      <c r="A191" s="29"/>
+      <c r="B191" s="29"/>
       <c r="C191" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D191" s="5"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="55"/>
-      <c r="B192" s="55"/>
+      <c r="A192" s="29"/>
+      <c r="B192" s="29"/>
       <c r="C192" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="55"/>
-      <c r="B193" s="55"/>
+      <c r="A193" s="29"/>
+      <c r="B193" s="29"/>
       <c r="C193" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="55"/>
-      <c r="B194" s="55"/>
+      <c r="A194" s="29"/>
+      <c r="B194" s="29"/>
       <c r="C194" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="56"/>
-      <c r="B195" s="56"/>
+      <c r="A195" s="30"/>
+      <c r="B195" s="30"/>
       <c r="C195" s="14" t="s">
         <v>80</v>
       </c>
@@ -2758,10 +2758,10 @@
       <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="44" t="s">
+      <c r="A197" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="B197" s="32" t="s">
+      <c r="B197" s="40" t="s">
         <v>68</v>
       </c>
       <c r="C197" s="15" t="s">
@@ -2772,40 +2772,40 @@
       </c>
     </row>
     <row r="198" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="52"/>
-      <c r="B198" s="33"/>
+      <c r="A198" s="38"/>
+      <c r="B198" s="41"/>
       <c r="C198" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D198" s="5"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="52"/>
-      <c r="B199" s="33"/>
+      <c r="A199" s="38"/>
+      <c r="B199" s="41"/>
       <c r="C199" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D199" s="5"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="52"/>
-      <c r="B200" s="33"/>
+      <c r="A200" s="38"/>
+      <c r="B200" s="41"/>
       <c r="C200" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D200" s="5"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="52"/>
-      <c r="B201" s="33"/>
+      <c r="A201" s="38"/>
+      <c r="B201" s="41"/>
       <c r="C201" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D201" s="5"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="53"/>
-      <c r="B202" s="34"/>
+      <c r="A202" s="39"/>
+      <c r="B202" s="42"/>
       <c r="C202" s="14" t="s">
         <v>80</v>
       </c>
@@ -2818,10 +2818,10 @@
       <c r="D203" s="5"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="35" t="s">
+      <c r="A204" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B204" s="32" t="s">
+      <c r="B204" s="40" t="s">
         <v>69</v>
       </c>
       <c r="C204" s="15" t="s">
@@ -2832,32 +2832,32 @@
       </c>
     </row>
     <row r="205" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="36"/>
-      <c r="B205" s="33"/>
+      <c r="A205" s="32"/>
+      <c r="B205" s="41"/>
       <c r="C205" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D205" s="3"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="36"/>
-      <c r="B206" s="33"/>
+      <c r="A206" s="32"/>
+      <c r="B206" s="41"/>
       <c r="C206" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D206" s="3"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="36"/>
-      <c r="B207" s="33"/>
+      <c r="A207" s="32"/>
+      <c r="B207" s="41"/>
       <c r="C207" s="14" t="s">
         <v>99</v>
       </c>
       <c r="D207" s="3"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="37"/>
-      <c r="B208" s="34"/>
+      <c r="A208" s="33"/>
+      <c r="B208" s="42"/>
       <c r="C208" s="14" t="s">
         <v>100</v>
       </c>
@@ -2870,10 +2870,10 @@
       <c r="D209" s="3"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="54" t="s">
+      <c r="A210" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B210" s="54" t="s">
+      <c r="B210" s="28" t="s">
         <v>139</v>
       </c>
       <c r="C210" s="14" t="s">
@@ -2884,32 +2884,32 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="55"/>
-      <c r="B211" s="55"/>
+      <c r="A211" s="29"/>
+      <c r="B211" s="29"/>
       <c r="C211" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D211" s="3"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="55"/>
-      <c r="B212" s="55"/>
+      <c r="A212" s="29"/>
+      <c r="B212" s="29"/>
       <c r="C212" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D212" s="3"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="55"/>
-      <c r="B213" s="55"/>
+      <c r="A213" s="29"/>
+      <c r="B213" s="29"/>
       <c r="C213" s="14" t="s">
         <v>140</v>
       </c>
       <c r="D213" s="3"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="56"/>
-      <c r="B214" s="56"/>
+      <c r="A214" s="30"/>
+      <c r="B214" s="30"/>
       <c r="C214" s="14" t="s">
         <v>119</v>
       </c>
@@ -2922,10 +2922,10 @@
       <c r="D215" s="3"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="54" t="s">
+      <c r="A216" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="B216" s="54" t="s">
+      <c r="B216" s="28" t="s">
         <v>142</v>
       </c>
       <c r="C216" s="14" t="s">
@@ -2936,32 +2936,32 @@
       </c>
     </row>
     <row r="217" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="55"/>
-      <c r="B217" s="55"/>
+      <c r="A217" s="29"/>
+      <c r="B217" s="29"/>
       <c r="C217" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D217" s="3"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="55"/>
-      <c r="B218" s="55"/>
+      <c r="A218" s="29"/>
+      <c r="B218" s="29"/>
       <c r="C218" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D218" s="3"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="55"/>
-      <c r="B219" s="55"/>
+      <c r="A219" s="29"/>
+      <c r="B219" s="29"/>
       <c r="C219" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D219" s="3"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="56"/>
-      <c r="B220" s="56"/>
+      <c r="A220" s="30"/>
+      <c r="B220" s="30"/>
       <c r="C220" s="14" t="s">
         <v>119</v>
       </c>
@@ -2974,10 +2974,10 @@
       <c r="D221" s="11"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="35" t="s">
+      <c r="A222" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B222" s="41" t="s">
+      <c r="B222" s="34" t="s">
         <v>71</v>
       </c>
       <c r="C222" s="3" t="s">
@@ -2988,16 +2988,16 @@
       </c>
     </row>
     <row r="223" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="36"/>
-      <c r="B223" s="60"/>
+      <c r="A223" s="32"/>
+      <c r="B223" s="35"/>
       <c r="C223" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D223" s="3"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="37"/>
-      <c r="B224" s="61"/>
+      <c r="A224" s="33"/>
+      <c r="B224" s="36"/>
       <c r="C224" s="25" t="s">
         <v>169</v>
       </c>
@@ -3005,34 +3005,32 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="B216:B220"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="A169:A175"/>
-    <mergeCell ref="B169:B175"/>
-    <mergeCell ref="A210:A214"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="B125:B129"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
     <mergeCell ref="A137:A141"/>
     <mergeCell ref="B137:B141"/>
     <mergeCell ref="A183:A188"/>
@@ -3049,36 +3047,38 @@
     <mergeCell ref="B155:B160"/>
     <mergeCell ref="A162:A167"/>
     <mergeCell ref="B162:B167"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="A169:A175"/>
+    <mergeCell ref="B169:B175"/>
+    <mergeCell ref="A210:A214"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="B125:B129"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="B216:B220"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="B176:B181"/>
     <mergeCell ref="A197:A202"/>
     <mergeCell ref="B197:B202"/>
     <mergeCell ref="A204:A208"/>
     <mergeCell ref="B204:B208"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A67:A72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/XLDATA/Mars-QA TestCase-User Story1.xlsx
+++ b/XLDATA/Mars-QA TestCase-User Story1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IC Course\MarsQA\XLDATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C59D01-86F2-4E8E-B1A1-42D448EA3FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A415F0-880D-4B65-87A2-89003CDCC54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="171">
   <si>
     <t xml:space="preserve">   TestCase Id</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>3.Click the delete icon in the list.</t>
+  </si>
+  <si>
+    <t>2.Enter the sign in credentials with valid Email and password.</t>
   </si>
 </sst>
 </file>
@@ -734,6 +737,70 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -743,90 +810,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1049,7 +1052,7 @@
   <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="C224" sqref="C224"/>
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1081,10 +1084,10 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="51" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1095,32 +1098,32 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1133,10 +1136,10 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1147,32 +1150,32 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1185,10 +1188,10 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1199,32 +1202,32 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1237,10 +1240,10 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="51" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1251,32 +1254,32 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
@@ -1289,10 +1292,10 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1303,24 +1306,24 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1333,7 +1336,7 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="31" t="s">
@@ -1347,24 +1350,24 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="14" t="s">
         <v>29</v>
       </c>
@@ -1377,7 +1380,7 @@
       <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="45" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -1391,24 +1394,24 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="55"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="14" t="s">
         <v>29</v>
       </c>
@@ -1421,10 +1424,10 @@
       <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="40" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -1435,30 +1438,30 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
-      <c r="B46" s="55"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
     </row>
@@ -1469,10 +1472,10 @@
       <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="38" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -1483,24 +1486,24 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
-      <c r="B49" s="48"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="48"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="49"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="14" t="s">
         <v>47</v>
       </c>
@@ -1513,10 +1516,10 @@
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="28" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -1527,40 +1530,40 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="41"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="41"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="41"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="41"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="42"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="3" t="s">
         <v>80</v>
       </c>
@@ -1573,10 +1576,10 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="34" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="14" t="s">
@@ -1587,40 +1590,40 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="B61" s="60"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="35"/>
       <c r="C61" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
-      <c r="B62" s="60"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="35"/>
       <c r="C62" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
-      <c r="B63" s="60"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="14" t="s">
         <v>78</v>
       </c>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
-      <c r="B64" s="60"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
-      <c r="B65" s="61"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="14" t="s">
         <v>84</v>
       </c>
@@ -1633,10 +1636,10 @@
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="48" t="s">
+      <c r="A67" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -1647,40 +1650,40 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
-      <c r="B68" s="60"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="35"/>
       <c r="C68" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
-      <c r="B69" s="60"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="35"/>
       <c r="C69" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
-      <c r="B70" s="60"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="35"/>
       <c r="C70" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
-      <c r="B71" s="60"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="48"/>
-      <c r="B72" s="61"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="3" t="s">
         <v>84</v>
       </c>
@@ -1696,7 +1699,7 @@
       <c r="A74" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="15" t="s">
@@ -1708,7 +1711,7 @@
     </row>
     <row r="75" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="32"/>
-      <c r="B75" s="41"/>
+      <c r="B75" s="29"/>
       <c r="C75" s="13" t="s">
         <v>76</v>
       </c>
@@ -1716,7 +1719,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
-      <c r="B76" s="41"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="14" t="s">
         <v>129</v>
       </c>
@@ -1724,7 +1727,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
-      <c r="B77" s="41"/>
+      <c r="B77" s="29"/>
       <c r="C77" s="14" t="s">
         <v>87</v>
       </c>
@@ -1732,7 +1735,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
-      <c r="B78" s="41"/>
+      <c r="B78" s="29"/>
       <c r="C78" s="14" t="s">
         <v>79</v>
       </c>
@@ -1740,7 +1743,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="33"/>
-      <c r="B79" s="42"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="14" t="s">
         <v>80</v>
       </c>
@@ -1753,10 +1756,10 @@
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="40" t="s">
+      <c r="B81" s="28" t="s">
         <v>75</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -1767,40 +1770,40 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
-      <c r="B82" s="41"/>
+      <c r="A82" s="55"/>
+      <c r="B82" s="29"/>
       <c r="C82" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
-      <c r="B83" s="41"/>
+      <c r="A83" s="55"/>
+      <c r="B83" s="29"/>
       <c r="C83" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
-      <c r="B84" s="41"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
-      <c r="B85" s="41"/>
+      <c r="A85" s="55"/>
+      <c r="B85" s="29"/>
       <c r="C85" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="14" t="s">
         <v>80</v>
       </c>
@@ -1813,10 +1816,10 @@
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="37" t="s">
+      <c r="A88" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B88" s="40" t="s">
+      <c r="B88" s="28" t="s">
         <v>53</v>
       </c>
       <c r="C88" s="15" t="s">
@@ -1827,40 +1830,40 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
-      <c r="B89" s="41"/>
+      <c r="A89" s="55"/>
+      <c r="B89" s="29"/>
       <c r="C89" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="38"/>
-      <c r="B90" s="41"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="29"/>
       <c r="C90" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="38"/>
-      <c r="B91" s="41"/>
+      <c r="A91" s="55"/>
+      <c r="B91" s="29"/>
       <c r="C91" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="38"/>
-      <c r="B92" s="41"/>
+      <c r="A92" s="55"/>
+      <c r="B92" s="29"/>
       <c r="C92" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
-      <c r="B93" s="42"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="14" t="s">
         <v>80</v>
       </c>
@@ -1873,10 +1876,10 @@
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="37" t="s">
+      <c r="A95" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B95" s="40" t="s">
+      <c r="B95" s="28" t="s">
         <v>55</v>
       </c>
       <c r="C95" s="15" t="s">
@@ -1887,40 +1890,40 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
-      <c r="B96" s="41"/>
+      <c r="A96" s="55"/>
+      <c r="B96" s="29"/>
       <c r="C96" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
-      <c r="B97" s="41"/>
+      <c r="A97" s="55"/>
+      <c r="B97" s="29"/>
       <c r="C97" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="38"/>
-      <c r="B98" s="41"/>
+      <c r="A98" s="55"/>
+      <c r="B98" s="29"/>
       <c r="C98" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="38"/>
-      <c r="B99" s="41"/>
+      <c r="A99" s="55"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="39"/>
-      <c r="B100" s="42"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="30"/>
       <c r="C100" s="14" t="s">
         <v>80</v>
       </c>
@@ -1933,10 +1936,10 @@
       <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B102" s="47" t="s">
+      <c r="B102" s="38" t="s">
         <v>56</v>
       </c>
       <c r="C102" s="15" t="s">
@@ -1947,40 +1950,40 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="29"/>
-      <c r="B103" s="48"/>
+      <c r="A103" s="53"/>
+      <c r="B103" s="37"/>
       <c r="C103" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
-      <c r="B104" s="48"/>
+      <c r="A104" s="53"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="29"/>
-      <c r="B105" s="48"/>
+      <c r="A105" s="53"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="29"/>
-      <c r="B106" s="48"/>
+      <c r="A106" s="53"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="B107" s="49"/>
+      <c r="A107" s="54"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="14" t="s">
         <v>80</v>
       </c>
@@ -1993,10 +1996,10 @@
       <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="37" t="s">
+      <c r="A109" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="B109" s="40" t="s">
+      <c r="B109" s="28" t="s">
         <v>57</v>
       </c>
       <c r="C109" s="15" t="s">
@@ -2007,40 +2010,40 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="38"/>
-      <c r="B110" s="41"/>
+      <c r="A110" s="55"/>
+      <c r="B110" s="29"/>
       <c r="C110" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="38"/>
-      <c r="B111" s="41"/>
+      <c r="A111" s="55"/>
+      <c r="B111" s="29"/>
       <c r="C111" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D111" s="3"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="38"/>
-      <c r="B112" s="41"/>
+      <c r="A112" s="55"/>
+      <c r="B112" s="29"/>
       <c r="C112" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D112" s="3"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="38"/>
-      <c r="B113" s="41"/>
+      <c r="A113" s="55"/>
+      <c r="B113" s="29"/>
       <c r="C113" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D113" s="3"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="39"/>
-      <c r="B114" s="42"/>
+      <c r="A114" s="56"/>
+      <c r="B114" s="30"/>
       <c r="C114" s="14" t="s">
         <v>80</v>
       </c>
@@ -2055,10 +2058,10 @@
       <c r="D115" s="3"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="B116" s="28" t="s">
+      <c r="B116" s="52" t="s">
         <v>96</v>
       </c>
       <c r="C116" s="14" t="s">
@@ -2069,8 +2072,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="30"/>
-      <c r="B117" s="30"/>
+      <c r="A117" s="54"/>
+      <c r="B117" s="54"/>
       <c r="C117" s="13" t="s">
         <v>76</v>
       </c>
@@ -2086,7 +2089,7 @@
       <c r="A119" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B119" s="50" t="s">
+      <c r="B119" s="40" t="s">
         <v>112</v>
       </c>
       <c r="C119" s="15" t="s">
@@ -2098,7 +2101,7 @@
     </row>
     <row r="120" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="32"/>
-      <c r="B120" s="51"/>
+      <c r="B120" s="41"/>
       <c r="C120" s="13" t="s">
         <v>76</v>
       </c>
@@ -2106,7 +2109,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="32"/>
-      <c r="B121" s="51"/>
+      <c r="B121" s="41"/>
       <c r="C121" s="14" t="s">
         <v>110</v>
       </c>
@@ -2114,7 +2117,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="32"/>
-      <c r="B122" s="51"/>
+      <c r="B122" s="41"/>
       <c r="C122" s="14" t="s">
         <v>111</v>
       </c>
@@ -2122,7 +2125,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="33"/>
-      <c r="B123" s="52"/>
+      <c r="B123" s="57"/>
       <c r="C123" s="14" t="s">
         <v>100</v>
       </c>
@@ -2135,10 +2138,10 @@
       <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="28" t="s">
+      <c r="A125" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="B125" s="47" t="s">
+      <c r="B125" s="38" t="s">
         <v>113</v>
       </c>
       <c r="C125" s="15" t="s">
@@ -2149,32 +2152,32 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
-      <c r="B126" s="48"/>
+      <c r="A126" s="53"/>
+      <c r="B126" s="37"/>
       <c r="C126" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D126" s="3"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
-      <c r="B127" s="48"/>
+      <c r="A127" s="53"/>
+      <c r="B127" s="37"/>
       <c r="C127" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
-      <c r="B128" s="48"/>
+      <c r="A128" s="53"/>
+      <c r="B128" s="37"/>
       <c r="C128" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="30"/>
-      <c r="B129" s="49"/>
+      <c r="A129" s="54"/>
+      <c r="B129" s="39"/>
       <c r="C129" s="14" t="s">
         <v>100</v>
       </c>
@@ -2187,10 +2190,10 @@
       <c r="D130" s="3"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="28" t="s">
+      <c r="A131" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="B131" s="28" t="s">
+      <c r="B131" s="52" t="s">
         <v>117</v>
       </c>
       <c r="C131" s="14" t="s">
@@ -2201,32 +2204,32 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="29"/>
-      <c r="B132" s="29"/>
+      <c r="A132" s="53"/>
+      <c r="B132" s="53"/>
       <c r="C132" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D132" s="3"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="29"/>
-      <c r="B133" s="29"/>
+      <c r="A133" s="53"/>
+      <c r="B133" s="53"/>
       <c r="C133" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D133" s="3"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="29"/>
-      <c r="B134" s="29"/>
+      <c r="A134" s="53"/>
+      <c r="B134" s="53"/>
       <c r="C134" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D134" s="3"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="30"/>
-      <c r="B135" s="30"/>
+      <c r="A135" s="54"/>
+      <c r="B135" s="54"/>
       <c r="C135" s="14" t="s">
         <v>119</v>
       </c>
@@ -2239,10 +2242,10 @@
       <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="28" t="s">
+      <c r="A137" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="B137" s="28" t="s">
+      <c r="B137" s="52" t="s">
         <v>121</v>
       </c>
       <c r="C137" s="14" t="s">
@@ -2253,32 +2256,32 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="29"/>
-      <c r="B138" s="29"/>
+      <c r="A138" s="53"/>
+      <c r="B138" s="53"/>
       <c r="C138" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="29"/>
-      <c r="B139" s="29"/>
+      <c r="A139" s="53"/>
+      <c r="B139" s="53"/>
       <c r="C139" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D139" s="3"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="29"/>
-      <c r="B140" s="29"/>
+      <c r="A140" s="53"/>
+      <c r="B140" s="53"/>
       <c r="C140" s="14" t="s">
         <v>122</v>
       </c>
       <c r="D140" s="3"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="30"/>
-      <c r="B141" s="30"/>
+      <c r="A141" s="54"/>
+      <c r="B141" s="54"/>
       <c r="C141" s="14" t="s">
         <v>119</v>
       </c>
@@ -2294,7 +2297,7 @@
       <c r="A143" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B143" s="40" t="s">
+      <c r="B143" s="28" t="s">
         <v>59</v>
       </c>
       <c r="C143" s="15" t="s">
@@ -2306,7 +2309,7 @@
     </row>
     <row r="144" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A144" s="32"/>
-      <c r="B144" s="41"/>
+      <c r="B144" s="29"/>
       <c r="C144" s="16" t="s">
         <v>76</v>
       </c>
@@ -2314,7 +2317,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="33"/>
-      <c r="B145" s="42"/>
+      <c r="B145" s="30"/>
       <c r="C145" s="15" t="s">
         <v>126</v>
       </c>
@@ -2330,7 +2333,7 @@
       <c r="A147" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B147" s="50" t="s">
+      <c r="B147" s="40" t="s">
         <v>127</v>
       </c>
       <c r="C147" s="15" t="s">
@@ -2342,7 +2345,7 @@
     </row>
     <row r="148" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A148" s="32"/>
-      <c r="B148" s="51"/>
+      <c r="B148" s="41"/>
       <c r="C148" s="16" t="s">
         <v>76</v>
       </c>
@@ -2350,7 +2353,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="33"/>
-      <c r="B149" s="52"/>
+      <c r="B149" s="57"/>
       <c r="C149" s="15" t="s">
         <v>128</v>
       </c>
@@ -2366,7 +2369,7 @@
       <c r="A151" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B151" s="50" t="s">
+      <c r="B151" s="40" t="s">
         <v>130</v>
       </c>
       <c r="C151" s="15" t="s">
@@ -2378,7 +2381,7 @@
     </row>
     <row r="152" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A152" s="32"/>
-      <c r="B152" s="51"/>
+      <c r="B152" s="41"/>
       <c r="C152" s="16" t="s">
         <v>76</v>
       </c>
@@ -2386,7 +2389,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="33"/>
-      <c r="B153" s="52"/>
+      <c r="B153" s="57"/>
       <c r="C153" s="15" t="s">
         <v>131</v>
       </c>
@@ -2399,7 +2402,7 @@
       <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="37" t="s">
+      <c r="A155" s="45" t="s">
         <v>150</v>
       </c>
       <c r="B155" s="31" t="s">
@@ -2413,7 +2416,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="38"/>
+      <c r="A156" s="55"/>
       <c r="B156" s="32"/>
       <c r="C156" s="13" t="s">
         <v>76</v>
@@ -2421,7 +2424,7 @@
       <c r="D156" s="10"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="38"/>
+      <c r="A157" s="55"/>
       <c r="B157" s="32"/>
       <c r="C157" s="14" t="s">
         <v>135</v>
@@ -2429,7 +2432,7 @@
       <c r="D157" s="10"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="38"/>
+      <c r="A158" s="55"/>
       <c r="B158" s="32"/>
       <c r="C158" s="14" t="s">
         <v>101</v>
@@ -2437,7 +2440,7 @@
       <c r="D158" s="10"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="38"/>
+      <c r="A159" s="55"/>
       <c r="B159" s="32"/>
       <c r="C159" s="14" t="s">
         <v>102</v>
@@ -2445,7 +2448,7 @@
       <c r="D159" s="10"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="38"/>
+      <c r="A160" s="55"/>
       <c r="B160" s="32"/>
       <c r="C160" s="14" t="s">
         <v>103</v>
@@ -2459,10 +2462,10 @@
       <c r="D161" s="10"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="29" t="s">
+      <c r="A162" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B162" s="29" t="s">
+      <c r="B162" s="53" t="s">
         <v>136</v>
       </c>
       <c r="C162" s="14" t="s">
@@ -2473,40 +2476,40 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="29"/>
-      <c r="B163" s="29"/>
+      <c r="A163" s="53"/>
+      <c r="B163" s="53"/>
       <c r="C163" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D163" s="10"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="29"/>
-      <c r="B164" s="29"/>
+      <c r="A164" s="53"/>
+      <c r="B164" s="53"/>
       <c r="C164" s="14" t="s">
         <v>135</v>
       </c>
       <c r="D164" s="10"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="29"/>
-      <c r="B165" s="29"/>
+      <c r="A165" s="53"/>
+      <c r="B165" s="53"/>
       <c r="C165" s="14" t="s">
         <v>101</v>
       </c>
       <c r="D165" s="10"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="29"/>
-      <c r="B166" s="29"/>
+      <c r="A166" s="53"/>
+      <c r="B166" s="53"/>
       <c r="C166" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D166" s="10"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="29"/>
-      <c r="B167" s="29"/>
+      <c r="A167" s="53"/>
+      <c r="B167" s="53"/>
       <c r="C167" s="14" t="s">
         <v>137</v>
       </c>
@@ -2519,10 +2522,10 @@
       <c r="D168" s="10"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="37" t="s">
+      <c r="A169" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="B169" s="40" t="s">
+      <c r="B169" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C169" s="15" t="s">
@@ -2533,55 +2536,55 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="43"/>
-      <c r="B170" s="45"/>
+      <c r="A170" s="49"/>
+      <c r="B170" s="58"/>
       <c r="C170" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D170" s="3"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="43"/>
-      <c r="B171" s="45"/>
+      <c r="A171" s="49"/>
+      <c r="B171" s="58"/>
       <c r="C171" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D171" s="3"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="43"/>
-      <c r="B172" s="45"/>
+      <c r="A172" s="49"/>
+      <c r="B172" s="58"/>
       <c r="C172" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D172" s="3"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="43"/>
-      <c r="B173" s="45"/>
+      <c r="A173" s="49"/>
+      <c r="B173" s="58"/>
       <c r="C173" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D173" s="3"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="43"/>
-      <c r="B174" s="45"/>
+      <c r="A174" s="49"/>
+      <c r="B174" s="58"/>
       <c r="C174" s="24" t="s">
         <v>80</v>
       </c>
       <c r="D174" s="3"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="44"/>
-      <c r="B175" s="46"/>
+      <c r="A175" s="50"/>
+      <c r="B175" s="59"/>
       <c r="D175" s="3"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="37" t="s">
+      <c r="A176" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="B176" s="40" t="s">
+      <c r="B176" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C176" s="14" t="s">
@@ -2592,40 +2595,40 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="38"/>
-      <c r="B177" s="41"/>
+      <c r="A177" s="55"/>
+      <c r="B177" s="29"/>
       <c r="C177" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="38"/>
-      <c r="B178" s="41"/>
+      <c r="A178" s="55"/>
+      <c r="B178" s="29"/>
       <c r="C178" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="38"/>
-      <c r="B179" s="41"/>
+      <c r="A179" s="55"/>
+      <c r="B179" s="29"/>
       <c r="C179" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="38"/>
-      <c r="B180" s="41"/>
+      <c r="A180" s="55"/>
+      <c r="B180" s="29"/>
       <c r="C180" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="39"/>
-      <c r="B181" s="42"/>
+      <c r="A181" s="56"/>
+      <c r="B181" s="30"/>
       <c r="C181" s="14" t="s">
         <v>80</v>
       </c>
@@ -2638,10 +2641,10 @@
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="37" t="s">
+      <c r="A183" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B183" s="40" t="s">
+      <c r="B183" s="28" t="s">
         <v>65</v>
       </c>
       <c r="C183" s="15" t="s">
@@ -2652,40 +2655,40 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="38"/>
-      <c r="B184" s="41"/>
+      <c r="A184" s="55"/>
+      <c r="B184" s="29"/>
       <c r="C184" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="38"/>
-      <c r="B185" s="41"/>
+      <c r="A185" s="55"/>
+      <c r="B185" s="29"/>
       <c r="C185" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="38"/>
-      <c r="B186" s="41"/>
+      <c r="A186" s="55"/>
+      <c r="B186" s="29"/>
       <c r="C186" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="38"/>
-      <c r="B187" s="41"/>
+      <c r="A187" s="55"/>
+      <c r="B187" s="29"/>
       <c r="C187" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="39"/>
-      <c r="B188" s="42"/>
+      <c r="A188" s="56"/>
+      <c r="B188" s="30"/>
       <c r="C188" s="14" t="s">
         <v>80</v>
       </c>
@@ -2698,10 +2701,10 @@
       <c r="D189" s="5"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="28" t="s">
+      <c r="A190" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="B190" s="28" t="s">
+      <c r="B190" s="52" t="s">
         <v>67</v>
       </c>
       <c r="C190" s="15" t="s">
@@ -2712,40 +2715,40 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="29"/>
-      <c r="B191" s="29"/>
+      <c r="A191" s="53"/>
+      <c r="B191" s="53"/>
       <c r="C191" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D191" s="5"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="29"/>
-      <c r="B192" s="29"/>
+      <c r="A192" s="53"/>
+      <c r="B192" s="53"/>
       <c r="C192" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="29"/>
-      <c r="B193" s="29"/>
+      <c r="A193" s="53"/>
+      <c r="B193" s="53"/>
       <c r="C193" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="29"/>
-      <c r="B194" s="29"/>
+      <c r="A194" s="53"/>
+      <c r="B194" s="53"/>
       <c r="C194" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="30"/>
-      <c r="B195" s="30"/>
+      <c r="A195" s="54"/>
+      <c r="B195" s="54"/>
       <c r="C195" s="14" t="s">
         <v>80</v>
       </c>
@@ -2758,10 +2761,10 @@
       <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="37" t="s">
+      <c r="A197" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="B197" s="40" t="s">
+      <c r="B197" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C197" s="15" t="s">
@@ -2772,40 +2775,40 @@
       </c>
     </row>
     <row r="198" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="38"/>
-      <c r="B198" s="41"/>
+      <c r="A198" s="55"/>
+      <c r="B198" s="29"/>
       <c r="C198" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D198" s="5"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="38"/>
-      <c r="B199" s="41"/>
+      <c r="A199" s="55"/>
+      <c r="B199" s="29"/>
       <c r="C199" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D199" s="5"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="38"/>
-      <c r="B200" s="41"/>
+      <c r="A200" s="55"/>
+      <c r="B200" s="29"/>
       <c r="C200" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D200" s="5"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="38"/>
-      <c r="B201" s="41"/>
+      <c r="A201" s="55"/>
+      <c r="B201" s="29"/>
       <c r="C201" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D201" s="5"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="39"/>
-      <c r="B202" s="42"/>
+      <c r="A202" s="56"/>
+      <c r="B202" s="30"/>
       <c r="C202" s="14" t="s">
         <v>80</v>
       </c>
@@ -2821,7 +2824,7 @@
       <c r="A204" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B204" s="40" t="s">
+      <c r="B204" s="28" t="s">
         <v>69</v>
       </c>
       <c r="C204" s="15" t="s">
@@ -2833,7 +2836,7 @@
     </row>
     <row r="205" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A205" s="32"/>
-      <c r="B205" s="41"/>
+      <c r="B205" s="29"/>
       <c r="C205" s="13" t="s">
         <v>76</v>
       </c>
@@ -2841,7 +2844,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="32"/>
-      <c r="B206" s="41"/>
+      <c r="B206" s="29"/>
       <c r="C206" s="14" t="s">
         <v>109</v>
       </c>
@@ -2849,7 +2852,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="32"/>
-      <c r="B207" s="41"/>
+      <c r="B207" s="29"/>
       <c r="C207" s="14" t="s">
         <v>99</v>
       </c>
@@ -2857,7 +2860,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="33"/>
-      <c r="B208" s="42"/>
+      <c r="B208" s="30"/>
       <c r="C208" s="14" t="s">
         <v>100</v>
       </c>
@@ -2870,10 +2873,10 @@
       <c r="D209" s="3"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="28" t="s">
+      <c r="A210" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="B210" s="28" t="s">
+      <c r="B210" s="52" t="s">
         <v>139</v>
       </c>
       <c r="C210" s="14" t="s">
@@ -2884,32 +2887,32 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="29"/>
-      <c r="B211" s="29"/>
+      <c r="A211" s="53"/>
+      <c r="B211" s="53"/>
       <c r="C211" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D211" s="3"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="29"/>
-      <c r="B212" s="29"/>
+      <c r="A212" s="53"/>
+      <c r="B212" s="53"/>
       <c r="C212" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D212" s="3"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="29"/>
-      <c r="B213" s="29"/>
+      <c r="A213" s="53"/>
+      <c r="B213" s="53"/>
       <c r="C213" s="14" t="s">
         <v>140</v>
       </c>
       <c r="D213" s="3"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="30"/>
-      <c r="B214" s="30"/>
+      <c r="A214" s="54"/>
+      <c r="B214" s="54"/>
       <c r="C214" s="14" t="s">
         <v>119</v>
       </c>
@@ -2922,10 +2925,10 @@
       <c r="D215" s="3"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="28" t="s">
+      <c r="A216" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="B216" s="28" t="s">
+      <c r="B216" s="52" t="s">
         <v>142</v>
       </c>
       <c r="C216" s="14" t="s">
@@ -2936,32 +2939,32 @@
       </c>
     </row>
     <row r="217" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="29"/>
-      <c r="B217" s="29"/>
+      <c r="A217" s="53"/>
+      <c r="B217" s="53"/>
       <c r="C217" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D217" s="3"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="29"/>
-      <c r="B218" s="29"/>
+      <c r="A218" s="53"/>
+      <c r="B218" s="53"/>
       <c r="C218" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D218" s="3"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="29"/>
-      <c r="B219" s="29"/>
+      <c r="A219" s="53"/>
+      <c r="B219" s="53"/>
       <c r="C219" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D219" s="3"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="30"/>
-      <c r="B220" s="30"/>
+      <c r="A220" s="54"/>
+      <c r="B220" s="54"/>
       <c r="C220" s="14" t="s">
         <v>119</v>
       </c>
@@ -2977,7 +2980,7 @@
       <c r="A222" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B222" s="34" t="s">
+      <c r="B222" s="51" t="s">
         <v>71</v>
       </c>
       <c r="C222" s="3" t="s">
@@ -2989,15 +2992,15 @@
     </row>
     <row r="223" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A223" s="32"/>
-      <c r="B223" s="35"/>
+      <c r="B223" s="60"/>
       <c r="C223" s="5" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="D223" s="3"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="33"/>
-      <c r="B224" s="36"/>
+      <c r="B224" s="61"/>
       <c r="C224" s="25" t="s">
         <v>169</v>
       </c>
@@ -3005,32 +3008,38 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="B216:B220"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="B197:B202"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="A169:A175"/>
+    <mergeCell ref="B169:B175"/>
+    <mergeCell ref="A210:A214"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="B125:B129"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:B100"/>
     <mergeCell ref="A137:A141"/>
     <mergeCell ref="B137:B141"/>
     <mergeCell ref="A183:A188"/>
@@ -3047,38 +3056,32 @@
     <mergeCell ref="B155:B160"/>
     <mergeCell ref="A162:A167"/>
     <mergeCell ref="B162:B167"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="A169:A175"/>
-    <mergeCell ref="B169:B175"/>
-    <mergeCell ref="A210:A214"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="B125:B129"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="B216:B220"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="A197:A202"/>
-    <mergeCell ref="B197:B202"/>
-    <mergeCell ref="A204:A208"/>
-    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B53:B58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/XLDATA/Mars-QA TestCase-User Story1.xlsx
+++ b/XLDATA/Mars-QA TestCase-User Story1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IC Course\MarsQA\XLDATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A415F0-880D-4B65-87A2-89003CDCC54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F40DF4A-849E-4BA4-AE1A-A840ACD9DDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,10 +529,10 @@
     <t xml:space="preserve">      TC_036</t>
   </si>
   <si>
-    <t>3.Click the delete icon in the list.</t>
-  </si>
-  <si>
     <t>2.Enter the sign in credentials with valid Email and password.</t>
+  </si>
+  <si>
+    <t>3.Click the delete icon in the list</t>
   </si>
 </sst>
 </file>
@@ -737,6 +737,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -746,14 +782,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -763,73 +830,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="C223" sqref="C223"/>
+      <selection activeCell="C233" sqref="C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1084,10 +1084,10 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1098,32 +1098,32 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1136,10 +1136,10 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1150,32 +1150,32 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1188,10 +1188,10 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1202,32 +1202,32 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1240,10 +1240,10 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1254,32 +1254,32 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
@@ -1292,10 +1292,10 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1306,24 +1306,24 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1336,7 +1336,7 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="31" t="s">
@@ -1350,24 +1350,24 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="14" t="s">
         <v>29</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -1394,24 +1394,24 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="14" t="s">
         <v>29</v>
       </c>
@@ -1424,10 +1424,10 @@
       <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="50" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -1438,30 +1438,30 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
     </row>
@@ -1472,10 +1472,10 @@
       <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="47" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -1486,24 +1486,24 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
-      <c r="B49" s="37"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
-      <c r="B50" s="37"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="39"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="14" t="s">
         <v>47</v>
       </c>
@@ -1516,10 +1516,10 @@
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="40" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -1530,40 +1530,40 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="41"/>
       <c r="C56" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="29"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="30"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="3" t="s">
         <v>80</v>
       </c>
@@ -1576,10 +1576,10 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="59" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="14" t="s">
@@ -1590,40 +1590,40 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="35"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="35"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="60"/>
       <c r="C62" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="35"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="60"/>
       <c r="C63" s="14" t="s">
         <v>78</v>
       </c>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="35"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="60"/>
       <c r="C64" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="36"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="61"/>
       <c r="C65" s="14" t="s">
         <v>84</v>
       </c>
@@ -1636,10 +1636,10 @@
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="59" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -1650,40 +1650,40 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="35"/>
+      <c r="A68" s="48"/>
+      <c r="B68" s="60"/>
       <c r="C68" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="35"/>
+      <c r="A69" s="48"/>
+      <c r="B69" s="60"/>
       <c r="C69" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="35"/>
+      <c r="A70" s="48"/>
+      <c r="B70" s="60"/>
       <c r="C70" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="B71" s="35"/>
+      <c r="A71" s="48"/>
+      <c r="B71" s="60"/>
       <c r="C71" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="36"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="61"/>
       <c r="C72" s="3" t="s">
         <v>84</v>
       </c>
@@ -1699,7 +1699,7 @@
       <c r="A74" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="15" t="s">
@@ -1711,7 +1711,7 @@
     </row>
     <row r="75" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="32"/>
-      <c r="B75" s="29"/>
+      <c r="B75" s="41"/>
       <c r="C75" s="13" t="s">
         <v>76</v>
       </c>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
-      <c r="B76" s="29"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="14" t="s">
         <v>129</v>
       </c>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
-      <c r="B77" s="29"/>
+      <c r="B77" s="41"/>
       <c r="C77" s="14" t="s">
         <v>87</v>
       </c>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
-      <c r="B78" s="29"/>
+      <c r="B78" s="41"/>
       <c r="C78" s="14" t="s">
         <v>79</v>
       </c>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="33"/>
-      <c r="B79" s="30"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="14" t="s">
         <v>80</v>
       </c>
@@ -1756,10 +1756,10 @@
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="40" t="s">
         <v>75</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -1770,40 +1770,40 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
-      <c r="B82" s="29"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="41"/>
       <c r="C82" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
-      <c r="B83" s="29"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="41"/>
       <c r="C83" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
-      <c r="B84" s="29"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="41"/>
       <c r="C84" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
-      <c r="B85" s="29"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="41"/>
       <c r="C85" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
-      <c r="B86" s="30"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="14" t="s">
         <v>80</v>
       </c>
@@ -1816,10 +1816,10 @@
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="45" t="s">
+      <c r="A88" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="B88" s="28" t="s">
+      <c r="B88" s="40" t="s">
         <v>53</v>
       </c>
       <c r="C88" s="15" t="s">
@@ -1830,40 +1830,40 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
-      <c r="B89" s="29"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="41"/>
       <c r="C89" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
-      <c r="B90" s="29"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="41"/>
       <c r="C90" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
-      <c r="B91" s="29"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="41"/>
       <c r="C91" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
-      <c r="B92" s="29"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="41"/>
       <c r="C92" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
-      <c r="B93" s="30"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="14" t="s">
         <v>80</v>
       </c>
@@ -1876,10 +1876,10 @@
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="45" t="s">
+      <c r="A95" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="40" t="s">
         <v>55</v>
       </c>
       <c r="C95" s="15" t="s">
@@ -1890,40 +1890,40 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
-      <c r="B96" s="29"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="41"/>
       <c r="C96" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
-      <c r="B97" s="29"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="41"/>
       <c r="C97" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="55"/>
-      <c r="B98" s="29"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="41"/>
       <c r="C98" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="55"/>
-      <c r="B99" s="29"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="41"/>
       <c r="C99" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
-      <c r="B100" s="30"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="42"/>
       <c r="C100" s="14" t="s">
         <v>80</v>
       </c>
@@ -1936,10 +1936,10 @@
       <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="52" t="s">
+      <c r="A102" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B102" s="38" t="s">
+      <c r="B102" s="47" t="s">
         <v>56</v>
       </c>
       <c r="C102" s="15" t="s">
@@ -1950,40 +1950,40 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="53"/>
-      <c r="B103" s="37"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="48"/>
       <c r="C103" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="53"/>
-      <c r="B104" s="37"/>
+      <c r="A104" s="29"/>
+      <c r="B104" s="48"/>
       <c r="C104" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="53"/>
-      <c r="B105" s="37"/>
+      <c r="A105" s="29"/>
+      <c r="B105" s="48"/>
       <c r="C105" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="53"/>
-      <c r="B106" s="37"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="48"/>
       <c r="C106" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="54"/>
-      <c r="B107" s="39"/>
+      <c r="A107" s="30"/>
+      <c r="B107" s="49"/>
       <c r="C107" s="14" t="s">
         <v>80</v>
       </c>
@@ -1996,10 +1996,10 @@
       <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="45" t="s">
+      <c r="A109" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B109" s="28" t="s">
+      <c r="B109" s="40" t="s">
         <v>57</v>
       </c>
       <c r="C109" s="15" t="s">
@@ -2010,40 +2010,40 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="55"/>
-      <c r="B110" s="29"/>
+      <c r="A110" s="38"/>
+      <c r="B110" s="41"/>
       <c r="C110" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="55"/>
-      <c r="B111" s="29"/>
+      <c r="A111" s="38"/>
+      <c r="B111" s="41"/>
       <c r="C111" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D111" s="3"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="55"/>
-      <c r="B112" s="29"/>
+      <c r="A112" s="38"/>
+      <c r="B112" s="41"/>
       <c r="C112" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D112" s="3"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="55"/>
-      <c r="B113" s="29"/>
+      <c r="A113" s="38"/>
+      <c r="B113" s="41"/>
       <c r="C113" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D113" s="3"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="56"/>
-      <c r="B114" s="30"/>
+      <c r="A114" s="39"/>
+      <c r="B114" s="42"/>
       <c r="C114" s="14" t="s">
         <v>80</v>
       </c>
@@ -2058,10 +2058,10 @@
       <c r="D115" s="3"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="52" t="s">
+      <c r="A116" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B116" s="52" t="s">
+      <c r="B116" s="28" t="s">
         <v>96</v>
       </c>
       <c r="C116" s="14" t="s">
@@ -2072,8 +2072,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="54"/>
-      <c r="B117" s="54"/>
+      <c r="A117" s="30"/>
+      <c r="B117" s="30"/>
       <c r="C117" s="13" t="s">
         <v>76</v>
       </c>
@@ -2089,7 +2089,7 @@
       <c r="A119" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B119" s="40" t="s">
+      <c r="B119" s="50" t="s">
         <v>112</v>
       </c>
       <c r="C119" s="15" t="s">
@@ -2101,7 +2101,7 @@
     </row>
     <row r="120" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="32"/>
-      <c r="B120" s="41"/>
+      <c r="B120" s="51"/>
       <c r="C120" s="13" t="s">
         <v>76</v>
       </c>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="32"/>
-      <c r="B121" s="41"/>
+      <c r="B121" s="51"/>
       <c r="C121" s="14" t="s">
         <v>110</v>
       </c>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="32"/>
-      <c r="B122" s="41"/>
+      <c r="B122" s="51"/>
       <c r="C122" s="14" t="s">
         <v>111</v>
       </c>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="33"/>
-      <c r="B123" s="57"/>
+      <c r="B123" s="52"/>
       <c r="C123" s="14" t="s">
         <v>100</v>
       </c>
@@ -2138,10 +2138,10 @@
       <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="52" t="s">
+      <c r="A125" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B125" s="38" t="s">
+      <c r="B125" s="47" t="s">
         <v>113</v>
       </c>
       <c r="C125" s="15" t="s">
@@ -2152,32 +2152,32 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="53"/>
-      <c r="B126" s="37"/>
+      <c r="A126" s="29"/>
+      <c r="B126" s="48"/>
       <c r="C126" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D126" s="3"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="53"/>
-      <c r="B127" s="37"/>
+      <c r="A127" s="29"/>
+      <c r="B127" s="48"/>
       <c r="C127" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="53"/>
-      <c r="B128" s="37"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="48"/>
       <c r="C128" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="54"/>
-      <c r="B129" s="39"/>
+      <c r="A129" s="30"/>
+      <c r="B129" s="49"/>
       <c r="C129" s="14" t="s">
         <v>100</v>
       </c>
@@ -2190,10 +2190,10 @@
       <c r="D130" s="3"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="52" t="s">
+      <c r="A131" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B131" s="52" t="s">
+      <c r="B131" s="28" t="s">
         <v>117</v>
       </c>
       <c r="C131" s="14" t="s">
@@ -2204,32 +2204,32 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="53"/>
-      <c r="B132" s="53"/>
+      <c r="A132" s="29"/>
+      <c r="B132" s="29"/>
       <c r="C132" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D132" s="3"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="53"/>
-      <c r="B133" s="53"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="29"/>
       <c r="C133" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D133" s="3"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="53"/>
-      <c r="B134" s="53"/>
+      <c r="A134" s="29"/>
+      <c r="B134" s="29"/>
       <c r="C134" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D134" s="3"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="54"/>
-      <c r="B135" s="54"/>
+      <c r="A135" s="30"/>
+      <c r="B135" s="30"/>
       <c r="C135" s="14" t="s">
         <v>119</v>
       </c>
@@ -2242,10 +2242,10 @@
       <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="52" t="s">
+      <c r="A137" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="B137" s="52" t="s">
+      <c r="B137" s="28" t="s">
         <v>121</v>
       </c>
       <c r="C137" s="14" t="s">
@@ -2256,32 +2256,32 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="53"/>
-      <c r="B138" s="53"/>
+      <c r="A138" s="29"/>
+      <c r="B138" s="29"/>
       <c r="C138" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="53"/>
-      <c r="B139" s="53"/>
+      <c r="A139" s="29"/>
+      <c r="B139" s="29"/>
       <c r="C139" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D139" s="3"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="53"/>
-      <c r="B140" s="53"/>
+      <c r="A140" s="29"/>
+      <c r="B140" s="29"/>
       <c r="C140" s="14" t="s">
         <v>122</v>
       </c>
       <c r="D140" s="3"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="54"/>
-      <c r="B141" s="54"/>
+      <c r="A141" s="30"/>
+      <c r="B141" s="30"/>
       <c r="C141" s="14" t="s">
         <v>119</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="A143" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B143" s="28" t="s">
+      <c r="B143" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C143" s="15" t="s">
@@ -2309,7 +2309,7 @@
     </row>
     <row r="144" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A144" s="32"/>
-      <c r="B144" s="29"/>
+      <c r="B144" s="41"/>
       <c r="C144" s="16" t="s">
         <v>76</v>
       </c>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="33"/>
-      <c r="B145" s="30"/>
+      <c r="B145" s="42"/>
       <c r="C145" s="15" t="s">
         <v>126</v>
       </c>
@@ -2333,7 +2333,7 @@
       <c r="A147" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B147" s="40" t="s">
+      <c r="B147" s="50" t="s">
         <v>127</v>
       </c>
       <c r="C147" s="15" t="s">
@@ -2345,7 +2345,7 @@
     </row>
     <row r="148" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A148" s="32"/>
-      <c r="B148" s="41"/>
+      <c r="B148" s="51"/>
       <c r="C148" s="16" t="s">
         <v>76</v>
       </c>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="33"/>
-      <c r="B149" s="57"/>
+      <c r="B149" s="52"/>
       <c r="C149" s="15" t="s">
         <v>128</v>
       </c>
@@ -2369,7 +2369,7 @@
       <c r="A151" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B151" s="40" t="s">
+      <c r="B151" s="50" t="s">
         <v>130</v>
       </c>
       <c r="C151" s="15" t="s">
@@ -2381,7 +2381,7 @@
     </row>
     <row r="152" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A152" s="32"/>
-      <c r="B152" s="41"/>
+      <c r="B152" s="51"/>
       <c r="C152" s="16" t="s">
         <v>76</v>
       </c>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="33"/>
-      <c r="B153" s="57"/>
+      <c r="B153" s="52"/>
       <c r="C153" s="15" t="s">
         <v>131</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="45" t="s">
+      <c r="A155" s="37" t="s">
         <v>150</v>
       </c>
       <c r="B155" s="31" t="s">
@@ -2416,7 +2416,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="55"/>
+      <c r="A156" s="38"/>
       <c r="B156" s="32"/>
       <c r="C156" s="13" t="s">
         <v>76</v>
@@ -2424,7 +2424,7 @@
       <c r="D156" s="10"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="55"/>
+      <c r="A157" s="38"/>
       <c r="B157" s="32"/>
       <c r="C157" s="14" t="s">
         <v>135</v>
@@ -2432,7 +2432,7 @@
       <c r="D157" s="10"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="55"/>
+      <c r="A158" s="38"/>
       <c r="B158" s="32"/>
       <c r="C158" s="14" t="s">
         <v>101</v>
@@ -2440,7 +2440,7 @@
       <c r="D158" s="10"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="55"/>
+      <c r="A159" s="38"/>
       <c r="B159" s="32"/>
       <c r="C159" s="14" t="s">
         <v>102</v>
@@ -2448,7 +2448,7 @@
       <c r="D159" s="10"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="55"/>
+      <c r="A160" s="38"/>
       <c r="B160" s="32"/>
       <c r="C160" s="14" t="s">
         <v>103</v>
@@ -2462,10 +2462,10 @@
       <c r="D161" s="10"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="53" t="s">
+      <c r="A162" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B162" s="53" t="s">
+      <c r="B162" s="29" t="s">
         <v>136</v>
       </c>
       <c r="C162" s="14" t="s">
@@ -2476,40 +2476,40 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="53"/>
-      <c r="B163" s="53"/>
+      <c r="A163" s="29"/>
+      <c r="B163" s="29"/>
       <c r="C163" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D163" s="10"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="53"/>
-      <c r="B164" s="53"/>
+      <c r="A164" s="29"/>
+      <c r="B164" s="29"/>
       <c r="C164" s="14" t="s">
         <v>135</v>
       </c>
       <c r="D164" s="10"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="53"/>
-      <c r="B165" s="53"/>
+      <c r="A165" s="29"/>
+      <c r="B165" s="29"/>
       <c r="C165" s="14" t="s">
         <v>101</v>
       </c>
       <c r="D165" s="10"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="53"/>
-      <c r="B166" s="53"/>
+      <c r="A166" s="29"/>
+      <c r="B166" s="29"/>
       <c r="C166" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D166" s="10"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="53"/>
-      <c r="B167" s="53"/>
+      <c r="A167" s="29"/>
+      <c r="B167" s="29"/>
       <c r="C167" s="14" t="s">
         <v>137</v>
       </c>
@@ -2522,10 +2522,10 @@
       <c r="D168" s="10"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="45" t="s">
+      <c r="A169" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B169" s="28" t="s">
+      <c r="B169" s="40" t="s">
         <v>62</v>
       </c>
       <c r="C169" s="15" t="s">
@@ -2536,55 +2536,55 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="49"/>
-      <c r="B170" s="58"/>
+      <c r="A170" s="43"/>
+      <c r="B170" s="45"/>
       <c r="C170" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D170" s="3"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="49"/>
-      <c r="B171" s="58"/>
+      <c r="A171" s="43"/>
+      <c r="B171" s="45"/>
       <c r="C171" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D171" s="3"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="49"/>
-      <c r="B172" s="58"/>
+      <c r="A172" s="43"/>
+      <c r="B172" s="45"/>
       <c r="C172" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D172" s="3"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="49"/>
-      <c r="B173" s="58"/>
+      <c r="A173" s="43"/>
+      <c r="B173" s="45"/>
       <c r="C173" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D173" s="3"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="49"/>
-      <c r="B174" s="58"/>
+      <c r="A174" s="43"/>
+      <c r="B174" s="45"/>
       <c r="C174" s="24" t="s">
         <v>80</v>
       </c>
       <c r="D174" s="3"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="50"/>
-      <c r="B175" s="59"/>
+      <c r="A175" s="44"/>
+      <c r="B175" s="46"/>
       <c r="D175" s="3"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="45" t="s">
+      <c r="A176" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="B176" s="28" t="s">
+      <c r="B176" s="40" t="s">
         <v>64</v>
       </c>
       <c r="C176" s="14" t="s">
@@ -2595,40 +2595,40 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="55"/>
-      <c r="B177" s="29"/>
+      <c r="A177" s="38"/>
+      <c r="B177" s="41"/>
       <c r="C177" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="55"/>
-      <c r="B178" s="29"/>
+      <c r="A178" s="38"/>
+      <c r="B178" s="41"/>
       <c r="C178" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="55"/>
-      <c r="B179" s="29"/>
+      <c r="A179" s="38"/>
+      <c r="B179" s="41"/>
       <c r="C179" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="55"/>
-      <c r="B180" s="29"/>
+      <c r="A180" s="38"/>
+      <c r="B180" s="41"/>
       <c r="C180" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="56"/>
-      <c r="B181" s="30"/>
+      <c r="A181" s="39"/>
+      <c r="B181" s="42"/>
       <c r="C181" s="14" t="s">
         <v>80</v>
       </c>
@@ -2641,10 +2641,10 @@
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="45" t="s">
+      <c r="A183" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="B183" s="28" t="s">
+      <c r="B183" s="40" t="s">
         <v>65</v>
       </c>
       <c r="C183" s="15" t="s">
@@ -2655,40 +2655,40 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="55"/>
-      <c r="B184" s="29"/>
+      <c r="A184" s="38"/>
+      <c r="B184" s="41"/>
       <c r="C184" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="55"/>
-      <c r="B185" s="29"/>
+      <c r="A185" s="38"/>
+      <c r="B185" s="41"/>
       <c r="C185" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="55"/>
-      <c r="B186" s="29"/>
+      <c r="A186" s="38"/>
+      <c r="B186" s="41"/>
       <c r="C186" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="55"/>
-      <c r="B187" s="29"/>
+      <c r="A187" s="38"/>
+      <c r="B187" s="41"/>
       <c r="C187" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="56"/>
-      <c r="B188" s="30"/>
+      <c r="A188" s="39"/>
+      <c r="B188" s="42"/>
       <c r="C188" s="14" t="s">
         <v>80</v>
       </c>
@@ -2701,10 +2701,10 @@
       <c r="D189" s="5"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="52" t="s">
+      <c r="A190" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B190" s="52" t="s">
+      <c r="B190" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C190" s="15" t="s">
@@ -2715,40 +2715,40 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="53"/>
-      <c r="B191" s="53"/>
+      <c r="A191" s="29"/>
+      <c r="B191" s="29"/>
       <c r="C191" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D191" s="5"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="53"/>
-      <c r="B192" s="53"/>
+      <c r="A192" s="29"/>
+      <c r="B192" s="29"/>
       <c r="C192" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="53"/>
-      <c r="B193" s="53"/>
+      <c r="A193" s="29"/>
+      <c r="B193" s="29"/>
       <c r="C193" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="53"/>
-      <c r="B194" s="53"/>
+      <c r="A194" s="29"/>
+      <c r="B194" s="29"/>
       <c r="C194" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="54"/>
-      <c r="B195" s="54"/>
+      <c r="A195" s="30"/>
+      <c r="B195" s="30"/>
       <c r="C195" s="14" t="s">
         <v>80</v>
       </c>
@@ -2761,10 +2761,10 @@
       <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="45" t="s">
+      <c r="A197" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="B197" s="28" t="s">
+      <c r="B197" s="40" t="s">
         <v>68</v>
       </c>
       <c r="C197" s="15" t="s">
@@ -2775,40 +2775,40 @@
       </c>
     </row>
     <row r="198" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="55"/>
-      <c r="B198" s="29"/>
+      <c r="A198" s="38"/>
+      <c r="B198" s="41"/>
       <c r="C198" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D198" s="5"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="55"/>
-      <c r="B199" s="29"/>
+      <c r="A199" s="38"/>
+      <c r="B199" s="41"/>
       <c r="C199" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D199" s="5"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="55"/>
-      <c r="B200" s="29"/>
+      <c r="A200" s="38"/>
+      <c r="B200" s="41"/>
       <c r="C200" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D200" s="5"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="55"/>
-      <c r="B201" s="29"/>
+      <c r="A201" s="38"/>
+      <c r="B201" s="41"/>
       <c r="C201" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D201" s="5"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="56"/>
-      <c r="B202" s="30"/>
+      <c r="A202" s="39"/>
+      <c r="B202" s="42"/>
       <c r="C202" s="14" t="s">
         <v>80</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="A204" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B204" s="28" t="s">
+      <c r="B204" s="40" t="s">
         <v>69</v>
       </c>
       <c r="C204" s="15" t="s">
@@ -2836,7 +2836,7 @@
     </row>
     <row r="205" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A205" s="32"/>
-      <c r="B205" s="29"/>
+      <c r="B205" s="41"/>
       <c r="C205" s="13" t="s">
         <v>76</v>
       </c>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="32"/>
-      <c r="B206" s="29"/>
+      <c r="B206" s="41"/>
       <c r="C206" s="14" t="s">
         <v>109</v>
       </c>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="32"/>
-      <c r="B207" s="29"/>
+      <c r="B207" s="41"/>
       <c r="C207" s="14" t="s">
         <v>99</v>
       </c>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="33"/>
-      <c r="B208" s="30"/>
+      <c r="B208" s="42"/>
       <c r="C208" s="14" t="s">
         <v>100</v>
       </c>
@@ -2873,10 +2873,10 @@
       <c r="D209" s="3"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="52" t="s">
+      <c r="A210" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B210" s="52" t="s">
+      <c r="B210" s="28" t="s">
         <v>139</v>
       </c>
       <c r="C210" s="14" t="s">
@@ -2887,32 +2887,32 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="53"/>
-      <c r="B211" s="53"/>
+      <c r="A211" s="29"/>
+      <c r="B211" s="29"/>
       <c r="C211" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D211" s="3"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="53"/>
-      <c r="B212" s="53"/>
+      <c r="A212" s="29"/>
+      <c r="B212" s="29"/>
       <c r="C212" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D212" s="3"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="53"/>
-      <c r="B213" s="53"/>
+      <c r="A213" s="29"/>
+      <c r="B213" s="29"/>
       <c r="C213" s="14" t="s">
         <v>140</v>
       </c>
       <c r="D213" s="3"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="54"/>
-      <c r="B214" s="54"/>
+      <c r="A214" s="30"/>
+      <c r="B214" s="30"/>
       <c r="C214" s="14" t="s">
         <v>119</v>
       </c>
@@ -2925,10 +2925,10 @@
       <c r="D215" s="3"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="52" t="s">
+      <c r="A216" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="B216" s="52" t="s">
+      <c r="B216" s="28" t="s">
         <v>142</v>
       </c>
       <c r="C216" s="14" t="s">
@@ -2939,32 +2939,32 @@
       </c>
     </row>
     <row r="217" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="53"/>
-      <c r="B217" s="53"/>
+      <c r="A217" s="29"/>
+      <c r="B217" s="29"/>
       <c r="C217" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D217" s="3"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="53"/>
-      <c r="B218" s="53"/>
+      <c r="A218" s="29"/>
+      <c r="B218" s="29"/>
       <c r="C218" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D218" s="3"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="53"/>
-      <c r="B219" s="53"/>
+      <c r="A219" s="29"/>
+      <c r="B219" s="29"/>
       <c r="C219" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D219" s="3"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="54"/>
-      <c r="B220" s="54"/>
+      <c r="A220" s="30"/>
+      <c r="B220" s="30"/>
       <c r="C220" s="14" t="s">
         <v>119</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="A222" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B222" s="51" t="s">
+      <c r="B222" s="34" t="s">
         <v>71</v>
       </c>
       <c r="C222" s="3" t="s">
@@ -2992,32 +2992,70 @@
     </row>
     <row r="223" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A223" s="32"/>
-      <c r="B223" s="60"/>
+      <c r="B223" s="35"/>
       <c r="C223" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D223" s="3"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="33"/>
-      <c r="B224" s="61"/>
+      <c r="B224" s="36"/>
       <c r="C224" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D224" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="B216:B220"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="A197:A202"/>
-    <mergeCell ref="B197:B202"/>
-    <mergeCell ref="A204:A208"/>
-    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="A151:A153"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="B155:B160"/>
+    <mergeCell ref="A162:A167"/>
+    <mergeCell ref="B162:B167"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:B100"/>
     <mergeCell ref="A169:A175"/>
     <mergeCell ref="B169:B175"/>
     <mergeCell ref="A210:A214"/>
@@ -3034,54 +3072,16 @@
     <mergeCell ref="B125:B129"/>
     <mergeCell ref="A131:A135"/>
     <mergeCell ref="B131:B135"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="B183:B188"/>
-    <mergeCell ref="A190:A195"/>
-    <mergeCell ref="B190:B195"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="A151:A153"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="B155:B160"/>
-    <mergeCell ref="A162:A167"/>
-    <mergeCell ref="B162:B167"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="B216:B220"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="B197:B202"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="B204:B208"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/XLDATA/Mars-QA TestCase-User Story1.xlsx
+++ b/XLDATA/Mars-QA TestCase-User Story1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IC Course\MarsQA\XLDATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F40DF4A-849E-4BA4-AE1A-A840ACD9DDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994CFAAF-B7EE-4D15-84E9-3009FF966828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,7 @@
     <t>2.Enter the sign in credentials with valid Email and password.</t>
   </si>
   <si>
-    <t>3.Click the delete icon in the list</t>
+    <t>3.Click the delete icon in the list.</t>
   </si>
 </sst>
 </file>
@@ -737,6 +737,70 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -746,90 +810,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="C233" sqref="C233"/>
+      <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1084,10 +1084,10 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="51" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1098,32 +1098,32 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1136,10 +1136,10 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1150,32 +1150,32 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1188,10 +1188,10 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1202,32 +1202,32 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1240,10 +1240,10 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="51" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1254,32 +1254,32 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
@@ -1292,10 +1292,10 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1306,24 +1306,24 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1336,7 +1336,7 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="31" t="s">
@@ -1350,24 +1350,24 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="14" t="s">
         <v>29</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="45" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -1394,24 +1394,24 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="55"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="14" t="s">
         <v>29</v>
       </c>
@@ -1424,10 +1424,10 @@
       <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="40" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -1438,30 +1438,30 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
-      <c r="B46" s="55"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
     </row>
@@ -1472,10 +1472,10 @@
       <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="38" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -1486,24 +1486,24 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
-      <c r="B49" s="48"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="48"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="49"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="14" t="s">
         <v>47</v>
       </c>
@@ -1516,10 +1516,10 @@
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="28" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -1530,40 +1530,40 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="41"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="41"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="41"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="41"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="42"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="3" t="s">
         <v>80</v>
       </c>
@@ -1576,10 +1576,10 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="34" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="14" t="s">
@@ -1590,40 +1590,40 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="B61" s="60"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="35"/>
       <c r="C61" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
-      <c r="B62" s="60"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="35"/>
       <c r="C62" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
-      <c r="B63" s="60"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="14" t="s">
         <v>78</v>
       </c>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
-      <c r="B64" s="60"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
-      <c r="B65" s="61"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="14" t="s">
         <v>84</v>
       </c>
@@ -1636,10 +1636,10 @@
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="48" t="s">
+      <c r="A67" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -1650,40 +1650,40 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
-      <c r="B68" s="60"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="35"/>
       <c r="C68" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
-      <c r="B69" s="60"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="35"/>
       <c r="C69" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
-      <c r="B70" s="60"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="35"/>
       <c r="C70" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
-      <c r="B71" s="60"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="48"/>
-      <c r="B72" s="61"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="3" t="s">
         <v>84</v>
       </c>
@@ -1699,7 +1699,7 @@
       <c r="A74" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="15" t="s">
@@ -1711,7 +1711,7 @@
     </row>
     <row r="75" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="32"/>
-      <c r="B75" s="41"/>
+      <c r="B75" s="29"/>
       <c r="C75" s="13" t="s">
         <v>76</v>
       </c>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
-      <c r="B76" s="41"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="14" t="s">
         <v>129</v>
       </c>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
-      <c r="B77" s="41"/>
+      <c r="B77" s="29"/>
       <c r="C77" s="14" t="s">
         <v>87</v>
       </c>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
-      <c r="B78" s="41"/>
+      <c r="B78" s="29"/>
       <c r="C78" s="14" t="s">
         <v>79</v>
       </c>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="33"/>
-      <c r="B79" s="42"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="14" t="s">
         <v>80</v>
       </c>
@@ -1756,10 +1756,10 @@
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="40" t="s">
+      <c r="B81" s="28" t="s">
         <v>75</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -1770,40 +1770,40 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
-      <c r="B82" s="41"/>
+      <c r="A82" s="55"/>
+      <c r="B82" s="29"/>
       <c r="C82" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
-      <c r="B83" s="41"/>
+      <c r="A83" s="55"/>
+      <c r="B83" s="29"/>
       <c r="C83" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
-      <c r="B84" s="41"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
-      <c r="B85" s="41"/>
+      <c r="A85" s="55"/>
+      <c r="B85" s="29"/>
       <c r="C85" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="14" t="s">
         <v>80</v>
       </c>
@@ -1816,10 +1816,10 @@
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="37" t="s">
+      <c r="A88" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B88" s="40" t="s">
+      <c r="B88" s="28" t="s">
         <v>53</v>
       </c>
       <c r="C88" s="15" t="s">
@@ -1830,40 +1830,40 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
-      <c r="B89" s="41"/>
+      <c r="A89" s="55"/>
+      <c r="B89" s="29"/>
       <c r="C89" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="38"/>
-      <c r="B90" s="41"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="29"/>
       <c r="C90" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="38"/>
-      <c r="B91" s="41"/>
+      <c r="A91" s="55"/>
+      <c r="B91" s="29"/>
       <c r="C91" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="38"/>
-      <c r="B92" s="41"/>
+      <c r="A92" s="55"/>
+      <c r="B92" s="29"/>
       <c r="C92" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
-      <c r="B93" s="42"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="14" t="s">
         <v>80</v>
       </c>
@@ -1876,10 +1876,10 @@
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="37" t="s">
+      <c r="A95" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B95" s="40" t="s">
+      <c r="B95" s="28" t="s">
         <v>55</v>
       </c>
       <c r="C95" s="15" t="s">
@@ -1890,40 +1890,40 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
-      <c r="B96" s="41"/>
+      <c r="A96" s="55"/>
+      <c r="B96" s="29"/>
       <c r="C96" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
-      <c r="B97" s="41"/>
+      <c r="A97" s="55"/>
+      <c r="B97" s="29"/>
       <c r="C97" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="38"/>
-      <c r="B98" s="41"/>
+      <c r="A98" s="55"/>
+      <c r="B98" s="29"/>
       <c r="C98" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="38"/>
-      <c r="B99" s="41"/>
+      <c r="A99" s="55"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="39"/>
-      <c r="B100" s="42"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="30"/>
       <c r="C100" s="14" t="s">
         <v>80</v>
       </c>
@@ -1936,10 +1936,10 @@
       <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B102" s="47" t="s">
+      <c r="B102" s="38" t="s">
         <v>56</v>
       </c>
       <c r="C102" s="15" t="s">
@@ -1950,40 +1950,40 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="29"/>
-      <c r="B103" s="48"/>
+      <c r="A103" s="53"/>
+      <c r="B103" s="37"/>
       <c r="C103" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
-      <c r="B104" s="48"/>
+      <c r="A104" s="53"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="29"/>
-      <c r="B105" s="48"/>
+      <c r="A105" s="53"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="29"/>
-      <c r="B106" s="48"/>
+      <c r="A106" s="53"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="B107" s="49"/>
+      <c r="A107" s="54"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="14" t="s">
         <v>80</v>
       </c>
@@ -1996,10 +1996,10 @@
       <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="37" t="s">
+      <c r="A109" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="B109" s="40" t="s">
+      <c r="B109" s="28" t="s">
         <v>57</v>
       </c>
       <c r="C109" s="15" t="s">
@@ -2010,40 +2010,40 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="38"/>
-      <c r="B110" s="41"/>
+      <c r="A110" s="55"/>
+      <c r="B110" s="29"/>
       <c r="C110" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="38"/>
-      <c r="B111" s="41"/>
+      <c r="A111" s="55"/>
+      <c r="B111" s="29"/>
       <c r="C111" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D111" s="3"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="38"/>
-      <c r="B112" s="41"/>
+      <c r="A112" s="55"/>
+      <c r="B112" s="29"/>
       <c r="C112" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D112" s="3"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="38"/>
-      <c r="B113" s="41"/>
+      <c r="A113" s="55"/>
+      <c r="B113" s="29"/>
       <c r="C113" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D113" s="3"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="39"/>
-      <c r="B114" s="42"/>
+      <c r="A114" s="56"/>
+      <c r="B114" s="30"/>
       <c r="C114" s="14" t="s">
         <v>80</v>
       </c>
@@ -2058,10 +2058,10 @@
       <c r="D115" s="3"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="B116" s="28" t="s">
+      <c r="B116" s="52" t="s">
         <v>96</v>
       </c>
       <c r="C116" s="14" t="s">
@@ -2072,8 +2072,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="30"/>
-      <c r="B117" s="30"/>
+      <c r="A117" s="54"/>
+      <c r="B117" s="54"/>
       <c r="C117" s="13" t="s">
         <v>76</v>
       </c>
@@ -2089,7 +2089,7 @@
       <c r="A119" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B119" s="50" t="s">
+      <c r="B119" s="40" t="s">
         <v>112</v>
       </c>
       <c r="C119" s="15" t="s">
@@ -2101,7 +2101,7 @@
     </row>
     <row r="120" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="32"/>
-      <c r="B120" s="51"/>
+      <c r="B120" s="41"/>
       <c r="C120" s="13" t="s">
         <v>76</v>
       </c>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="32"/>
-      <c r="B121" s="51"/>
+      <c r="B121" s="41"/>
       <c r="C121" s="14" t="s">
         <v>110</v>
       </c>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="32"/>
-      <c r="B122" s="51"/>
+      <c r="B122" s="41"/>
       <c r="C122" s="14" t="s">
         <v>111</v>
       </c>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="33"/>
-      <c r="B123" s="52"/>
+      <c r="B123" s="57"/>
       <c r="C123" s="14" t="s">
         <v>100</v>
       </c>
@@ -2138,10 +2138,10 @@
       <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="28" t="s">
+      <c r="A125" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="B125" s="47" t="s">
+      <c r="B125" s="38" t="s">
         <v>113</v>
       </c>
       <c r="C125" s="15" t="s">
@@ -2152,32 +2152,32 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
-      <c r="B126" s="48"/>
+      <c r="A126" s="53"/>
+      <c r="B126" s="37"/>
       <c r="C126" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D126" s="3"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
-      <c r="B127" s="48"/>
+      <c r="A127" s="53"/>
+      <c r="B127" s="37"/>
       <c r="C127" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
-      <c r="B128" s="48"/>
+      <c r="A128" s="53"/>
+      <c r="B128" s="37"/>
       <c r="C128" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="30"/>
-      <c r="B129" s="49"/>
+      <c r="A129" s="54"/>
+      <c r="B129" s="39"/>
       <c r="C129" s="14" t="s">
         <v>100</v>
       </c>
@@ -2190,10 +2190,10 @@
       <c r="D130" s="3"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="28" t="s">
+      <c r="A131" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="B131" s="28" t="s">
+      <c r="B131" s="52" t="s">
         <v>117</v>
       </c>
       <c r="C131" s="14" t="s">
@@ -2204,32 +2204,32 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="29"/>
-      <c r="B132" s="29"/>
+      <c r="A132" s="53"/>
+      <c r="B132" s="53"/>
       <c r="C132" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D132" s="3"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="29"/>
-      <c r="B133" s="29"/>
+      <c r="A133" s="53"/>
+      <c r="B133" s="53"/>
       <c r="C133" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D133" s="3"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="29"/>
-      <c r="B134" s="29"/>
+      <c r="A134" s="53"/>
+      <c r="B134" s="53"/>
       <c r="C134" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D134" s="3"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="30"/>
-      <c r="B135" s="30"/>
+      <c r="A135" s="54"/>
+      <c r="B135" s="54"/>
       <c r="C135" s="14" t="s">
         <v>119</v>
       </c>
@@ -2242,10 +2242,10 @@
       <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="28" t="s">
+      <c r="A137" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="B137" s="28" t="s">
+      <c r="B137" s="52" t="s">
         <v>121</v>
       </c>
       <c r="C137" s="14" t="s">
@@ -2256,32 +2256,32 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="29"/>
-      <c r="B138" s="29"/>
+      <c r="A138" s="53"/>
+      <c r="B138" s="53"/>
       <c r="C138" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="29"/>
-      <c r="B139" s="29"/>
+      <c r="A139" s="53"/>
+      <c r="B139" s="53"/>
       <c r="C139" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D139" s="3"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="29"/>
-      <c r="B140" s="29"/>
+      <c r="A140" s="53"/>
+      <c r="B140" s="53"/>
       <c r="C140" s="14" t="s">
         <v>122</v>
       </c>
       <c r="D140" s="3"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="30"/>
-      <c r="B141" s="30"/>
+      <c r="A141" s="54"/>
+      <c r="B141" s="54"/>
       <c r="C141" s="14" t="s">
         <v>119</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="A143" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B143" s="40" t="s">
+      <c r="B143" s="28" t="s">
         <v>59</v>
       </c>
       <c r="C143" s="15" t="s">
@@ -2309,7 +2309,7 @@
     </row>
     <row r="144" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A144" s="32"/>
-      <c r="B144" s="41"/>
+      <c r="B144" s="29"/>
       <c r="C144" s="16" t="s">
         <v>76</v>
       </c>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="33"/>
-      <c r="B145" s="42"/>
+      <c r="B145" s="30"/>
       <c r="C145" s="15" t="s">
         <v>126</v>
       </c>
@@ -2333,7 +2333,7 @@
       <c r="A147" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B147" s="50" t="s">
+      <c r="B147" s="40" t="s">
         <v>127</v>
       </c>
       <c r="C147" s="15" t="s">
@@ -2345,7 +2345,7 @@
     </row>
     <row r="148" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A148" s="32"/>
-      <c r="B148" s="51"/>
+      <c r="B148" s="41"/>
       <c r="C148" s="16" t="s">
         <v>76</v>
       </c>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="33"/>
-      <c r="B149" s="52"/>
+      <c r="B149" s="57"/>
       <c r="C149" s="15" t="s">
         <v>128</v>
       </c>
@@ -2369,7 +2369,7 @@
       <c r="A151" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B151" s="50" t="s">
+      <c r="B151" s="40" t="s">
         <v>130</v>
       </c>
       <c r="C151" s="15" t="s">
@@ -2381,7 +2381,7 @@
     </row>
     <row r="152" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A152" s="32"/>
-      <c r="B152" s="51"/>
+      <c r="B152" s="41"/>
       <c r="C152" s="16" t="s">
         <v>76</v>
       </c>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="33"/>
-      <c r="B153" s="52"/>
+      <c r="B153" s="57"/>
       <c r="C153" s="15" t="s">
         <v>131</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="37" t="s">
+      <c r="A155" s="45" t="s">
         <v>150</v>
       </c>
       <c r="B155" s="31" t="s">
@@ -2416,7 +2416,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="38"/>
+      <c r="A156" s="55"/>
       <c r="B156" s="32"/>
       <c r="C156" s="13" t="s">
         <v>76</v>
@@ -2424,7 +2424,7 @@
       <c r="D156" s="10"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="38"/>
+      <c r="A157" s="55"/>
       <c r="B157" s="32"/>
       <c r="C157" s="14" t="s">
         <v>135</v>
@@ -2432,7 +2432,7 @@
       <c r="D157" s="10"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="38"/>
+      <c r="A158" s="55"/>
       <c r="B158" s="32"/>
       <c r="C158" s="14" t="s">
         <v>101</v>
@@ -2440,7 +2440,7 @@
       <c r="D158" s="10"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="38"/>
+      <c r="A159" s="55"/>
       <c r="B159" s="32"/>
       <c r="C159" s="14" t="s">
         <v>102</v>
@@ -2448,7 +2448,7 @@
       <c r="D159" s="10"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="38"/>
+      <c r="A160" s="55"/>
       <c r="B160" s="32"/>
       <c r="C160" s="14" t="s">
         <v>103</v>
@@ -2462,10 +2462,10 @@
       <c r="D161" s="10"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="29" t="s">
+      <c r="A162" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B162" s="29" t="s">
+      <c r="B162" s="53" t="s">
         <v>136</v>
       </c>
       <c r="C162" s="14" t="s">
@@ -2476,40 +2476,40 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="29"/>
-      <c r="B163" s="29"/>
+      <c r="A163" s="53"/>
+      <c r="B163" s="53"/>
       <c r="C163" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D163" s="10"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="29"/>
-      <c r="B164" s="29"/>
+      <c r="A164" s="53"/>
+      <c r="B164" s="53"/>
       <c r="C164" s="14" t="s">
         <v>135</v>
       </c>
       <c r="D164" s="10"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="29"/>
-      <c r="B165" s="29"/>
+      <c r="A165" s="53"/>
+      <c r="B165" s="53"/>
       <c r="C165" s="14" t="s">
         <v>101</v>
       </c>
       <c r="D165" s="10"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="29"/>
-      <c r="B166" s="29"/>
+      <c r="A166" s="53"/>
+      <c r="B166" s="53"/>
       <c r="C166" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D166" s="10"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="29"/>
-      <c r="B167" s="29"/>
+      <c r="A167" s="53"/>
+      <c r="B167" s="53"/>
       <c r="C167" s="14" t="s">
         <v>137</v>
       </c>
@@ -2522,10 +2522,10 @@
       <c r="D168" s="10"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="37" t="s">
+      <c r="A169" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="B169" s="40" t="s">
+      <c r="B169" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C169" s="15" t="s">
@@ -2536,55 +2536,55 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="43"/>
-      <c r="B170" s="45"/>
+      <c r="A170" s="49"/>
+      <c r="B170" s="58"/>
       <c r="C170" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D170" s="3"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="43"/>
-      <c r="B171" s="45"/>
+      <c r="A171" s="49"/>
+      <c r="B171" s="58"/>
       <c r="C171" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D171" s="3"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="43"/>
-      <c r="B172" s="45"/>
+      <c r="A172" s="49"/>
+      <c r="B172" s="58"/>
       <c r="C172" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D172" s="3"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="43"/>
-      <c r="B173" s="45"/>
+      <c r="A173" s="49"/>
+      <c r="B173" s="58"/>
       <c r="C173" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D173" s="3"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="43"/>
-      <c r="B174" s="45"/>
+      <c r="A174" s="49"/>
+      <c r="B174" s="58"/>
       <c r="C174" s="24" t="s">
         <v>80</v>
       </c>
       <c r="D174" s="3"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="44"/>
-      <c r="B175" s="46"/>
+      <c r="A175" s="50"/>
+      <c r="B175" s="59"/>
       <c r="D175" s="3"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="37" t="s">
+      <c r="A176" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="B176" s="40" t="s">
+      <c r="B176" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C176" s="14" t="s">
@@ -2595,40 +2595,40 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="38"/>
-      <c r="B177" s="41"/>
+      <c r="A177" s="55"/>
+      <c r="B177" s="29"/>
       <c r="C177" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="38"/>
-      <c r="B178" s="41"/>
+      <c r="A178" s="55"/>
+      <c r="B178" s="29"/>
       <c r="C178" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="38"/>
-      <c r="B179" s="41"/>
+      <c r="A179" s="55"/>
+      <c r="B179" s="29"/>
       <c r="C179" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="38"/>
-      <c r="B180" s="41"/>
+      <c r="A180" s="55"/>
+      <c r="B180" s="29"/>
       <c r="C180" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="39"/>
-      <c r="B181" s="42"/>
+      <c r="A181" s="56"/>
+      <c r="B181" s="30"/>
       <c r="C181" s="14" t="s">
         <v>80</v>
       </c>
@@ -2641,10 +2641,10 @@
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="37" t="s">
+      <c r="A183" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B183" s="40" t="s">
+      <c r="B183" s="28" t="s">
         <v>65</v>
       </c>
       <c r="C183" s="15" t="s">
@@ -2655,40 +2655,40 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="38"/>
-      <c r="B184" s="41"/>
+      <c r="A184" s="55"/>
+      <c r="B184" s="29"/>
       <c r="C184" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="38"/>
-      <c r="B185" s="41"/>
+      <c r="A185" s="55"/>
+      <c r="B185" s="29"/>
       <c r="C185" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="38"/>
-      <c r="B186" s="41"/>
+      <c r="A186" s="55"/>
+      <c r="B186" s="29"/>
       <c r="C186" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="38"/>
-      <c r="B187" s="41"/>
+      <c r="A187" s="55"/>
+      <c r="B187" s="29"/>
       <c r="C187" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="39"/>
-      <c r="B188" s="42"/>
+      <c r="A188" s="56"/>
+      <c r="B188" s="30"/>
       <c r="C188" s="14" t="s">
         <v>80</v>
       </c>
@@ -2701,10 +2701,10 @@
       <c r="D189" s="5"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="28" t="s">
+      <c r="A190" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="B190" s="28" t="s">
+      <c r="B190" s="52" t="s">
         <v>67</v>
       </c>
       <c r="C190" s="15" t="s">
@@ -2715,40 +2715,40 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="29"/>
-      <c r="B191" s="29"/>
+      <c r="A191" s="53"/>
+      <c r="B191" s="53"/>
       <c r="C191" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D191" s="5"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="29"/>
-      <c r="B192" s="29"/>
+      <c r="A192" s="53"/>
+      <c r="B192" s="53"/>
       <c r="C192" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="29"/>
-      <c r="B193" s="29"/>
+      <c r="A193" s="53"/>
+      <c r="B193" s="53"/>
       <c r="C193" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="29"/>
-      <c r="B194" s="29"/>
+      <c r="A194" s="53"/>
+      <c r="B194" s="53"/>
       <c r="C194" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="30"/>
-      <c r="B195" s="30"/>
+      <c r="A195" s="54"/>
+      <c r="B195" s="54"/>
       <c r="C195" s="14" t="s">
         <v>80</v>
       </c>
@@ -2761,10 +2761,10 @@
       <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="37" t="s">
+      <c r="A197" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="B197" s="40" t="s">
+      <c r="B197" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C197" s="15" t="s">
@@ -2775,40 +2775,40 @@
       </c>
     </row>
     <row r="198" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="38"/>
-      <c r="B198" s="41"/>
+      <c r="A198" s="55"/>
+      <c r="B198" s="29"/>
       <c r="C198" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D198" s="5"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="38"/>
-      <c r="B199" s="41"/>
+      <c r="A199" s="55"/>
+      <c r="B199" s="29"/>
       <c r="C199" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D199" s="5"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="38"/>
-      <c r="B200" s="41"/>
+      <c r="A200" s="55"/>
+      <c r="B200" s="29"/>
       <c r="C200" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D200" s="5"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="38"/>
-      <c r="B201" s="41"/>
+      <c r="A201" s="55"/>
+      <c r="B201" s="29"/>
       <c r="C201" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D201" s="5"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="39"/>
-      <c r="B202" s="42"/>
+      <c r="A202" s="56"/>
+      <c r="B202" s="30"/>
       <c r="C202" s="14" t="s">
         <v>80</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="A204" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B204" s="40" t="s">
+      <c r="B204" s="28" t="s">
         <v>69</v>
       </c>
       <c r="C204" s="15" t="s">
@@ -2836,7 +2836,7 @@
     </row>
     <row r="205" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A205" s="32"/>
-      <c r="B205" s="41"/>
+      <c r="B205" s="29"/>
       <c r="C205" s="13" t="s">
         <v>76</v>
       </c>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="32"/>
-      <c r="B206" s="41"/>
+      <c r="B206" s="29"/>
       <c r="C206" s="14" t="s">
         <v>109</v>
       </c>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="32"/>
-      <c r="B207" s="41"/>
+      <c r="B207" s="29"/>
       <c r="C207" s="14" t="s">
         <v>99</v>
       </c>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="33"/>
-      <c r="B208" s="42"/>
+      <c r="B208" s="30"/>
       <c r="C208" s="14" t="s">
         <v>100</v>
       </c>
@@ -2873,10 +2873,10 @@
       <c r="D209" s="3"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="28" t="s">
+      <c r="A210" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="B210" s="28" t="s">
+      <c r="B210" s="52" t="s">
         <v>139</v>
       </c>
       <c r="C210" s="14" t="s">
@@ -2887,32 +2887,32 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="29"/>
-      <c r="B211" s="29"/>
+      <c r="A211" s="53"/>
+      <c r="B211" s="53"/>
       <c r="C211" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D211" s="3"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="29"/>
-      <c r="B212" s="29"/>
+      <c r="A212" s="53"/>
+      <c r="B212" s="53"/>
       <c r="C212" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D212" s="3"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="29"/>
-      <c r="B213" s="29"/>
+      <c r="A213" s="53"/>
+      <c r="B213" s="53"/>
       <c r="C213" s="14" t="s">
         <v>140</v>
       </c>
       <c r="D213" s="3"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="30"/>
-      <c r="B214" s="30"/>
+      <c r="A214" s="54"/>
+      <c r="B214" s="54"/>
       <c r="C214" s="14" t="s">
         <v>119</v>
       </c>
@@ -2925,10 +2925,10 @@
       <c r="D215" s="3"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="28" t="s">
+      <c r="A216" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="B216" s="28" t="s">
+      <c r="B216" s="52" t="s">
         <v>142</v>
       </c>
       <c r="C216" s="14" t="s">
@@ -2939,32 +2939,32 @@
       </c>
     </row>
     <row r="217" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="29"/>
-      <c r="B217" s="29"/>
+      <c r="A217" s="53"/>
+      <c r="B217" s="53"/>
       <c r="C217" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D217" s="3"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="29"/>
-      <c r="B218" s="29"/>
+      <c r="A218" s="53"/>
+      <c r="B218" s="53"/>
       <c r="C218" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D218" s="3"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="29"/>
-      <c r="B219" s="29"/>
+      <c r="A219" s="53"/>
+      <c r="B219" s="53"/>
       <c r="C219" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D219" s="3"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="30"/>
-      <c r="B220" s="30"/>
+      <c r="A220" s="54"/>
+      <c r="B220" s="54"/>
       <c r="C220" s="14" t="s">
         <v>119</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="A222" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B222" s="34" t="s">
+      <c r="B222" s="51" t="s">
         <v>71</v>
       </c>
       <c r="C222" s="3" t="s">
@@ -2992,7 +2992,7 @@
     </row>
     <row r="223" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A223" s="32"/>
-      <c r="B223" s="35"/>
+      <c r="B223" s="60"/>
       <c r="C223" s="5" t="s">
         <v>169</v>
       </c>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="33"/>
-      <c r="B224" s="36"/>
+      <c r="B224" s="61"/>
       <c r="C224" s="25" t="s">
         <v>170</v>
       </c>
@@ -3008,32 +3008,38 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="B216:B220"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="B197:B202"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="A169:A175"/>
+    <mergeCell ref="B169:B175"/>
+    <mergeCell ref="A210:A214"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="B125:B129"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:B100"/>
     <mergeCell ref="A137:A141"/>
     <mergeCell ref="B137:B141"/>
     <mergeCell ref="A183:A188"/>
@@ -3050,38 +3056,32 @@
     <mergeCell ref="B155:B160"/>
     <mergeCell ref="A162:A167"/>
     <mergeCell ref="B162:B167"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="A169:A175"/>
-    <mergeCell ref="B169:B175"/>
-    <mergeCell ref="A210:A214"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="B125:B129"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="B216:B220"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="A197:A202"/>
-    <mergeCell ref="B197:B202"/>
-    <mergeCell ref="A204:A208"/>
-    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B53:B58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/XLDATA/Mars-QA TestCase-User Story1.xlsx
+++ b/XLDATA/Mars-QA TestCase-User Story1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IC Course\MarsQA\XLDATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994CFAAF-B7EE-4D15-84E9-3009FF966828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32F571E-C871-4CBC-A2C6-960AB1DCCB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,7 @@
     <t>2.Enter the sign in credentials with valid Email and password.</t>
   </si>
   <si>
-    <t>3.Click the delete icon in the list.</t>
+    <t>3.Click the delete icon in the list</t>
   </si>
 </sst>
 </file>
@@ -737,6 +737,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -746,14 +782,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -763,73 +830,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="C228" sqref="C228"/>
+      <selection activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1084,10 +1084,10 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1098,32 +1098,32 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1136,10 +1136,10 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1150,32 +1150,32 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1188,10 +1188,10 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1202,32 +1202,32 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1240,10 +1240,10 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1254,32 +1254,32 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
@@ -1292,10 +1292,10 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1306,24 +1306,24 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1336,7 +1336,7 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="31" t="s">
@@ -1350,24 +1350,24 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="14" t="s">
         <v>29</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -1394,24 +1394,24 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="14" t="s">
         <v>29</v>
       </c>
@@ -1424,10 +1424,10 @@
       <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="50" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -1438,30 +1438,30 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
     </row>
@@ -1472,10 +1472,10 @@
       <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="47" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -1486,24 +1486,24 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
-      <c r="B49" s="37"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
-      <c r="B50" s="37"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="39"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="14" t="s">
         <v>47</v>
       </c>
@@ -1516,10 +1516,10 @@
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="40" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -1530,40 +1530,40 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="41"/>
       <c r="C56" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="29"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="30"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="3" t="s">
         <v>80</v>
       </c>
@@ -1576,10 +1576,10 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="59" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="14" t="s">
@@ -1590,40 +1590,40 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="35"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="35"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="60"/>
       <c r="C62" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="35"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="60"/>
       <c r="C63" s="14" t="s">
         <v>78</v>
       </c>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="35"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="60"/>
       <c r="C64" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="36"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="61"/>
       <c r="C65" s="14" t="s">
         <v>84</v>
       </c>
@@ -1636,10 +1636,10 @@
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="59" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -1650,40 +1650,40 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="35"/>
+      <c r="A68" s="48"/>
+      <c r="B68" s="60"/>
       <c r="C68" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="35"/>
+      <c r="A69" s="48"/>
+      <c r="B69" s="60"/>
       <c r="C69" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="35"/>
+      <c r="A70" s="48"/>
+      <c r="B70" s="60"/>
       <c r="C70" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="B71" s="35"/>
+      <c r="A71" s="48"/>
+      <c r="B71" s="60"/>
       <c r="C71" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="36"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="61"/>
       <c r="C72" s="3" t="s">
         <v>84</v>
       </c>
@@ -1699,7 +1699,7 @@
       <c r="A74" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="15" t="s">
@@ -1711,7 +1711,7 @@
     </row>
     <row r="75" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="32"/>
-      <c r="B75" s="29"/>
+      <c r="B75" s="41"/>
       <c r="C75" s="13" t="s">
         <v>76</v>
       </c>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
-      <c r="B76" s="29"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="14" t="s">
         <v>129</v>
       </c>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
-      <c r="B77" s="29"/>
+      <c r="B77" s="41"/>
       <c r="C77" s="14" t="s">
         <v>87</v>
       </c>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
-      <c r="B78" s="29"/>
+      <c r="B78" s="41"/>
       <c r="C78" s="14" t="s">
         <v>79</v>
       </c>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="33"/>
-      <c r="B79" s="30"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="14" t="s">
         <v>80</v>
       </c>
@@ -1756,10 +1756,10 @@
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="40" t="s">
         <v>75</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -1770,40 +1770,40 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
-      <c r="B82" s="29"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="41"/>
       <c r="C82" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
-      <c r="B83" s="29"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="41"/>
       <c r="C83" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
-      <c r="B84" s="29"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="41"/>
       <c r="C84" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
-      <c r="B85" s="29"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="41"/>
       <c r="C85" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
-      <c r="B86" s="30"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="14" t="s">
         <v>80</v>
       </c>
@@ -1816,10 +1816,10 @@
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="45" t="s">
+      <c r="A88" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="B88" s="28" t="s">
+      <c r="B88" s="40" t="s">
         <v>53</v>
       </c>
       <c r="C88" s="15" t="s">
@@ -1830,40 +1830,40 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
-      <c r="B89" s="29"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="41"/>
       <c r="C89" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
-      <c r="B90" s="29"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="41"/>
       <c r="C90" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
-      <c r="B91" s="29"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="41"/>
       <c r="C91" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
-      <c r="B92" s="29"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="41"/>
       <c r="C92" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
-      <c r="B93" s="30"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="14" t="s">
         <v>80</v>
       </c>
@@ -1876,10 +1876,10 @@
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="45" t="s">
+      <c r="A95" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="40" t="s">
         <v>55</v>
       </c>
       <c r="C95" s="15" t="s">
@@ -1890,40 +1890,40 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
-      <c r="B96" s="29"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="41"/>
       <c r="C96" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
-      <c r="B97" s="29"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="41"/>
       <c r="C97" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="55"/>
-      <c r="B98" s="29"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="41"/>
       <c r="C98" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="55"/>
-      <c r="B99" s="29"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="41"/>
       <c r="C99" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
-      <c r="B100" s="30"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="42"/>
       <c r="C100" s="14" t="s">
         <v>80</v>
       </c>
@@ -1936,10 +1936,10 @@
       <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="52" t="s">
+      <c r="A102" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B102" s="38" t="s">
+      <c r="B102" s="47" t="s">
         <v>56</v>
       </c>
       <c r="C102" s="15" t="s">
@@ -1950,40 +1950,40 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="53"/>
-      <c r="B103" s="37"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="48"/>
       <c r="C103" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="53"/>
-      <c r="B104" s="37"/>
+      <c r="A104" s="29"/>
+      <c r="B104" s="48"/>
       <c r="C104" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="53"/>
-      <c r="B105" s="37"/>
+      <c r="A105" s="29"/>
+      <c r="B105" s="48"/>
       <c r="C105" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="53"/>
-      <c r="B106" s="37"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="48"/>
       <c r="C106" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="54"/>
-      <c r="B107" s="39"/>
+      <c r="A107" s="30"/>
+      <c r="B107" s="49"/>
       <c r="C107" s="14" t="s">
         <v>80</v>
       </c>
@@ -1996,10 +1996,10 @@
       <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="45" t="s">
+      <c r="A109" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B109" s="28" t="s">
+      <c r="B109" s="40" t="s">
         <v>57</v>
       </c>
       <c r="C109" s="15" t="s">
@@ -2010,40 +2010,40 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="55"/>
-      <c r="B110" s="29"/>
+      <c r="A110" s="38"/>
+      <c r="B110" s="41"/>
       <c r="C110" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="55"/>
-      <c r="B111" s="29"/>
+      <c r="A111" s="38"/>
+      <c r="B111" s="41"/>
       <c r="C111" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D111" s="3"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="55"/>
-      <c r="B112" s="29"/>
+      <c r="A112" s="38"/>
+      <c r="B112" s="41"/>
       <c r="C112" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D112" s="3"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="55"/>
-      <c r="B113" s="29"/>
+      <c r="A113" s="38"/>
+      <c r="B113" s="41"/>
       <c r="C113" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D113" s="3"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="56"/>
-      <c r="B114" s="30"/>
+      <c r="A114" s="39"/>
+      <c r="B114" s="42"/>
       <c r="C114" s="14" t="s">
         <v>80</v>
       </c>
@@ -2058,10 +2058,10 @@
       <c r="D115" s="3"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="52" t="s">
+      <c r="A116" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B116" s="52" t="s">
+      <c r="B116" s="28" t="s">
         <v>96</v>
       </c>
       <c r="C116" s="14" t="s">
@@ -2072,8 +2072,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="54"/>
-      <c r="B117" s="54"/>
+      <c r="A117" s="30"/>
+      <c r="B117" s="30"/>
       <c r="C117" s="13" t="s">
         <v>76</v>
       </c>
@@ -2089,7 +2089,7 @@
       <c r="A119" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B119" s="40" t="s">
+      <c r="B119" s="50" t="s">
         <v>112</v>
       </c>
       <c r="C119" s="15" t="s">
@@ -2101,7 +2101,7 @@
     </row>
     <row r="120" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="32"/>
-      <c r="B120" s="41"/>
+      <c r="B120" s="51"/>
       <c r="C120" s="13" t="s">
         <v>76</v>
       </c>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="32"/>
-      <c r="B121" s="41"/>
+      <c r="B121" s="51"/>
       <c r="C121" s="14" t="s">
         <v>110</v>
       </c>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="32"/>
-      <c r="B122" s="41"/>
+      <c r="B122" s="51"/>
       <c r="C122" s="14" t="s">
         <v>111</v>
       </c>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="33"/>
-      <c r="B123" s="57"/>
+      <c r="B123" s="52"/>
       <c r="C123" s="14" t="s">
         <v>100</v>
       </c>
@@ -2138,10 +2138,10 @@
       <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="52" t="s">
+      <c r="A125" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B125" s="38" t="s">
+      <c r="B125" s="47" t="s">
         <v>113</v>
       </c>
       <c r="C125" s="15" t="s">
@@ -2152,32 +2152,32 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="53"/>
-      <c r="B126" s="37"/>
+      <c r="A126" s="29"/>
+      <c r="B126" s="48"/>
       <c r="C126" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D126" s="3"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="53"/>
-      <c r="B127" s="37"/>
+      <c r="A127" s="29"/>
+      <c r="B127" s="48"/>
       <c r="C127" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="53"/>
-      <c r="B128" s="37"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="48"/>
       <c r="C128" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="54"/>
-      <c r="B129" s="39"/>
+      <c r="A129" s="30"/>
+      <c r="B129" s="49"/>
       <c r="C129" s="14" t="s">
         <v>100</v>
       </c>
@@ -2190,10 +2190,10 @@
       <c r="D130" s="3"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="52" t="s">
+      <c r="A131" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B131" s="52" t="s">
+      <c r="B131" s="28" t="s">
         <v>117</v>
       </c>
       <c r="C131" s="14" t="s">
@@ -2204,32 +2204,32 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="53"/>
-      <c r="B132" s="53"/>
+      <c r="A132" s="29"/>
+      <c r="B132" s="29"/>
       <c r="C132" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D132" s="3"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="53"/>
-      <c r="B133" s="53"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="29"/>
       <c r="C133" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D133" s="3"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="53"/>
-      <c r="B134" s="53"/>
+      <c r="A134" s="29"/>
+      <c r="B134" s="29"/>
       <c r="C134" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D134" s="3"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="54"/>
-      <c r="B135" s="54"/>
+      <c r="A135" s="30"/>
+      <c r="B135" s="30"/>
       <c r="C135" s="14" t="s">
         <v>119</v>
       </c>
@@ -2242,10 +2242,10 @@
       <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="52" t="s">
+      <c r="A137" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="B137" s="52" t="s">
+      <c r="B137" s="28" t="s">
         <v>121</v>
       </c>
       <c r="C137" s="14" t="s">
@@ -2256,32 +2256,32 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="53"/>
-      <c r="B138" s="53"/>
+      <c r="A138" s="29"/>
+      <c r="B138" s="29"/>
       <c r="C138" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="53"/>
-      <c r="B139" s="53"/>
+      <c r="A139" s="29"/>
+      <c r="B139" s="29"/>
       <c r="C139" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D139" s="3"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="53"/>
-      <c r="B140" s="53"/>
+      <c r="A140" s="29"/>
+      <c r="B140" s="29"/>
       <c r="C140" s="14" t="s">
         <v>122</v>
       </c>
       <c r="D140" s="3"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="54"/>
-      <c r="B141" s="54"/>
+      <c r="A141" s="30"/>
+      <c r="B141" s="30"/>
       <c r="C141" s="14" t="s">
         <v>119</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="A143" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B143" s="28" t="s">
+      <c r="B143" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C143" s="15" t="s">
@@ -2309,7 +2309,7 @@
     </row>
     <row r="144" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A144" s="32"/>
-      <c r="B144" s="29"/>
+      <c r="B144" s="41"/>
       <c r="C144" s="16" t="s">
         <v>76</v>
       </c>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="33"/>
-      <c r="B145" s="30"/>
+      <c r="B145" s="42"/>
       <c r="C145" s="15" t="s">
         <v>126</v>
       </c>
@@ -2333,7 +2333,7 @@
       <c r="A147" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B147" s="40" t="s">
+      <c r="B147" s="50" t="s">
         <v>127</v>
       </c>
       <c r="C147" s="15" t="s">
@@ -2345,7 +2345,7 @@
     </row>
     <row r="148" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A148" s="32"/>
-      <c r="B148" s="41"/>
+      <c r="B148" s="51"/>
       <c r="C148" s="16" t="s">
         <v>76</v>
       </c>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="33"/>
-      <c r="B149" s="57"/>
+      <c r="B149" s="52"/>
       <c r="C149" s="15" t="s">
         <v>128</v>
       </c>
@@ -2369,7 +2369,7 @@
       <c r="A151" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B151" s="40" t="s">
+      <c r="B151" s="50" t="s">
         <v>130</v>
       </c>
       <c r="C151" s="15" t="s">
@@ -2381,7 +2381,7 @@
     </row>
     <row r="152" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A152" s="32"/>
-      <c r="B152" s="41"/>
+      <c r="B152" s="51"/>
       <c r="C152" s="16" t="s">
         <v>76</v>
       </c>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="33"/>
-      <c r="B153" s="57"/>
+      <c r="B153" s="52"/>
       <c r="C153" s="15" t="s">
         <v>131</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="45" t="s">
+      <c r="A155" s="37" t="s">
         <v>150</v>
       </c>
       <c r="B155" s="31" t="s">
@@ -2416,7 +2416,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="55"/>
+      <c r="A156" s="38"/>
       <c r="B156" s="32"/>
       <c r="C156" s="13" t="s">
         <v>76</v>
@@ -2424,7 +2424,7 @@
       <c r="D156" s="10"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="55"/>
+      <c r="A157" s="38"/>
       <c r="B157" s="32"/>
       <c r="C157" s="14" t="s">
         <v>135</v>
@@ -2432,7 +2432,7 @@
       <c r="D157" s="10"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="55"/>
+      <c r="A158" s="38"/>
       <c r="B158" s="32"/>
       <c r="C158" s="14" t="s">
         <v>101</v>
@@ -2440,7 +2440,7 @@
       <c r="D158" s="10"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="55"/>
+      <c r="A159" s="38"/>
       <c r="B159" s="32"/>
       <c r="C159" s="14" t="s">
         <v>102</v>
@@ -2448,7 +2448,7 @@
       <c r="D159" s="10"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="55"/>
+      <c r="A160" s="38"/>
       <c r="B160" s="32"/>
       <c r="C160" s="14" t="s">
         <v>103</v>
@@ -2462,10 +2462,10 @@
       <c r="D161" s="10"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="53" t="s">
+      <c r="A162" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B162" s="53" t="s">
+      <c r="B162" s="29" t="s">
         <v>136</v>
       </c>
       <c r="C162" s="14" t="s">
@@ -2476,40 +2476,40 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="53"/>
-      <c r="B163" s="53"/>
+      <c r="A163" s="29"/>
+      <c r="B163" s="29"/>
       <c r="C163" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D163" s="10"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="53"/>
-      <c r="B164" s="53"/>
+      <c r="A164" s="29"/>
+      <c r="B164" s="29"/>
       <c r="C164" s="14" t="s">
         <v>135</v>
       </c>
       <c r="D164" s="10"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="53"/>
-      <c r="B165" s="53"/>
+      <c r="A165" s="29"/>
+      <c r="B165" s="29"/>
       <c r="C165" s="14" t="s">
         <v>101</v>
       </c>
       <c r="D165" s="10"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="53"/>
-      <c r="B166" s="53"/>
+      <c r="A166" s="29"/>
+      <c r="B166" s="29"/>
       <c r="C166" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D166" s="10"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="53"/>
-      <c r="B167" s="53"/>
+      <c r="A167" s="29"/>
+      <c r="B167" s="29"/>
       <c r="C167" s="14" t="s">
         <v>137</v>
       </c>
@@ -2522,10 +2522,10 @@
       <c r="D168" s="10"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="45" t="s">
+      <c r="A169" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B169" s="28" t="s">
+      <c r="B169" s="40" t="s">
         <v>62</v>
       </c>
       <c r="C169" s="15" t="s">
@@ -2536,55 +2536,55 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="49"/>
-      <c r="B170" s="58"/>
+      <c r="A170" s="43"/>
+      <c r="B170" s="45"/>
       <c r="C170" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D170" s="3"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="49"/>
-      <c r="B171" s="58"/>
+      <c r="A171" s="43"/>
+      <c r="B171" s="45"/>
       <c r="C171" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D171" s="3"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="49"/>
-      <c r="B172" s="58"/>
+      <c r="A172" s="43"/>
+      <c r="B172" s="45"/>
       <c r="C172" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D172" s="3"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="49"/>
-      <c r="B173" s="58"/>
+      <c r="A173" s="43"/>
+      <c r="B173" s="45"/>
       <c r="C173" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D173" s="3"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="49"/>
-      <c r="B174" s="58"/>
+      <c r="A174" s="43"/>
+      <c r="B174" s="45"/>
       <c r="C174" s="24" t="s">
         <v>80</v>
       </c>
       <c r="D174" s="3"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="50"/>
-      <c r="B175" s="59"/>
+      <c r="A175" s="44"/>
+      <c r="B175" s="46"/>
       <c r="D175" s="3"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="45" t="s">
+      <c r="A176" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="B176" s="28" t="s">
+      <c r="B176" s="40" t="s">
         <v>64</v>
       </c>
       <c r="C176" s="14" t="s">
@@ -2595,40 +2595,40 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="55"/>
-      <c r="B177" s="29"/>
+      <c r="A177" s="38"/>
+      <c r="B177" s="41"/>
       <c r="C177" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="55"/>
-      <c r="B178" s="29"/>
+      <c r="A178" s="38"/>
+      <c r="B178" s="41"/>
       <c r="C178" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="55"/>
-      <c r="B179" s="29"/>
+      <c r="A179" s="38"/>
+      <c r="B179" s="41"/>
       <c r="C179" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="55"/>
-      <c r="B180" s="29"/>
+      <c r="A180" s="38"/>
+      <c r="B180" s="41"/>
       <c r="C180" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="56"/>
-      <c r="B181" s="30"/>
+      <c r="A181" s="39"/>
+      <c r="B181" s="42"/>
       <c r="C181" s="14" t="s">
         <v>80</v>
       </c>
@@ -2641,10 +2641,10 @@
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="45" t="s">
+      <c r="A183" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="B183" s="28" t="s">
+      <c r="B183" s="40" t="s">
         <v>65</v>
       </c>
       <c r="C183" s="15" t="s">
@@ -2655,40 +2655,40 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="55"/>
-      <c r="B184" s="29"/>
+      <c r="A184" s="38"/>
+      <c r="B184" s="41"/>
       <c r="C184" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="55"/>
-      <c r="B185" s="29"/>
+      <c r="A185" s="38"/>
+      <c r="B185" s="41"/>
       <c r="C185" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="55"/>
-      <c r="B186" s="29"/>
+      <c r="A186" s="38"/>
+      <c r="B186" s="41"/>
       <c r="C186" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="55"/>
-      <c r="B187" s="29"/>
+      <c r="A187" s="38"/>
+      <c r="B187" s="41"/>
       <c r="C187" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="56"/>
-      <c r="B188" s="30"/>
+      <c r="A188" s="39"/>
+      <c r="B188" s="42"/>
       <c r="C188" s="14" t="s">
         <v>80</v>
       </c>
@@ -2701,10 +2701,10 @@
       <c r="D189" s="5"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="52" t="s">
+      <c r="A190" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B190" s="52" t="s">
+      <c r="B190" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C190" s="15" t="s">
@@ -2715,40 +2715,40 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="53"/>
-      <c r="B191" s="53"/>
+      <c r="A191" s="29"/>
+      <c r="B191" s="29"/>
       <c r="C191" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D191" s="5"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="53"/>
-      <c r="B192" s="53"/>
+      <c r="A192" s="29"/>
+      <c r="B192" s="29"/>
       <c r="C192" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="53"/>
-      <c r="B193" s="53"/>
+      <c r="A193" s="29"/>
+      <c r="B193" s="29"/>
       <c r="C193" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="53"/>
-      <c r="B194" s="53"/>
+      <c r="A194" s="29"/>
+      <c r="B194" s="29"/>
       <c r="C194" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="54"/>
-      <c r="B195" s="54"/>
+      <c r="A195" s="30"/>
+      <c r="B195" s="30"/>
       <c r="C195" s="14" t="s">
         <v>80</v>
       </c>
@@ -2761,10 +2761,10 @@
       <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="45" t="s">
+      <c r="A197" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="B197" s="28" t="s">
+      <c r="B197" s="40" t="s">
         <v>68</v>
       </c>
       <c r="C197" s="15" t="s">
@@ -2775,40 +2775,40 @@
       </c>
     </row>
     <row r="198" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="55"/>
-      <c r="B198" s="29"/>
+      <c r="A198" s="38"/>
+      <c r="B198" s="41"/>
       <c r="C198" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D198" s="5"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="55"/>
-      <c r="B199" s="29"/>
+      <c r="A199" s="38"/>
+      <c r="B199" s="41"/>
       <c r="C199" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D199" s="5"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="55"/>
-      <c r="B200" s="29"/>
+      <c r="A200" s="38"/>
+      <c r="B200" s="41"/>
       <c r="C200" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D200" s="5"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="55"/>
-      <c r="B201" s="29"/>
+      <c r="A201" s="38"/>
+      <c r="B201" s="41"/>
       <c r="C201" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D201" s="5"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="56"/>
-      <c r="B202" s="30"/>
+      <c r="A202" s="39"/>
+      <c r="B202" s="42"/>
       <c r="C202" s="14" t="s">
         <v>80</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="A204" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B204" s="28" t="s">
+      <c r="B204" s="40" t="s">
         <v>69</v>
       </c>
       <c r="C204" s="15" t="s">
@@ -2836,7 +2836,7 @@
     </row>
     <row r="205" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A205" s="32"/>
-      <c r="B205" s="29"/>
+      <c r="B205" s="41"/>
       <c r="C205" s="13" t="s">
         <v>76</v>
       </c>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="32"/>
-      <c r="B206" s="29"/>
+      <c r="B206" s="41"/>
       <c r="C206" s="14" t="s">
         <v>109</v>
       </c>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="32"/>
-      <c r="B207" s="29"/>
+      <c r="B207" s="41"/>
       <c r="C207" s="14" t="s">
         <v>99</v>
       </c>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="33"/>
-      <c r="B208" s="30"/>
+      <c r="B208" s="42"/>
       <c r="C208" s="14" t="s">
         <v>100</v>
       </c>
@@ -2873,10 +2873,10 @@
       <c r="D209" s="3"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="52" t="s">
+      <c r="A210" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B210" s="52" t="s">
+      <c r="B210" s="28" t="s">
         <v>139</v>
       </c>
       <c r="C210" s="14" t="s">
@@ -2887,32 +2887,32 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="53"/>
-      <c r="B211" s="53"/>
+      <c r="A211" s="29"/>
+      <c r="B211" s="29"/>
       <c r="C211" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D211" s="3"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="53"/>
-      <c r="B212" s="53"/>
+      <c r="A212" s="29"/>
+      <c r="B212" s="29"/>
       <c r="C212" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D212" s="3"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="53"/>
-      <c r="B213" s="53"/>
+      <c r="A213" s="29"/>
+      <c r="B213" s="29"/>
       <c r="C213" s="14" t="s">
         <v>140</v>
       </c>
       <c r="D213" s="3"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="54"/>
-      <c r="B214" s="54"/>
+      <c r="A214" s="30"/>
+      <c r="B214" s="30"/>
       <c r="C214" s="14" t="s">
         <v>119</v>
       </c>
@@ -2925,10 +2925,10 @@
       <c r="D215" s="3"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="52" t="s">
+      <c r="A216" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="B216" s="52" t="s">
+      <c r="B216" s="28" t="s">
         <v>142</v>
       </c>
       <c r="C216" s="14" t="s">
@@ -2939,32 +2939,32 @@
       </c>
     </row>
     <row r="217" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="53"/>
-      <c r="B217" s="53"/>
+      <c r="A217" s="29"/>
+      <c r="B217" s="29"/>
       <c r="C217" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D217" s="3"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="53"/>
-      <c r="B218" s="53"/>
+      <c r="A218" s="29"/>
+      <c r="B218" s="29"/>
       <c r="C218" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D218" s="3"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="53"/>
-      <c r="B219" s="53"/>
+      <c r="A219" s="29"/>
+      <c r="B219" s="29"/>
       <c r="C219" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D219" s="3"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="54"/>
-      <c r="B220" s="54"/>
+      <c r="A220" s="30"/>
+      <c r="B220" s="30"/>
       <c r="C220" s="14" t="s">
         <v>119</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="A222" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B222" s="51" t="s">
+      <c r="B222" s="34" t="s">
         <v>71</v>
       </c>
       <c r="C222" s="3" t="s">
@@ -2992,7 +2992,7 @@
     </row>
     <row r="223" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A223" s="32"/>
-      <c r="B223" s="60"/>
+      <c r="B223" s="35"/>
       <c r="C223" s="5" t="s">
         <v>169</v>
       </c>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="33"/>
-      <c r="B224" s="61"/>
+      <c r="B224" s="36"/>
       <c r="C224" s="25" t="s">
         <v>170</v>
       </c>
@@ -3008,16 +3008,54 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="B216:B220"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="A197:A202"/>
-    <mergeCell ref="B197:B202"/>
-    <mergeCell ref="A204:A208"/>
-    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="A151:A153"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="B155:B160"/>
+    <mergeCell ref="A162:A167"/>
+    <mergeCell ref="B162:B167"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:B100"/>
     <mergeCell ref="A169:A175"/>
     <mergeCell ref="B169:B175"/>
     <mergeCell ref="A210:A214"/>
@@ -3034,54 +3072,16 @@
     <mergeCell ref="B125:B129"/>
     <mergeCell ref="A131:A135"/>
     <mergeCell ref="B131:B135"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="B183:B188"/>
-    <mergeCell ref="A190:A195"/>
-    <mergeCell ref="B190:B195"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="A151:A153"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="B155:B160"/>
-    <mergeCell ref="A162:A167"/>
-    <mergeCell ref="B162:B167"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="B216:B220"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="B197:B202"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="B204:B208"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/XLDATA/Mars-QA TestCase-User Story1.xlsx
+++ b/XLDATA/Mars-QA TestCase-User Story1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IC Course\MarsQA\XLDATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32F571E-C871-4CBC-A2C6-960AB1DCCB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE8B1DF-DFE7-4292-AA92-2F6FA1E7E87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,7 @@
     <t>2.Enter the sign in credentials with valid Email and password.</t>
   </si>
   <si>
-    <t>3.Click the delete icon in the list</t>
+    <t>3.Click the delete icon in the list.</t>
   </si>
 </sst>
 </file>
@@ -737,6 +737,70 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -746,90 +810,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="C232" sqref="C232"/>
+      <selection activeCell="C224" sqref="C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1084,10 +1084,10 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="51" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1098,32 +1098,32 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1136,10 +1136,10 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1150,32 +1150,32 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1188,10 +1188,10 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1202,32 +1202,32 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1240,10 +1240,10 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="51" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1254,32 +1254,32 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
@@ -1292,10 +1292,10 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1306,24 +1306,24 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1336,7 +1336,7 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="31" t="s">
@@ -1350,24 +1350,24 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="14" t="s">
         <v>29</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="45" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -1394,24 +1394,24 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="55"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="14" t="s">
         <v>29</v>
       </c>
@@ -1424,10 +1424,10 @@
       <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="40" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -1438,30 +1438,30 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
-      <c r="B46" s="55"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
     </row>
@@ -1472,10 +1472,10 @@
       <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="38" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -1486,24 +1486,24 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
-      <c r="B49" s="48"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="48"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="49"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="14" t="s">
         <v>47</v>
       </c>
@@ -1516,10 +1516,10 @@
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="28" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -1530,40 +1530,40 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="41"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="41"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="41"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="41"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="42"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="3" t="s">
         <v>80</v>
       </c>
@@ -1576,10 +1576,10 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="34" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="14" t="s">
@@ -1590,40 +1590,40 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="B61" s="60"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="35"/>
       <c r="C61" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
-      <c r="B62" s="60"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="35"/>
       <c r="C62" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
-      <c r="B63" s="60"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="14" t="s">
         <v>78</v>
       </c>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
-      <c r="B64" s="60"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
-      <c r="B65" s="61"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="14" t="s">
         <v>84</v>
       </c>
@@ -1636,10 +1636,10 @@
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="48" t="s">
+      <c r="A67" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -1650,40 +1650,40 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
-      <c r="B68" s="60"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="35"/>
       <c r="C68" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
-      <c r="B69" s="60"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="35"/>
       <c r="C69" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
-      <c r="B70" s="60"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="35"/>
       <c r="C70" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
-      <c r="B71" s="60"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="48"/>
-      <c r="B72" s="61"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="3" t="s">
         <v>84</v>
       </c>
@@ -1699,7 +1699,7 @@
       <c r="A74" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="15" t="s">
@@ -1711,7 +1711,7 @@
     </row>
     <row r="75" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="32"/>
-      <c r="B75" s="41"/>
+      <c r="B75" s="29"/>
       <c r="C75" s="13" t="s">
         <v>76</v>
       </c>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
-      <c r="B76" s="41"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="14" t="s">
         <v>129</v>
       </c>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
-      <c r="B77" s="41"/>
+      <c r="B77" s="29"/>
       <c r="C77" s="14" t="s">
         <v>87</v>
       </c>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
-      <c r="B78" s="41"/>
+      <c r="B78" s="29"/>
       <c r="C78" s="14" t="s">
         <v>79</v>
       </c>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="33"/>
-      <c r="B79" s="42"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="14" t="s">
         <v>80</v>
       </c>
@@ -1756,10 +1756,10 @@
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="40" t="s">
+      <c r="B81" s="28" t="s">
         <v>75</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -1770,40 +1770,40 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
-      <c r="B82" s="41"/>
+      <c r="A82" s="55"/>
+      <c r="B82" s="29"/>
       <c r="C82" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
-      <c r="B83" s="41"/>
+      <c r="A83" s="55"/>
+      <c r="B83" s="29"/>
       <c r="C83" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
-      <c r="B84" s="41"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
-      <c r="B85" s="41"/>
+      <c r="A85" s="55"/>
+      <c r="B85" s="29"/>
       <c r="C85" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="14" t="s">
         <v>80</v>
       </c>
@@ -1816,10 +1816,10 @@
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="37" t="s">
+      <c r="A88" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B88" s="40" t="s">
+      <c r="B88" s="28" t="s">
         <v>53</v>
       </c>
       <c r="C88" s="15" t="s">
@@ -1830,40 +1830,40 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
-      <c r="B89" s="41"/>
+      <c r="A89" s="55"/>
+      <c r="B89" s="29"/>
       <c r="C89" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="38"/>
-      <c r="B90" s="41"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="29"/>
       <c r="C90" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="38"/>
-      <c r="B91" s="41"/>
+      <c r="A91" s="55"/>
+      <c r="B91" s="29"/>
       <c r="C91" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="38"/>
-      <c r="B92" s="41"/>
+      <c r="A92" s="55"/>
+      <c r="B92" s="29"/>
       <c r="C92" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
-      <c r="B93" s="42"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="14" t="s">
         <v>80</v>
       </c>
@@ -1876,10 +1876,10 @@
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="37" t="s">
+      <c r="A95" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B95" s="40" t="s">
+      <c r="B95" s="28" t="s">
         <v>55</v>
       </c>
       <c r="C95" s="15" t="s">
@@ -1890,40 +1890,40 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
-      <c r="B96" s="41"/>
+      <c r="A96" s="55"/>
+      <c r="B96" s="29"/>
       <c r="C96" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
-      <c r="B97" s="41"/>
+      <c r="A97" s="55"/>
+      <c r="B97" s="29"/>
       <c r="C97" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="38"/>
-      <c r="B98" s="41"/>
+      <c r="A98" s="55"/>
+      <c r="B98" s="29"/>
       <c r="C98" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="38"/>
-      <c r="B99" s="41"/>
+      <c r="A99" s="55"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="39"/>
-      <c r="B100" s="42"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="30"/>
       <c r="C100" s="14" t="s">
         <v>80</v>
       </c>
@@ -1936,10 +1936,10 @@
       <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B102" s="47" t="s">
+      <c r="B102" s="38" t="s">
         <v>56</v>
       </c>
       <c r="C102" s="15" t="s">
@@ -1950,40 +1950,40 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="29"/>
-      <c r="B103" s="48"/>
+      <c r="A103" s="53"/>
+      <c r="B103" s="37"/>
       <c r="C103" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
-      <c r="B104" s="48"/>
+      <c r="A104" s="53"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="29"/>
-      <c r="B105" s="48"/>
+      <c r="A105" s="53"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="29"/>
-      <c r="B106" s="48"/>
+      <c r="A106" s="53"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="B107" s="49"/>
+      <c r="A107" s="54"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="14" t="s">
         <v>80</v>
       </c>
@@ -1996,10 +1996,10 @@
       <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="37" t="s">
+      <c r="A109" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="B109" s="40" t="s">
+      <c r="B109" s="28" t="s">
         <v>57</v>
       </c>
       <c r="C109" s="15" t="s">
@@ -2010,40 +2010,40 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="38"/>
-      <c r="B110" s="41"/>
+      <c r="A110" s="55"/>
+      <c r="B110" s="29"/>
       <c r="C110" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="38"/>
-      <c r="B111" s="41"/>
+      <c r="A111" s="55"/>
+      <c r="B111" s="29"/>
       <c r="C111" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D111" s="3"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="38"/>
-      <c r="B112" s="41"/>
+      <c r="A112" s="55"/>
+      <c r="B112" s="29"/>
       <c r="C112" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D112" s="3"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="38"/>
-      <c r="B113" s="41"/>
+      <c r="A113" s="55"/>
+      <c r="B113" s="29"/>
       <c r="C113" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D113" s="3"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="39"/>
-      <c r="B114" s="42"/>
+      <c r="A114" s="56"/>
+      <c r="B114" s="30"/>
       <c r="C114" s="14" t="s">
         <v>80</v>
       </c>
@@ -2058,10 +2058,10 @@
       <c r="D115" s="3"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="B116" s="28" t="s">
+      <c r="B116" s="52" t="s">
         <v>96</v>
       </c>
       <c r="C116" s="14" t="s">
@@ -2072,8 +2072,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="30"/>
-      <c r="B117" s="30"/>
+      <c r="A117" s="54"/>
+      <c r="B117" s="54"/>
       <c r="C117" s="13" t="s">
         <v>76</v>
       </c>
@@ -2089,7 +2089,7 @@
       <c r="A119" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B119" s="50" t="s">
+      <c r="B119" s="40" t="s">
         <v>112</v>
       </c>
       <c r="C119" s="15" t="s">
@@ -2101,7 +2101,7 @@
     </row>
     <row r="120" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="32"/>
-      <c r="B120" s="51"/>
+      <c r="B120" s="41"/>
       <c r="C120" s="13" t="s">
         <v>76</v>
       </c>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="32"/>
-      <c r="B121" s="51"/>
+      <c r="B121" s="41"/>
       <c r="C121" s="14" t="s">
         <v>110</v>
       </c>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="32"/>
-      <c r="B122" s="51"/>
+      <c r="B122" s="41"/>
       <c r="C122" s="14" t="s">
         <v>111</v>
       </c>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="33"/>
-      <c r="B123" s="52"/>
+      <c r="B123" s="57"/>
       <c r="C123" s="14" t="s">
         <v>100</v>
       </c>
@@ -2138,10 +2138,10 @@
       <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="28" t="s">
+      <c r="A125" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="B125" s="47" t="s">
+      <c r="B125" s="38" t="s">
         <v>113</v>
       </c>
       <c r="C125" s="15" t="s">
@@ -2152,32 +2152,32 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
-      <c r="B126" s="48"/>
+      <c r="A126" s="53"/>
+      <c r="B126" s="37"/>
       <c r="C126" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D126" s="3"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
-      <c r="B127" s="48"/>
+      <c r="A127" s="53"/>
+      <c r="B127" s="37"/>
       <c r="C127" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
-      <c r="B128" s="48"/>
+      <c r="A128" s="53"/>
+      <c r="B128" s="37"/>
       <c r="C128" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="30"/>
-      <c r="B129" s="49"/>
+      <c r="A129" s="54"/>
+      <c r="B129" s="39"/>
       <c r="C129" s="14" t="s">
         <v>100</v>
       </c>
@@ -2190,10 +2190,10 @@
       <c r="D130" s="3"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="28" t="s">
+      <c r="A131" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="B131" s="28" t="s">
+      <c r="B131" s="52" t="s">
         <v>117</v>
       </c>
       <c r="C131" s="14" t="s">
@@ -2204,32 +2204,32 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="29"/>
-      <c r="B132" s="29"/>
+      <c r="A132" s="53"/>
+      <c r="B132" s="53"/>
       <c r="C132" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D132" s="3"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="29"/>
-      <c r="B133" s="29"/>
+      <c r="A133" s="53"/>
+      <c r="B133" s="53"/>
       <c r="C133" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D133" s="3"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="29"/>
-      <c r="B134" s="29"/>
+      <c r="A134" s="53"/>
+      <c r="B134" s="53"/>
       <c r="C134" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D134" s="3"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="30"/>
-      <c r="B135" s="30"/>
+      <c r="A135" s="54"/>
+      <c r="B135" s="54"/>
       <c r="C135" s="14" t="s">
         <v>119</v>
       </c>
@@ -2242,10 +2242,10 @@
       <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="28" t="s">
+      <c r="A137" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="B137" s="28" t="s">
+      <c r="B137" s="52" t="s">
         <v>121</v>
       </c>
       <c r="C137" s="14" t="s">
@@ -2256,32 +2256,32 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="29"/>
-      <c r="B138" s="29"/>
+      <c r="A138" s="53"/>
+      <c r="B138" s="53"/>
       <c r="C138" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="29"/>
-      <c r="B139" s="29"/>
+      <c r="A139" s="53"/>
+      <c r="B139" s="53"/>
       <c r="C139" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D139" s="3"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="29"/>
-      <c r="B140" s="29"/>
+      <c r="A140" s="53"/>
+      <c r="B140" s="53"/>
       <c r="C140" s="14" t="s">
         <v>122</v>
       </c>
       <c r="D140" s="3"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="30"/>
-      <c r="B141" s="30"/>
+      <c r="A141" s="54"/>
+      <c r="B141" s="54"/>
       <c r="C141" s="14" t="s">
         <v>119</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="A143" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B143" s="40" t="s">
+      <c r="B143" s="28" t="s">
         <v>59</v>
       </c>
       <c r="C143" s="15" t="s">
@@ -2309,7 +2309,7 @@
     </row>
     <row r="144" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A144" s="32"/>
-      <c r="B144" s="41"/>
+      <c r="B144" s="29"/>
       <c r="C144" s="16" t="s">
         <v>76</v>
       </c>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="33"/>
-      <c r="B145" s="42"/>
+      <c r="B145" s="30"/>
       <c r="C145" s="15" t="s">
         <v>126</v>
       </c>
@@ -2333,7 +2333,7 @@
       <c r="A147" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B147" s="50" t="s">
+      <c r="B147" s="40" t="s">
         <v>127</v>
       </c>
       <c r="C147" s="15" t="s">
@@ -2345,7 +2345,7 @@
     </row>
     <row r="148" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A148" s="32"/>
-      <c r="B148" s="51"/>
+      <c r="B148" s="41"/>
       <c r="C148" s="16" t="s">
         <v>76</v>
       </c>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="33"/>
-      <c r="B149" s="52"/>
+      <c r="B149" s="57"/>
       <c r="C149" s="15" t="s">
         <v>128</v>
       </c>
@@ -2369,7 +2369,7 @@
       <c r="A151" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B151" s="50" t="s">
+      <c r="B151" s="40" t="s">
         <v>130</v>
       </c>
       <c r="C151" s="15" t="s">
@@ -2381,7 +2381,7 @@
     </row>
     <row r="152" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A152" s="32"/>
-      <c r="B152" s="51"/>
+      <c r="B152" s="41"/>
       <c r="C152" s="16" t="s">
         <v>76</v>
       </c>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="33"/>
-      <c r="B153" s="52"/>
+      <c r="B153" s="57"/>
       <c r="C153" s="15" t="s">
         <v>131</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="37" t="s">
+      <c r="A155" s="45" t="s">
         <v>150</v>
       </c>
       <c r="B155" s="31" t="s">
@@ -2416,7 +2416,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="38"/>
+      <c r="A156" s="55"/>
       <c r="B156" s="32"/>
       <c r="C156" s="13" t="s">
         <v>76</v>
@@ -2424,7 +2424,7 @@
       <c r="D156" s="10"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="38"/>
+      <c r="A157" s="55"/>
       <c r="B157" s="32"/>
       <c r="C157" s="14" t="s">
         <v>135</v>
@@ -2432,7 +2432,7 @@
       <c r="D157" s="10"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="38"/>
+      <c r="A158" s="55"/>
       <c r="B158" s="32"/>
       <c r="C158" s="14" t="s">
         <v>101</v>
@@ -2440,7 +2440,7 @@
       <c r="D158" s="10"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="38"/>
+      <c r="A159" s="55"/>
       <c r="B159" s="32"/>
       <c r="C159" s="14" t="s">
         <v>102</v>
@@ -2448,7 +2448,7 @@
       <c r="D159" s="10"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="38"/>
+      <c r="A160" s="55"/>
       <c r="B160" s="32"/>
       <c r="C160" s="14" t="s">
         <v>103</v>
@@ -2462,10 +2462,10 @@
       <c r="D161" s="10"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="29" t="s">
+      <c r="A162" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B162" s="29" t="s">
+      <c r="B162" s="53" t="s">
         <v>136</v>
       </c>
       <c r="C162" s="14" t="s">
@@ -2476,40 +2476,40 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="29"/>
-      <c r="B163" s="29"/>
+      <c r="A163" s="53"/>
+      <c r="B163" s="53"/>
       <c r="C163" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D163" s="10"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="29"/>
-      <c r="B164" s="29"/>
+      <c r="A164" s="53"/>
+      <c r="B164" s="53"/>
       <c r="C164" s="14" t="s">
         <v>135</v>
       </c>
       <c r="D164" s="10"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="29"/>
-      <c r="B165" s="29"/>
+      <c r="A165" s="53"/>
+      <c r="B165" s="53"/>
       <c r="C165" s="14" t="s">
         <v>101</v>
       </c>
       <c r="D165" s="10"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="29"/>
-      <c r="B166" s="29"/>
+      <c r="A166" s="53"/>
+      <c r="B166" s="53"/>
       <c r="C166" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D166" s="10"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="29"/>
-      <c r="B167" s="29"/>
+      <c r="A167" s="53"/>
+      <c r="B167" s="53"/>
       <c r="C167" s="14" t="s">
         <v>137</v>
       </c>
@@ -2522,10 +2522,10 @@
       <c r="D168" s="10"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="37" t="s">
+      <c r="A169" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="B169" s="40" t="s">
+      <c r="B169" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C169" s="15" t="s">
@@ -2536,55 +2536,55 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="43"/>
-      <c r="B170" s="45"/>
+      <c r="A170" s="49"/>
+      <c r="B170" s="58"/>
       <c r="C170" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D170" s="3"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="43"/>
-      <c r="B171" s="45"/>
+      <c r="A171" s="49"/>
+      <c r="B171" s="58"/>
       <c r="C171" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D171" s="3"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="43"/>
-      <c r="B172" s="45"/>
+      <c r="A172" s="49"/>
+      <c r="B172" s="58"/>
       <c r="C172" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D172" s="3"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="43"/>
-      <c r="B173" s="45"/>
+      <c r="A173" s="49"/>
+      <c r="B173" s="58"/>
       <c r="C173" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D173" s="3"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="43"/>
-      <c r="B174" s="45"/>
+      <c r="A174" s="49"/>
+      <c r="B174" s="58"/>
       <c r="C174" s="24" t="s">
         <v>80</v>
       </c>
       <c r="D174" s="3"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="44"/>
-      <c r="B175" s="46"/>
+      <c r="A175" s="50"/>
+      <c r="B175" s="59"/>
       <c r="D175" s="3"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="37" t="s">
+      <c r="A176" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="B176" s="40" t="s">
+      <c r="B176" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C176" s="14" t="s">
@@ -2595,40 +2595,40 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="38"/>
-      <c r="B177" s="41"/>
+      <c r="A177" s="55"/>
+      <c r="B177" s="29"/>
       <c r="C177" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="38"/>
-      <c r="B178" s="41"/>
+      <c r="A178" s="55"/>
+      <c r="B178" s="29"/>
       <c r="C178" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="38"/>
-      <c r="B179" s="41"/>
+      <c r="A179" s="55"/>
+      <c r="B179" s="29"/>
       <c r="C179" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="38"/>
-      <c r="B180" s="41"/>
+      <c r="A180" s="55"/>
+      <c r="B180" s="29"/>
       <c r="C180" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="39"/>
-      <c r="B181" s="42"/>
+      <c r="A181" s="56"/>
+      <c r="B181" s="30"/>
       <c r="C181" s="14" t="s">
         <v>80</v>
       </c>
@@ -2641,10 +2641,10 @@
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="37" t="s">
+      <c r="A183" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B183" s="40" t="s">
+      <c r="B183" s="28" t="s">
         <v>65</v>
       </c>
       <c r="C183" s="15" t="s">
@@ -2655,40 +2655,40 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="38"/>
-      <c r="B184" s="41"/>
+      <c r="A184" s="55"/>
+      <c r="B184" s="29"/>
       <c r="C184" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="38"/>
-      <c r="B185" s="41"/>
+      <c r="A185" s="55"/>
+      <c r="B185" s="29"/>
       <c r="C185" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="38"/>
-      <c r="B186" s="41"/>
+      <c r="A186" s="55"/>
+      <c r="B186" s="29"/>
       <c r="C186" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="38"/>
-      <c r="B187" s="41"/>
+      <c r="A187" s="55"/>
+      <c r="B187" s="29"/>
       <c r="C187" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="39"/>
-      <c r="B188" s="42"/>
+      <c r="A188" s="56"/>
+      <c r="B188" s="30"/>
       <c r="C188" s="14" t="s">
         <v>80</v>
       </c>
@@ -2701,10 +2701,10 @@
       <c r="D189" s="5"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="28" t="s">
+      <c r="A190" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="B190" s="28" t="s">
+      <c r="B190" s="52" t="s">
         <v>67</v>
       </c>
       <c r="C190" s="15" t="s">
@@ -2715,40 +2715,40 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="29"/>
-      <c r="B191" s="29"/>
+      <c r="A191" s="53"/>
+      <c r="B191" s="53"/>
       <c r="C191" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D191" s="5"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="29"/>
-      <c r="B192" s="29"/>
+      <c r="A192" s="53"/>
+      <c r="B192" s="53"/>
       <c r="C192" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="29"/>
-      <c r="B193" s="29"/>
+      <c r="A193" s="53"/>
+      <c r="B193" s="53"/>
       <c r="C193" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="29"/>
-      <c r="B194" s="29"/>
+      <c r="A194" s="53"/>
+      <c r="B194" s="53"/>
       <c r="C194" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="30"/>
-      <c r="B195" s="30"/>
+      <c r="A195" s="54"/>
+      <c r="B195" s="54"/>
       <c r="C195" s="14" t="s">
         <v>80</v>
       </c>
@@ -2761,10 +2761,10 @@
       <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="37" t="s">
+      <c r="A197" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="B197" s="40" t="s">
+      <c r="B197" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C197" s="15" t="s">
@@ -2775,40 +2775,40 @@
       </c>
     </row>
     <row r="198" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="38"/>
-      <c r="B198" s="41"/>
+      <c r="A198" s="55"/>
+      <c r="B198" s="29"/>
       <c r="C198" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D198" s="5"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="38"/>
-      <c r="B199" s="41"/>
+      <c r="A199" s="55"/>
+      <c r="B199" s="29"/>
       <c r="C199" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D199" s="5"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="38"/>
-      <c r="B200" s="41"/>
+      <c r="A200" s="55"/>
+      <c r="B200" s="29"/>
       <c r="C200" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D200" s="5"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="38"/>
-      <c r="B201" s="41"/>
+      <c r="A201" s="55"/>
+      <c r="B201" s="29"/>
       <c r="C201" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D201" s="5"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="39"/>
-      <c r="B202" s="42"/>
+      <c r="A202" s="56"/>
+      <c r="B202" s="30"/>
       <c r="C202" s="14" t="s">
         <v>80</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="A204" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B204" s="40" t="s">
+      <c r="B204" s="28" t="s">
         <v>69</v>
       </c>
       <c r="C204" s="15" t="s">
@@ -2836,7 +2836,7 @@
     </row>
     <row r="205" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A205" s="32"/>
-      <c r="B205" s="41"/>
+      <c r="B205" s="29"/>
       <c r="C205" s="13" t="s">
         <v>76</v>
       </c>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="32"/>
-      <c r="B206" s="41"/>
+      <c r="B206" s="29"/>
       <c r="C206" s="14" t="s">
         <v>109</v>
       </c>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="32"/>
-      <c r="B207" s="41"/>
+      <c r="B207" s="29"/>
       <c r="C207" s="14" t="s">
         <v>99</v>
       </c>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="33"/>
-      <c r="B208" s="42"/>
+      <c r="B208" s="30"/>
       <c r="C208" s="14" t="s">
         <v>100</v>
       </c>
@@ -2873,10 +2873,10 @@
       <c r="D209" s="3"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="28" t="s">
+      <c r="A210" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="B210" s="28" t="s">
+      <c r="B210" s="52" t="s">
         <v>139</v>
       </c>
       <c r="C210" s="14" t="s">
@@ -2887,32 +2887,32 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="29"/>
-      <c r="B211" s="29"/>
+      <c r="A211" s="53"/>
+      <c r="B211" s="53"/>
       <c r="C211" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D211" s="3"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="29"/>
-      <c r="B212" s="29"/>
+      <c r="A212" s="53"/>
+      <c r="B212" s="53"/>
       <c r="C212" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D212" s="3"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="29"/>
-      <c r="B213" s="29"/>
+      <c r="A213" s="53"/>
+      <c r="B213" s="53"/>
       <c r="C213" s="14" t="s">
         <v>140</v>
       </c>
       <c r="D213" s="3"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="30"/>
-      <c r="B214" s="30"/>
+      <c r="A214" s="54"/>
+      <c r="B214" s="54"/>
       <c r="C214" s="14" t="s">
         <v>119</v>
       </c>
@@ -2925,10 +2925,10 @@
       <c r="D215" s="3"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="28" t="s">
+      <c r="A216" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="B216" s="28" t="s">
+      <c r="B216" s="52" t="s">
         <v>142</v>
       </c>
       <c r="C216" s="14" t="s">
@@ -2939,32 +2939,32 @@
       </c>
     </row>
     <row r="217" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="29"/>
-      <c r="B217" s="29"/>
+      <c r="A217" s="53"/>
+      <c r="B217" s="53"/>
       <c r="C217" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D217" s="3"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="29"/>
-      <c r="B218" s="29"/>
+      <c r="A218" s="53"/>
+      <c r="B218" s="53"/>
       <c r="C218" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D218" s="3"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="29"/>
-      <c r="B219" s="29"/>
+      <c r="A219" s="53"/>
+      <c r="B219" s="53"/>
       <c r="C219" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D219" s="3"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="30"/>
-      <c r="B220" s="30"/>
+      <c r="A220" s="54"/>
+      <c r="B220" s="54"/>
       <c r="C220" s="14" t="s">
         <v>119</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="A222" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B222" s="34" t="s">
+      <c r="B222" s="51" t="s">
         <v>71</v>
       </c>
       <c r="C222" s="3" t="s">
@@ -2992,7 +2992,7 @@
     </row>
     <row r="223" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A223" s="32"/>
-      <c r="B223" s="35"/>
+      <c r="B223" s="60"/>
       <c r="C223" s="5" t="s">
         <v>169</v>
       </c>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="33"/>
-      <c r="B224" s="36"/>
+      <c r="B224" s="61"/>
       <c r="C224" s="25" t="s">
         <v>170</v>
       </c>
@@ -3008,32 +3008,38 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="B216:B220"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="B197:B202"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="A169:A175"/>
+    <mergeCell ref="B169:B175"/>
+    <mergeCell ref="A210:A214"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="B125:B129"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:B100"/>
     <mergeCell ref="A137:A141"/>
     <mergeCell ref="B137:B141"/>
     <mergeCell ref="A183:A188"/>
@@ -3050,38 +3056,32 @@
     <mergeCell ref="B155:B160"/>
     <mergeCell ref="A162:A167"/>
     <mergeCell ref="B162:B167"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="A169:A175"/>
-    <mergeCell ref="B169:B175"/>
-    <mergeCell ref="A210:A214"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="B125:B129"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="B216:B220"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="A197:A202"/>
-    <mergeCell ref="B197:B202"/>
-    <mergeCell ref="A204:A208"/>
-    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B53:B58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/XLDATA/Mars-QA TestCase-User Story1.xlsx
+++ b/XLDATA/Mars-QA TestCase-User Story1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IC Course\MarsQA\XLDATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE8B1DF-DFE7-4292-AA92-2F6FA1E7E87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E595541E-A8E3-4E30-B67F-206C1DF8F470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,7 @@
     <t>2.Enter the sign in credentials with valid Email and password.</t>
   </si>
   <si>
-    <t>3.Click the delete icon in the list.</t>
+    <t>3.Click the delete icon in the list</t>
   </si>
 </sst>
 </file>
@@ -737,6 +737,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -746,14 +782,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -763,73 +830,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1084,10 +1084,10 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1098,32 +1098,32 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1136,10 +1136,10 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1150,32 +1150,32 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1188,10 +1188,10 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1202,32 +1202,32 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1240,10 +1240,10 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1254,32 +1254,32 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
@@ -1292,10 +1292,10 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1306,24 +1306,24 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1336,7 +1336,7 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="31" t="s">
@@ -1350,24 +1350,24 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="14" t="s">
         <v>29</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -1394,24 +1394,24 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="14" t="s">
         <v>29</v>
       </c>
@@ -1424,10 +1424,10 @@
       <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="50" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -1438,30 +1438,30 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
     </row>
@@ -1472,10 +1472,10 @@
       <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="47" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -1486,24 +1486,24 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
-      <c r="B49" s="37"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
-      <c r="B50" s="37"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="39"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="14" t="s">
         <v>47</v>
       </c>
@@ -1516,10 +1516,10 @@
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="40" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -1530,40 +1530,40 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="41"/>
       <c r="C56" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="29"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="30"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="3" t="s">
         <v>80</v>
       </c>
@@ -1576,10 +1576,10 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="59" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="14" t="s">
@@ -1590,40 +1590,40 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="35"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="35"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="60"/>
       <c r="C62" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="35"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="60"/>
       <c r="C63" s="14" t="s">
         <v>78</v>
       </c>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="35"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="60"/>
       <c r="C64" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="36"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="61"/>
       <c r="C65" s="14" t="s">
         <v>84</v>
       </c>
@@ -1636,10 +1636,10 @@
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="59" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -1650,40 +1650,40 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="35"/>
+      <c r="A68" s="48"/>
+      <c r="B68" s="60"/>
       <c r="C68" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="35"/>
+      <c r="A69" s="48"/>
+      <c r="B69" s="60"/>
       <c r="C69" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="35"/>
+      <c r="A70" s="48"/>
+      <c r="B70" s="60"/>
       <c r="C70" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="B71" s="35"/>
+      <c r="A71" s="48"/>
+      <c r="B71" s="60"/>
       <c r="C71" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="36"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="61"/>
       <c r="C72" s="3" t="s">
         <v>84</v>
       </c>
@@ -1699,7 +1699,7 @@
       <c r="A74" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="15" t="s">
@@ -1711,7 +1711,7 @@
     </row>
     <row r="75" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="32"/>
-      <c r="B75" s="29"/>
+      <c r="B75" s="41"/>
       <c r="C75" s="13" t="s">
         <v>76</v>
       </c>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
-      <c r="B76" s="29"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="14" t="s">
         <v>129</v>
       </c>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
-      <c r="B77" s="29"/>
+      <c r="B77" s="41"/>
       <c r="C77" s="14" t="s">
         <v>87</v>
       </c>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
-      <c r="B78" s="29"/>
+      <c r="B78" s="41"/>
       <c r="C78" s="14" t="s">
         <v>79</v>
       </c>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="33"/>
-      <c r="B79" s="30"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="14" t="s">
         <v>80</v>
       </c>
@@ -1756,10 +1756,10 @@
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="40" t="s">
         <v>75</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -1770,40 +1770,40 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
-      <c r="B82" s="29"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="41"/>
       <c r="C82" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
-      <c r="B83" s="29"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="41"/>
       <c r="C83" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
-      <c r="B84" s="29"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="41"/>
       <c r="C84" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
-      <c r="B85" s="29"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="41"/>
       <c r="C85" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
-      <c r="B86" s="30"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="14" t="s">
         <v>80</v>
       </c>
@@ -1816,10 +1816,10 @@
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="45" t="s">
+      <c r="A88" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="B88" s="28" t="s">
+      <c r="B88" s="40" t="s">
         <v>53</v>
       </c>
       <c r="C88" s="15" t="s">
@@ -1830,40 +1830,40 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
-      <c r="B89" s="29"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="41"/>
       <c r="C89" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
-      <c r="B90" s="29"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="41"/>
       <c r="C90" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
-      <c r="B91" s="29"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="41"/>
       <c r="C91" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
-      <c r="B92" s="29"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="41"/>
       <c r="C92" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
-      <c r="B93" s="30"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="14" t="s">
         <v>80</v>
       </c>
@@ -1876,10 +1876,10 @@
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="45" t="s">
+      <c r="A95" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="40" t="s">
         <v>55</v>
       </c>
       <c r="C95" s="15" t="s">
@@ -1890,40 +1890,40 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
-      <c r="B96" s="29"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="41"/>
       <c r="C96" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
-      <c r="B97" s="29"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="41"/>
       <c r="C97" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="55"/>
-      <c r="B98" s="29"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="41"/>
       <c r="C98" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="55"/>
-      <c r="B99" s="29"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="41"/>
       <c r="C99" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
-      <c r="B100" s="30"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="42"/>
       <c r="C100" s="14" t="s">
         <v>80</v>
       </c>
@@ -1936,10 +1936,10 @@
       <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="52" t="s">
+      <c r="A102" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B102" s="38" t="s">
+      <c r="B102" s="47" t="s">
         <v>56</v>
       </c>
       <c r="C102" s="15" t="s">
@@ -1950,40 +1950,40 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="53"/>
-      <c r="B103" s="37"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="48"/>
       <c r="C103" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="53"/>
-      <c r="B104" s="37"/>
+      <c r="A104" s="29"/>
+      <c r="B104" s="48"/>
       <c r="C104" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="53"/>
-      <c r="B105" s="37"/>
+      <c r="A105" s="29"/>
+      <c r="B105" s="48"/>
       <c r="C105" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="53"/>
-      <c r="B106" s="37"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="48"/>
       <c r="C106" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="54"/>
-      <c r="B107" s="39"/>
+      <c r="A107" s="30"/>
+      <c r="B107" s="49"/>
       <c r="C107" s="14" t="s">
         <v>80</v>
       </c>
@@ -1996,10 +1996,10 @@
       <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="45" t="s">
+      <c r="A109" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B109" s="28" t="s">
+      <c r="B109" s="40" t="s">
         <v>57</v>
       </c>
       <c r="C109" s="15" t="s">
@@ -2010,40 +2010,40 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="55"/>
-      <c r="B110" s="29"/>
+      <c r="A110" s="38"/>
+      <c r="B110" s="41"/>
       <c r="C110" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="55"/>
-      <c r="B111" s="29"/>
+      <c r="A111" s="38"/>
+      <c r="B111" s="41"/>
       <c r="C111" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D111" s="3"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="55"/>
-      <c r="B112" s="29"/>
+      <c r="A112" s="38"/>
+      <c r="B112" s="41"/>
       <c r="C112" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D112" s="3"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="55"/>
-      <c r="B113" s="29"/>
+      <c r="A113" s="38"/>
+      <c r="B113" s="41"/>
       <c r="C113" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D113" s="3"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="56"/>
-      <c r="B114" s="30"/>
+      <c r="A114" s="39"/>
+      <c r="B114" s="42"/>
       <c r="C114" s="14" t="s">
         <v>80</v>
       </c>
@@ -2058,10 +2058,10 @@
       <c r="D115" s="3"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="52" t="s">
+      <c r="A116" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B116" s="52" t="s">
+      <c r="B116" s="28" t="s">
         <v>96</v>
       </c>
       <c r="C116" s="14" t="s">
@@ -2072,8 +2072,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="54"/>
-      <c r="B117" s="54"/>
+      <c r="A117" s="30"/>
+      <c r="B117" s="30"/>
       <c r="C117" s="13" t="s">
         <v>76</v>
       </c>
@@ -2089,7 +2089,7 @@
       <c r="A119" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B119" s="40" t="s">
+      <c r="B119" s="50" t="s">
         <v>112</v>
       </c>
       <c r="C119" s="15" t="s">
@@ -2101,7 +2101,7 @@
     </row>
     <row r="120" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="32"/>
-      <c r="B120" s="41"/>
+      <c r="B120" s="51"/>
       <c r="C120" s="13" t="s">
         <v>76</v>
       </c>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="32"/>
-      <c r="B121" s="41"/>
+      <c r="B121" s="51"/>
       <c r="C121" s="14" t="s">
         <v>110</v>
       </c>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="32"/>
-      <c r="B122" s="41"/>
+      <c r="B122" s="51"/>
       <c r="C122" s="14" t="s">
         <v>111</v>
       </c>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="33"/>
-      <c r="B123" s="57"/>
+      <c r="B123" s="52"/>
       <c r="C123" s="14" t="s">
         <v>100</v>
       </c>
@@ -2138,10 +2138,10 @@
       <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="52" t="s">
+      <c r="A125" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B125" s="38" t="s">
+      <c r="B125" s="47" t="s">
         <v>113</v>
       </c>
       <c r="C125" s="15" t="s">
@@ -2152,32 +2152,32 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="53"/>
-      <c r="B126" s="37"/>
+      <c r="A126" s="29"/>
+      <c r="B126" s="48"/>
       <c r="C126" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D126" s="3"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="53"/>
-      <c r="B127" s="37"/>
+      <c r="A127" s="29"/>
+      <c r="B127" s="48"/>
       <c r="C127" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="53"/>
-      <c r="B128" s="37"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="48"/>
       <c r="C128" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="54"/>
-      <c r="B129" s="39"/>
+      <c r="A129" s="30"/>
+      <c r="B129" s="49"/>
       <c r="C129" s="14" t="s">
         <v>100</v>
       </c>
@@ -2190,10 +2190,10 @@
       <c r="D130" s="3"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="52" t="s">
+      <c r="A131" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B131" s="52" t="s">
+      <c r="B131" s="28" t="s">
         <v>117</v>
       </c>
       <c r="C131" s="14" t="s">
@@ -2204,32 +2204,32 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="53"/>
-      <c r="B132" s="53"/>
+      <c r="A132" s="29"/>
+      <c r="B132" s="29"/>
       <c r="C132" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D132" s="3"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="53"/>
-      <c r="B133" s="53"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="29"/>
       <c r="C133" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D133" s="3"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="53"/>
-      <c r="B134" s="53"/>
+      <c r="A134" s="29"/>
+      <c r="B134" s="29"/>
       <c r="C134" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D134" s="3"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="54"/>
-      <c r="B135" s="54"/>
+      <c r="A135" s="30"/>
+      <c r="B135" s="30"/>
       <c r="C135" s="14" t="s">
         <v>119</v>
       </c>
@@ -2242,10 +2242,10 @@
       <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="52" t="s">
+      <c r="A137" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="B137" s="52" t="s">
+      <c r="B137" s="28" t="s">
         <v>121</v>
       </c>
       <c r="C137" s="14" t="s">
@@ -2256,32 +2256,32 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="53"/>
-      <c r="B138" s="53"/>
+      <c r="A138" s="29"/>
+      <c r="B138" s="29"/>
       <c r="C138" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="53"/>
-      <c r="B139" s="53"/>
+      <c r="A139" s="29"/>
+      <c r="B139" s="29"/>
       <c r="C139" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D139" s="3"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="53"/>
-      <c r="B140" s="53"/>
+      <c r="A140" s="29"/>
+      <c r="B140" s="29"/>
       <c r="C140" s="14" t="s">
         <v>122</v>
       </c>
       <c r="D140" s="3"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="54"/>
-      <c r="B141" s="54"/>
+      <c r="A141" s="30"/>
+      <c r="B141" s="30"/>
       <c r="C141" s="14" t="s">
         <v>119</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="A143" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B143" s="28" t="s">
+      <c r="B143" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C143" s="15" t="s">
@@ -2309,7 +2309,7 @@
     </row>
     <row r="144" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A144" s="32"/>
-      <c r="B144" s="29"/>
+      <c r="B144" s="41"/>
       <c r="C144" s="16" t="s">
         <v>76</v>
       </c>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="33"/>
-      <c r="B145" s="30"/>
+      <c r="B145" s="42"/>
       <c r="C145" s="15" t="s">
         <v>126</v>
       </c>
@@ -2333,7 +2333,7 @@
       <c r="A147" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B147" s="40" t="s">
+      <c r="B147" s="50" t="s">
         <v>127</v>
       </c>
       <c r="C147" s="15" t="s">
@@ -2345,7 +2345,7 @@
     </row>
     <row r="148" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A148" s="32"/>
-      <c r="B148" s="41"/>
+      <c r="B148" s="51"/>
       <c r="C148" s="16" t="s">
         <v>76</v>
       </c>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="33"/>
-      <c r="B149" s="57"/>
+      <c r="B149" s="52"/>
       <c r="C149" s="15" t="s">
         <v>128</v>
       </c>
@@ -2369,7 +2369,7 @@
       <c r="A151" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B151" s="40" t="s">
+      <c r="B151" s="50" t="s">
         <v>130</v>
       </c>
       <c r="C151" s="15" t="s">
@@ -2381,7 +2381,7 @@
     </row>
     <row r="152" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A152" s="32"/>
-      <c r="B152" s="41"/>
+      <c r="B152" s="51"/>
       <c r="C152" s="16" t="s">
         <v>76</v>
       </c>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="33"/>
-      <c r="B153" s="57"/>
+      <c r="B153" s="52"/>
       <c r="C153" s="15" t="s">
         <v>131</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="45" t="s">
+      <c r="A155" s="37" t="s">
         <v>150</v>
       </c>
       <c r="B155" s="31" t="s">
@@ -2416,7 +2416,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="55"/>
+      <c r="A156" s="38"/>
       <c r="B156" s="32"/>
       <c r="C156" s="13" t="s">
         <v>76</v>
@@ -2424,7 +2424,7 @@
       <c r="D156" s="10"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="55"/>
+      <c r="A157" s="38"/>
       <c r="B157" s="32"/>
       <c r="C157" s="14" t="s">
         <v>135</v>
@@ -2432,7 +2432,7 @@
       <c r="D157" s="10"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="55"/>
+      <c r="A158" s="38"/>
       <c r="B158" s="32"/>
       <c r="C158" s="14" t="s">
         <v>101</v>
@@ -2440,7 +2440,7 @@
       <c r="D158" s="10"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="55"/>
+      <c r="A159" s="38"/>
       <c r="B159" s="32"/>
       <c r="C159" s="14" t="s">
         <v>102</v>
@@ -2448,7 +2448,7 @@
       <c r="D159" s="10"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="55"/>
+      <c r="A160" s="38"/>
       <c r="B160" s="32"/>
       <c r="C160" s="14" t="s">
         <v>103</v>
@@ -2462,10 +2462,10 @@
       <c r="D161" s="10"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="53" t="s">
+      <c r="A162" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B162" s="53" t="s">
+      <c r="B162" s="29" t="s">
         <v>136</v>
       </c>
       <c r="C162" s="14" t="s">
@@ -2476,40 +2476,40 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="53"/>
-      <c r="B163" s="53"/>
+      <c r="A163" s="29"/>
+      <c r="B163" s="29"/>
       <c r="C163" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D163" s="10"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="53"/>
-      <c r="B164" s="53"/>
+      <c r="A164" s="29"/>
+      <c r="B164" s="29"/>
       <c r="C164" s="14" t="s">
         <v>135</v>
       </c>
       <c r="D164" s="10"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="53"/>
-      <c r="B165" s="53"/>
+      <c r="A165" s="29"/>
+      <c r="B165" s="29"/>
       <c r="C165" s="14" t="s">
         <v>101</v>
       </c>
       <c r="D165" s="10"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="53"/>
-      <c r="B166" s="53"/>
+      <c r="A166" s="29"/>
+      <c r="B166" s="29"/>
       <c r="C166" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D166" s="10"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="53"/>
-      <c r="B167" s="53"/>
+      <c r="A167" s="29"/>
+      <c r="B167" s="29"/>
       <c r="C167" s="14" t="s">
         <v>137</v>
       </c>
@@ -2522,10 +2522,10 @@
       <c r="D168" s="10"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="45" t="s">
+      <c r="A169" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B169" s="28" t="s">
+      <c r="B169" s="40" t="s">
         <v>62</v>
       </c>
       <c r="C169" s="15" t="s">
@@ -2536,55 +2536,55 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="49"/>
-      <c r="B170" s="58"/>
+      <c r="A170" s="43"/>
+      <c r="B170" s="45"/>
       <c r="C170" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D170" s="3"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="49"/>
-      <c r="B171" s="58"/>
+      <c r="A171" s="43"/>
+      <c r="B171" s="45"/>
       <c r="C171" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D171" s="3"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="49"/>
-      <c r="B172" s="58"/>
+      <c r="A172" s="43"/>
+      <c r="B172" s="45"/>
       <c r="C172" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D172" s="3"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="49"/>
-      <c r="B173" s="58"/>
+      <c r="A173" s="43"/>
+      <c r="B173" s="45"/>
       <c r="C173" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D173" s="3"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="49"/>
-      <c r="B174" s="58"/>
+      <c r="A174" s="43"/>
+      <c r="B174" s="45"/>
       <c r="C174" s="24" t="s">
         <v>80</v>
       </c>
       <c r="D174" s="3"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="50"/>
-      <c r="B175" s="59"/>
+      <c r="A175" s="44"/>
+      <c r="B175" s="46"/>
       <c r="D175" s="3"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="45" t="s">
+      <c r="A176" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="B176" s="28" t="s">
+      <c r="B176" s="40" t="s">
         <v>64</v>
       </c>
       <c r="C176" s="14" t="s">
@@ -2595,40 +2595,40 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="55"/>
-      <c r="B177" s="29"/>
+      <c r="A177" s="38"/>
+      <c r="B177" s="41"/>
       <c r="C177" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="55"/>
-      <c r="B178" s="29"/>
+      <c r="A178" s="38"/>
+      <c r="B178" s="41"/>
       <c r="C178" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="55"/>
-      <c r="B179" s="29"/>
+      <c r="A179" s="38"/>
+      <c r="B179" s="41"/>
       <c r="C179" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="55"/>
-      <c r="B180" s="29"/>
+      <c r="A180" s="38"/>
+      <c r="B180" s="41"/>
       <c r="C180" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="56"/>
-      <c r="B181" s="30"/>
+      <c r="A181" s="39"/>
+      <c r="B181" s="42"/>
       <c r="C181" s="14" t="s">
         <v>80</v>
       </c>
@@ -2641,10 +2641,10 @@
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="45" t="s">
+      <c r="A183" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="B183" s="28" t="s">
+      <c r="B183" s="40" t="s">
         <v>65</v>
       </c>
       <c r="C183" s="15" t="s">
@@ -2655,40 +2655,40 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="55"/>
-      <c r="B184" s="29"/>
+      <c r="A184" s="38"/>
+      <c r="B184" s="41"/>
       <c r="C184" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="55"/>
-      <c r="B185" s="29"/>
+      <c r="A185" s="38"/>
+      <c r="B185" s="41"/>
       <c r="C185" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="55"/>
-      <c r="B186" s="29"/>
+      <c r="A186" s="38"/>
+      <c r="B186" s="41"/>
       <c r="C186" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="55"/>
-      <c r="B187" s="29"/>
+      <c r="A187" s="38"/>
+      <c r="B187" s="41"/>
       <c r="C187" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="56"/>
-      <c r="B188" s="30"/>
+      <c r="A188" s="39"/>
+      <c r="B188" s="42"/>
       <c r="C188" s="14" t="s">
         <v>80</v>
       </c>
@@ -2701,10 +2701,10 @@
       <c r="D189" s="5"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="52" t="s">
+      <c r="A190" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B190" s="52" t="s">
+      <c r="B190" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C190" s="15" t="s">
@@ -2715,40 +2715,40 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="53"/>
-      <c r="B191" s="53"/>
+      <c r="A191" s="29"/>
+      <c r="B191" s="29"/>
       <c r="C191" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D191" s="5"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="53"/>
-      <c r="B192" s="53"/>
+      <c r="A192" s="29"/>
+      <c r="B192" s="29"/>
       <c r="C192" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="53"/>
-      <c r="B193" s="53"/>
+      <c r="A193" s="29"/>
+      <c r="B193" s="29"/>
       <c r="C193" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="53"/>
-      <c r="B194" s="53"/>
+      <c r="A194" s="29"/>
+      <c r="B194" s="29"/>
       <c r="C194" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="54"/>
-      <c r="B195" s="54"/>
+      <c r="A195" s="30"/>
+      <c r="B195" s="30"/>
       <c r="C195" s="14" t="s">
         <v>80</v>
       </c>
@@ -2761,10 +2761,10 @@
       <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="45" t="s">
+      <c r="A197" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="B197" s="28" t="s">
+      <c r="B197" s="40" t="s">
         <v>68</v>
       </c>
       <c r="C197" s="15" t="s">
@@ -2775,40 +2775,40 @@
       </c>
     </row>
     <row r="198" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="55"/>
-      <c r="B198" s="29"/>
+      <c r="A198" s="38"/>
+      <c r="B198" s="41"/>
       <c r="C198" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D198" s="5"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="55"/>
-      <c r="B199" s="29"/>
+      <c r="A199" s="38"/>
+      <c r="B199" s="41"/>
       <c r="C199" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D199" s="5"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="55"/>
-      <c r="B200" s="29"/>
+      <c r="A200" s="38"/>
+      <c r="B200" s="41"/>
       <c r="C200" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D200" s="5"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="55"/>
-      <c r="B201" s="29"/>
+      <c r="A201" s="38"/>
+      <c r="B201" s="41"/>
       <c r="C201" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D201" s="5"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="56"/>
-      <c r="B202" s="30"/>
+      <c r="A202" s="39"/>
+      <c r="B202" s="42"/>
       <c r="C202" s="14" t="s">
         <v>80</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="A204" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B204" s="28" t="s">
+      <c r="B204" s="40" t="s">
         <v>69</v>
       </c>
       <c r="C204" s="15" t="s">
@@ -2836,7 +2836,7 @@
     </row>
     <row r="205" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A205" s="32"/>
-      <c r="B205" s="29"/>
+      <c r="B205" s="41"/>
       <c r="C205" s="13" t="s">
         <v>76</v>
       </c>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="32"/>
-      <c r="B206" s="29"/>
+      <c r="B206" s="41"/>
       <c r="C206" s="14" t="s">
         <v>109</v>
       </c>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="32"/>
-      <c r="B207" s="29"/>
+      <c r="B207" s="41"/>
       <c r="C207" s="14" t="s">
         <v>99</v>
       </c>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="33"/>
-      <c r="B208" s="30"/>
+      <c r="B208" s="42"/>
       <c r="C208" s="14" t="s">
         <v>100</v>
       </c>
@@ -2873,10 +2873,10 @@
       <c r="D209" s="3"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="52" t="s">
+      <c r="A210" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B210" s="52" t="s">
+      <c r="B210" s="28" t="s">
         <v>139</v>
       </c>
       <c r="C210" s="14" t="s">
@@ -2887,32 +2887,32 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="53"/>
-      <c r="B211" s="53"/>
+      <c r="A211" s="29"/>
+      <c r="B211" s="29"/>
       <c r="C211" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D211" s="3"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="53"/>
-      <c r="B212" s="53"/>
+      <c r="A212" s="29"/>
+      <c r="B212" s="29"/>
       <c r="C212" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D212" s="3"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="53"/>
-      <c r="B213" s="53"/>
+      <c r="A213" s="29"/>
+      <c r="B213" s="29"/>
       <c r="C213" s="14" t="s">
         <v>140</v>
       </c>
       <c r="D213" s="3"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="54"/>
-      <c r="B214" s="54"/>
+      <c r="A214" s="30"/>
+      <c r="B214" s="30"/>
       <c r="C214" s="14" t="s">
         <v>119</v>
       </c>
@@ -2925,10 +2925,10 @@
       <c r="D215" s="3"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="52" t="s">
+      <c r="A216" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="B216" s="52" t="s">
+      <c r="B216" s="28" t="s">
         <v>142</v>
       </c>
       <c r="C216" s="14" t="s">
@@ -2939,32 +2939,32 @@
       </c>
     </row>
     <row r="217" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="53"/>
-      <c r="B217" s="53"/>
+      <c r="A217" s="29"/>
+      <c r="B217" s="29"/>
       <c r="C217" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D217" s="3"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="53"/>
-      <c r="B218" s="53"/>
+      <c r="A218" s="29"/>
+      <c r="B218" s="29"/>
       <c r="C218" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D218" s="3"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="53"/>
-      <c r="B219" s="53"/>
+      <c r="A219" s="29"/>
+      <c r="B219" s="29"/>
       <c r="C219" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D219" s="3"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="54"/>
-      <c r="B220" s="54"/>
+      <c r="A220" s="30"/>
+      <c r="B220" s="30"/>
       <c r="C220" s="14" t="s">
         <v>119</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="A222" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B222" s="51" t="s">
+      <c r="B222" s="34" t="s">
         <v>71</v>
       </c>
       <c r="C222" s="3" t="s">
@@ -2992,7 +2992,7 @@
     </row>
     <row r="223" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A223" s="32"/>
-      <c r="B223" s="60"/>
+      <c r="B223" s="35"/>
       <c r="C223" s="5" t="s">
         <v>169</v>
       </c>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="33"/>
-      <c r="B224" s="61"/>
+      <c r="B224" s="36"/>
       <c r="C224" s="25" t="s">
         <v>170</v>
       </c>
@@ -3008,16 +3008,54 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="B216:B220"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="A197:A202"/>
-    <mergeCell ref="B197:B202"/>
-    <mergeCell ref="A204:A208"/>
-    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="A151:A153"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="B155:B160"/>
+    <mergeCell ref="A162:A167"/>
+    <mergeCell ref="B162:B167"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:B100"/>
     <mergeCell ref="A169:A175"/>
     <mergeCell ref="B169:B175"/>
     <mergeCell ref="A210:A214"/>
@@ -3034,54 +3072,16 @@
     <mergeCell ref="B125:B129"/>
     <mergeCell ref="A131:A135"/>
     <mergeCell ref="B131:B135"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="B183:B188"/>
-    <mergeCell ref="A190:A195"/>
-    <mergeCell ref="B190:B195"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="A151:A153"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="B155:B160"/>
-    <mergeCell ref="A162:A167"/>
-    <mergeCell ref="B162:B167"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="B216:B220"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="B197:B202"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="B204:B208"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
